--- a/scripts/tests/input/MARCO-BOLO_Metadata_Dataset_Record_WP4.xlsx
+++ b/scripts/tests/input/MARCO-BOLO_Metadata_Dataset_Record_WP4.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="NiTjsAiLsRTjjzuquDvdRzT8zqCCVb+zNAMRnHnLXQQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="xSTc/q+xa0OJyfxGszqKTb009eskgz8eT85q/b1wEmA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="149">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -468,6 +468,9 @@
     <t>zooplankton | PH2 | abundance</t>
   </si>
   <si>
+    <t>Zooplankton biomass and diversity, Phytoplankton biomass and diversity</t>
+  </si>
+  <si>
     <t>MBO</t>
   </si>
   <si>
@@ -532,7 +535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -604,6 +607,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FFB7B7B7"/>
       <name val="Calibri"/>
@@ -637,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -755,17 +763,20 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -6399,8 +6410,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A2:A29"/>
     <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A2:A29"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -6424,7 +6435,9 @@
   <cols>
     <col customWidth="1" min="1" max="3" width="26.71"/>
     <col customWidth="1" min="4" max="4" width="47.86"/>
-    <col customWidth="1" min="5" max="28" width="26.71"/>
+    <col customWidth="1" min="5" max="7" width="26.71"/>
+    <col customWidth="1" min="8" max="8" width="53.14"/>
+    <col customWidth="1" min="9" max="28" width="26.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -6637,4982 +6650,5030 @@
       <c r="AA3" s="10"/>
       <c r="AB3" s="10"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" ht="20.25" customHeight="1">
       <c r="G4" s="42"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
+      <c r="H4" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="G5" s="42"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="G6" s="42"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="G7" s="42"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="G8" s="42"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="G9" s="42"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="G10" s="42"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="G11" s="42"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="G12" s="42"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="G13" s="42"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="G14" s="42"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="G15" s="42"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="G16" s="42"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="G17" s="42"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="G18" s="42"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="G19" s="42"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="G20" s="42"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="G21" s="42"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="G22" s="42"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="G23" s="42"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="G24" s="42"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="G25" s="42"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="G26" s="42"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="G27" s="42"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="G28" s="42"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="G29" s="42"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="G30" s="42"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="G31" s="42"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="G32" s="42"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="G33" s="42"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="G34" s="42"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="G35" s="42"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="G36" s="42"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="G37" s="42"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="G38" s="42"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="G39" s="42"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="G40" s="42"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="G41" s="42"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="G42" s="42"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="G43" s="42"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="G44" s="42"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="G45" s="42"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="G46" s="42"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="G47" s="42"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="G48" s="42"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="G49" s="42"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="G50" s="42"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="G51" s="42"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="G52" s="42"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="G53" s="42"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="G54" s="42"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="G55" s="42"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="G56" s="42"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="44"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="G57" s="42"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="G58" s="42"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="G59" s="42"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="G60" s="42"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="G61" s="42"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="43"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="44"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="G62" s="42"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="43"/>
+      <c r="U62" s="44"/>
+      <c r="V62" s="44"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="G63" s="42"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="43"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="44"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="G64" s="42"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="43"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="G65" s="42"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="G66" s="42"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="44"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="G67" s="42"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="43"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="G68" s="42"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
+      <c r="U68" s="44"/>
+      <c r="V68" s="44"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="G69" s="42"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
+      <c r="U69" s="44"/>
+      <c r="V69" s="44"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="G70" s="42"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="44"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="G71" s="42"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
+      <c r="U71" s="44"/>
+      <c r="V71" s="44"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="G72" s="42"/>
-      <c r="U72" s="43"/>
-      <c r="V72" s="43"/>
+      <c r="U72" s="44"/>
+      <c r="V72" s="44"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="G73" s="42"/>
-      <c r="U73" s="43"/>
-      <c r="V73" s="43"/>
+      <c r="U73" s="44"/>
+      <c r="V73" s="44"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="G74" s="42"/>
-      <c r="U74" s="43"/>
-      <c r="V74" s="43"/>
+      <c r="U74" s="44"/>
+      <c r="V74" s="44"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="G75" s="42"/>
-      <c r="U75" s="43"/>
-      <c r="V75" s="43"/>
+      <c r="U75" s="44"/>
+      <c r="V75" s="44"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="G76" s="42"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
+      <c r="U76" s="44"/>
+      <c r="V76" s="44"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="G77" s="42"/>
-      <c r="U77" s="43"/>
-      <c r="V77" s="43"/>
+      <c r="U77" s="44"/>
+      <c r="V77" s="44"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="G78" s="42"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="43"/>
+      <c r="U78" s="44"/>
+      <c r="V78" s="44"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="G79" s="42"/>
-      <c r="U79" s="43"/>
-      <c r="V79" s="43"/>
+      <c r="U79" s="44"/>
+      <c r="V79" s="44"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="G80" s="42"/>
-      <c r="U80" s="43"/>
-      <c r="V80" s="43"/>
+      <c r="U80" s="44"/>
+      <c r="V80" s="44"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="G81" s="42"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="43"/>
+      <c r="U81" s="44"/>
+      <c r="V81" s="44"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="G82" s="42"/>
-      <c r="U82" s="43"/>
-      <c r="V82" s="43"/>
+      <c r="U82" s="44"/>
+      <c r="V82" s="44"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="G83" s="42"/>
-      <c r="U83" s="43"/>
-      <c r="V83" s="43"/>
+      <c r="U83" s="44"/>
+      <c r="V83" s="44"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="G84" s="42"/>
-      <c r="U84" s="43"/>
-      <c r="V84" s="43"/>
+      <c r="U84" s="44"/>
+      <c r="V84" s="44"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="G85" s="42"/>
-      <c r="U85" s="43"/>
-      <c r="V85" s="43"/>
+      <c r="U85" s="44"/>
+      <c r="V85" s="44"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="G86" s="42"/>
-      <c r="U86" s="43"/>
-      <c r="V86" s="43"/>
+      <c r="U86" s="44"/>
+      <c r="V86" s="44"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="G87" s="42"/>
-      <c r="U87" s="43"/>
-      <c r="V87" s="43"/>
+      <c r="U87" s="44"/>
+      <c r="V87" s="44"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="G88" s="42"/>
-      <c r="U88" s="43"/>
-      <c r="V88" s="43"/>
+      <c r="U88" s="44"/>
+      <c r="V88" s="44"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="G89" s="42"/>
-      <c r="U89" s="43"/>
-      <c r="V89" s="43"/>
+      <c r="U89" s="44"/>
+      <c r="V89" s="44"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="G90" s="42"/>
-      <c r="U90" s="43"/>
-      <c r="V90" s="43"/>
+      <c r="U90" s="44"/>
+      <c r="V90" s="44"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="G91" s="42"/>
-      <c r="U91" s="43"/>
-      <c r="V91" s="43"/>
+      <c r="U91" s="44"/>
+      <c r="V91" s="44"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="G92" s="42"/>
-      <c r="U92" s="43"/>
-      <c r="V92" s="43"/>
+      <c r="U92" s="44"/>
+      <c r="V92" s="44"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="G93" s="42"/>
-      <c r="U93" s="43"/>
-      <c r="V93" s="43"/>
+      <c r="U93" s="44"/>
+      <c r="V93" s="44"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="G94" s="42"/>
-      <c r="U94" s="43"/>
-      <c r="V94" s="43"/>
+      <c r="U94" s="44"/>
+      <c r="V94" s="44"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="G95" s="42"/>
-      <c r="U95" s="43"/>
-      <c r="V95" s="43"/>
+      <c r="U95" s="44"/>
+      <c r="V95" s="44"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="G96" s="42"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="43"/>
+      <c r="U96" s="44"/>
+      <c r="V96" s="44"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="G97" s="42"/>
-      <c r="U97" s="43"/>
-      <c r="V97" s="43"/>
+      <c r="U97" s="44"/>
+      <c r="V97" s="44"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="G98" s="42"/>
-      <c r="U98" s="43"/>
-      <c r="V98" s="43"/>
+      <c r="U98" s="44"/>
+      <c r="V98" s="44"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="G99" s="42"/>
-      <c r="U99" s="43"/>
-      <c r="V99" s="43"/>
+      <c r="U99" s="44"/>
+      <c r="V99" s="44"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="G100" s="42"/>
-      <c r="U100" s="43"/>
-      <c r="V100" s="43"/>
+      <c r="U100" s="44"/>
+      <c r="V100" s="44"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="G101" s="42"/>
-      <c r="U101" s="43"/>
-      <c r="V101" s="43"/>
+      <c r="U101" s="44"/>
+      <c r="V101" s="44"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="G102" s="42"/>
-      <c r="U102" s="43"/>
-      <c r="V102" s="43"/>
+      <c r="U102" s="44"/>
+      <c r="V102" s="44"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="G103" s="42"/>
-      <c r="U103" s="43"/>
-      <c r="V103" s="43"/>
+      <c r="U103" s="44"/>
+      <c r="V103" s="44"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="G104" s="42"/>
-      <c r="U104" s="43"/>
-      <c r="V104" s="43"/>
+      <c r="U104" s="44"/>
+      <c r="V104" s="44"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="G105" s="42"/>
-      <c r="U105" s="43"/>
-      <c r="V105" s="43"/>
+      <c r="U105" s="44"/>
+      <c r="V105" s="44"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="G106" s="42"/>
-      <c r="U106" s="43"/>
-      <c r="V106" s="43"/>
+      <c r="U106" s="44"/>
+      <c r="V106" s="44"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="G107" s="42"/>
-      <c r="U107" s="43"/>
-      <c r="V107" s="43"/>
+      <c r="U107" s="44"/>
+      <c r="V107" s="44"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="G108" s="42"/>
-      <c r="U108" s="43"/>
-      <c r="V108" s="43"/>
+      <c r="U108" s="44"/>
+      <c r="V108" s="44"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="G109" s="42"/>
-      <c r="U109" s="43"/>
-      <c r="V109" s="43"/>
+      <c r="U109" s="44"/>
+      <c r="V109" s="44"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="G110" s="42"/>
-      <c r="U110" s="43"/>
-      <c r="V110" s="43"/>
+      <c r="U110" s="44"/>
+      <c r="V110" s="44"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="G111" s="42"/>
-      <c r="U111" s="43"/>
-      <c r="V111" s="43"/>
+      <c r="U111" s="44"/>
+      <c r="V111" s="44"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="G112" s="42"/>
-      <c r="U112" s="43"/>
-      <c r="V112" s="43"/>
+      <c r="U112" s="44"/>
+      <c r="V112" s="44"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="G113" s="42"/>
-      <c r="U113" s="43"/>
-      <c r="V113" s="43"/>
+      <c r="U113" s="44"/>
+      <c r="V113" s="44"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="G114" s="42"/>
-      <c r="U114" s="43"/>
-      <c r="V114" s="43"/>
+      <c r="U114" s="44"/>
+      <c r="V114" s="44"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="G115" s="42"/>
-      <c r="U115" s="43"/>
-      <c r="V115" s="43"/>
+      <c r="U115" s="44"/>
+      <c r="V115" s="44"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="G116" s="42"/>
-      <c r="U116" s="43"/>
-      <c r="V116" s="43"/>
+      <c r="U116" s="44"/>
+      <c r="V116" s="44"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="G117" s="42"/>
-      <c r="U117" s="43"/>
-      <c r="V117" s="43"/>
+      <c r="U117" s="44"/>
+      <c r="V117" s="44"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="G118" s="42"/>
-      <c r="U118" s="43"/>
-      <c r="V118" s="43"/>
+      <c r="U118" s="44"/>
+      <c r="V118" s="44"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="G119" s="42"/>
-      <c r="U119" s="43"/>
-      <c r="V119" s="43"/>
+      <c r="U119" s="44"/>
+      <c r="V119" s="44"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="G120" s="42"/>
-      <c r="U120" s="43"/>
-      <c r="V120" s="43"/>
+      <c r="U120" s="44"/>
+      <c r="V120" s="44"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="G121" s="42"/>
-      <c r="U121" s="43"/>
-      <c r="V121" s="43"/>
+      <c r="U121" s="44"/>
+      <c r="V121" s="44"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="G122" s="42"/>
-      <c r="U122" s="43"/>
-      <c r="V122" s="43"/>
+      <c r="U122" s="44"/>
+      <c r="V122" s="44"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="G123" s="42"/>
-      <c r="U123" s="43"/>
-      <c r="V123" s="43"/>
+      <c r="U123" s="44"/>
+      <c r="V123" s="44"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="G124" s="42"/>
-      <c r="U124" s="43"/>
-      <c r="V124" s="43"/>
+      <c r="U124" s="44"/>
+      <c r="V124" s="44"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="G125" s="42"/>
-      <c r="U125" s="43"/>
-      <c r="V125" s="43"/>
+      <c r="U125" s="44"/>
+      <c r="V125" s="44"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="G126" s="42"/>
-      <c r="U126" s="43"/>
-      <c r="V126" s="43"/>
+      <c r="U126" s="44"/>
+      <c r="V126" s="44"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="G127" s="42"/>
-      <c r="U127" s="43"/>
-      <c r="V127" s="43"/>
+      <c r="U127" s="44"/>
+      <c r="V127" s="44"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="G128" s="42"/>
-      <c r="U128" s="43"/>
-      <c r="V128" s="43"/>
+      <c r="U128" s="44"/>
+      <c r="V128" s="44"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="G129" s="42"/>
-      <c r="U129" s="43"/>
-      <c r="V129" s="43"/>
+      <c r="U129" s="44"/>
+      <c r="V129" s="44"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="G130" s="42"/>
-      <c r="U130" s="43"/>
-      <c r="V130" s="43"/>
+      <c r="U130" s="44"/>
+      <c r="V130" s="44"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="G131" s="42"/>
-      <c r="U131" s="43"/>
-      <c r="V131" s="43"/>
+      <c r="U131" s="44"/>
+      <c r="V131" s="44"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="G132" s="42"/>
-      <c r="U132" s="43"/>
-      <c r="V132" s="43"/>
+      <c r="U132" s="44"/>
+      <c r="V132" s="44"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="G133" s="42"/>
-      <c r="U133" s="43"/>
-      <c r="V133" s="43"/>
+      <c r="U133" s="44"/>
+      <c r="V133" s="44"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="G134" s="42"/>
-      <c r="U134" s="43"/>
-      <c r="V134" s="43"/>
+      <c r="U134" s="44"/>
+      <c r="V134" s="44"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="G135" s="42"/>
-      <c r="U135" s="43"/>
-      <c r="V135" s="43"/>
+      <c r="U135" s="44"/>
+      <c r="V135" s="44"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="G136" s="42"/>
-      <c r="U136" s="43"/>
-      <c r="V136" s="43"/>
+      <c r="U136" s="44"/>
+      <c r="V136" s="44"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="G137" s="42"/>
-      <c r="U137" s="43"/>
-      <c r="V137" s="43"/>
+      <c r="U137" s="44"/>
+      <c r="V137" s="44"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="G138" s="42"/>
-      <c r="U138" s="43"/>
-      <c r="V138" s="43"/>
+      <c r="U138" s="44"/>
+      <c r="V138" s="44"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="G139" s="42"/>
-      <c r="U139" s="43"/>
-      <c r="V139" s="43"/>
+      <c r="U139" s="44"/>
+      <c r="V139" s="44"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="G140" s="42"/>
-      <c r="U140" s="43"/>
-      <c r="V140" s="43"/>
+      <c r="U140" s="44"/>
+      <c r="V140" s="44"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="G141" s="42"/>
-      <c r="U141" s="43"/>
-      <c r="V141" s="43"/>
+      <c r="U141" s="44"/>
+      <c r="V141" s="44"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="G142" s="42"/>
-      <c r="U142" s="43"/>
-      <c r="V142" s="43"/>
+      <c r="U142" s="44"/>
+      <c r="V142" s="44"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="G143" s="42"/>
-      <c r="U143" s="43"/>
-      <c r="V143" s="43"/>
+      <c r="U143" s="44"/>
+      <c r="V143" s="44"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="G144" s="42"/>
-      <c r="U144" s="43"/>
-      <c r="V144" s="43"/>
+      <c r="U144" s="44"/>
+      <c r="V144" s="44"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="G145" s="42"/>
-      <c r="U145" s="43"/>
-      <c r="V145" s="43"/>
+      <c r="U145" s="44"/>
+      <c r="V145" s="44"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="G146" s="42"/>
-      <c r="U146" s="43"/>
-      <c r="V146" s="43"/>
+      <c r="U146" s="44"/>
+      <c r="V146" s="44"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="G147" s="42"/>
-      <c r="U147" s="43"/>
-      <c r="V147" s="43"/>
+      <c r="U147" s="44"/>
+      <c r="V147" s="44"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="G148" s="42"/>
-      <c r="U148" s="43"/>
-      <c r="V148" s="43"/>
+      <c r="U148" s="44"/>
+      <c r="V148" s="44"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="G149" s="42"/>
-      <c r="U149" s="43"/>
-      <c r="V149" s="43"/>
+      <c r="U149" s="44"/>
+      <c r="V149" s="44"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="G150" s="42"/>
-      <c r="U150" s="43"/>
-      <c r="V150" s="43"/>
+      <c r="U150" s="44"/>
+      <c r="V150" s="44"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="G151" s="42"/>
-      <c r="U151" s="43"/>
-      <c r="V151" s="43"/>
+      <c r="U151" s="44"/>
+      <c r="V151" s="44"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="G152" s="42"/>
-      <c r="U152" s="43"/>
-      <c r="V152" s="43"/>
+      <c r="U152" s="44"/>
+      <c r="V152" s="44"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="G153" s="42"/>
-      <c r="U153" s="43"/>
-      <c r="V153" s="43"/>
+      <c r="U153" s="44"/>
+      <c r="V153" s="44"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="G154" s="42"/>
-      <c r="U154" s="43"/>
-      <c r="V154" s="43"/>
+      <c r="U154" s="44"/>
+      <c r="V154" s="44"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="G155" s="42"/>
-      <c r="U155" s="43"/>
-      <c r="V155" s="43"/>
+      <c r="U155" s="44"/>
+      <c r="V155" s="44"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="G156" s="42"/>
-      <c r="U156" s="43"/>
-      <c r="V156" s="43"/>
+      <c r="U156" s="44"/>
+      <c r="V156" s="44"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="G157" s="42"/>
-      <c r="U157" s="43"/>
-      <c r="V157" s="43"/>
+      <c r="U157" s="44"/>
+      <c r="V157" s="44"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="G158" s="42"/>
-      <c r="U158" s="43"/>
-      <c r="V158" s="43"/>
+      <c r="U158" s="44"/>
+      <c r="V158" s="44"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="G159" s="42"/>
-      <c r="U159" s="43"/>
-      <c r="V159" s="43"/>
+      <c r="U159" s="44"/>
+      <c r="V159" s="44"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="G160" s="42"/>
-      <c r="U160" s="43"/>
-      <c r="V160" s="43"/>
+      <c r="U160" s="44"/>
+      <c r="V160" s="44"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="G161" s="42"/>
-      <c r="U161" s="43"/>
-      <c r="V161" s="43"/>
+      <c r="U161" s="44"/>
+      <c r="V161" s="44"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="G162" s="42"/>
-      <c r="U162" s="43"/>
-      <c r="V162" s="43"/>
+      <c r="U162" s="44"/>
+      <c r="V162" s="44"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="G163" s="42"/>
-      <c r="U163" s="43"/>
-      <c r="V163" s="43"/>
+      <c r="U163" s="44"/>
+      <c r="V163" s="44"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="G164" s="42"/>
-      <c r="U164" s="43"/>
-      <c r="V164" s="43"/>
+      <c r="U164" s="44"/>
+      <c r="V164" s="44"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="G165" s="42"/>
-      <c r="U165" s="43"/>
-      <c r="V165" s="43"/>
+      <c r="U165" s="44"/>
+      <c r="V165" s="44"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="G166" s="42"/>
-      <c r="U166" s="43"/>
-      <c r="V166" s="43"/>
+      <c r="U166" s="44"/>
+      <c r="V166" s="44"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="G167" s="42"/>
-      <c r="U167" s="43"/>
-      <c r="V167" s="43"/>
+      <c r="U167" s="44"/>
+      <c r="V167" s="44"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="G168" s="42"/>
-      <c r="U168" s="43"/>
-      <c r="V168" s="43"/>
+      <c r="U168" s="44"/>
+      <c r="V168" s="44"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="G169" s="42"/>
-      <c r="U169" s="43"/>
-      <c r="V169" s="43"/>
+      <c r="U169" s="44"/>
+      <c r="V169" s="44"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="G170" s="42"/>
-      <c r="U170" s="43"/>
-      <c r="V170" s="43"/>
+      <c r="U170" s="44"/>
+      <c r="V170" s="44"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="G171" s="42"/>
-      <c r="U171" s="43"/>
-      <c r="V171" s="43"/>
+      <c r="U171" s="44"/>
+      <c r="V171" s="44"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
       <c r="G172" s="42"/>
-      <c r="U172" s="43"/>
-      <c r="V172" s="43"/>
+      <c r="U172" s="44"/>
+      <c r="V172" s="44"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="G173" s="42"/>
-      <c r="U173" s="43"/>
-      <c r="V173" s="43"/>
+      <c r="U173" s="44"/>
+      <c r="V173" s="44"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="G174" s="42"/>
-      <c r="U174" s="43"/>
-      <c r="V174" s="43"/>
+      <c r="U174" s="44"/>
+      <c r="V174" s="44"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
       <c r="G175" s="42"/>
-      <c r="U175" s="43"/>
-      <c r="V175" s="43"/>
+      <c r="U175" s="44"/>
+      <c r="V175" s="44"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
       <c r="G176" s="42"/>
-      <c r="U176" s="43"/>
-      <c r="V176" s="43"/>
+      <c r="U176" s="44"/>
+      <c r="V176" s="44"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
       <c r="G177" s="42"/>
-      <c r="U177" s="43"/>
-      <c r="V177" s="43"/>
+      <c r="U177" s="44"/>
+      <c r="V177" s="44"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
       <c r="G178" s="42"/>
-      <c r="U178" s="43"/>
-      <c r="V178" s="43"/>
+      <c r="U178" s="44"/>
+      <c r="V178" s="44"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
       <c r="G179" s="42"/>
-      <c r="U179" s="43"/>
-      <c r="V179" s="43"/>
+      <c r="U179" s="44"/>
+      <c r="V179" s="44"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
       <c r="G180" s="42"/>
-      <c r="U180" s="43"/>
-      <c r="V180" s="43"/>
+      <c r="U180" s="44"/>
+      <c r="V180" s="44"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
       <c r="G181" s="42"/>
-      <c r="U181" s="43"/>
-      <c r="V181" s="43"/>
+      <c r="U181" s="44"/>
+      <c r="V181" s="44"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
       <c r="G182" s="42"/>
-      <c r="U182" s="43"/>
-      <c r="V182" s="43"/>
+      <c r="U182" s="44"/>
+      <c r="V182" s="44"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="G183" s="42"/>
-      <c r="U183" s="43"/>
-      <c r="V183" s="43"/>
+      <c r="U183" s="44"/>
+      <c r="V183" s="44"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
       <c r="G184" s="42"/>
-      <c r="U184" s="43"/>
-      <c r="V184" s="43"/>
+      <c r="U184" s="44"/>
+      <c r="V184" s="44"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
       <c r="G185" s="42"/>
-      <c r="U185" s="43"/>
-      <c r="V185" s="43"/>
+      <c r="U185" s="44"/>
+      <c r="V185" s="44"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
       <c r="G186" s="42"/>
-      <c r="U186" s="43"/>
-      <c r="V186" s="43"/>
+      <c r="U186" s="44"/>
+      <c r="V186" s="44"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
       <c r="G187" s="42"/>
-      <c r="U187" s="43"/>
-      <c r="V187" s="43"/>
+      <c r="U187" s="44"/>
+      <c r="V187" s="44"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
       <c r="G188" s="42"/>
-      <c r="U188" s="43"/>
-      <c r="V188" s="43"/>
+      <c r="U188" s="44"/>
+      <c r="V188" s="44"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
       <c r="G189" s="42"/>
-      <c r="U189" s="43"/>
-      <c r="V189" s="43"/>
+      <c r="U189" s="44"/>
+      <c r="V189" s="44"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
       <c r="G190" s="42"/>
-      <c r="U190" s="43"/>
-      <c r="V190" s="43"/>
+      <c r="U190" s="44"/>
+      <c r="V190" s="44"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
       <c r="G191" s="42"/>
-      <c r="U191" s="43"/>
-      <c r="V191" s="43"/>
+      <c r="U191" s="44"/>
+      <c r="V191" s="44"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
       <c r="G192" s="42"/>
-      <c r="U192" s="43"/>
-      <c r="V192" s="43"/>
+      <c r="U192" s="44"/>
+      <c r="V192" s="44"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
       <c r="G193" s="42"/>
-      <c r="U193" s="43"/>
-      <c r="V193" s="43"/>
+      <c r="U193" s="44"/>
+      <c r="V193" s="44"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
       <c r="G194" s="42"/>
-      <c r="U194" s="43"/>
-      <c r="V194" s="43"/>
+      <c r="U194" s="44"/>
+      <c r="V194" s="44"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
       <c r="G195" s="42"/>
-      <c r="U195" s="43"/>
-      <c r="V195" s="43"/>
+      <c r="U195" s="44"/>
+      <c r="V195" s="44"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
       <c r="G196" s="42"/>
-      <c r="U196" s="43"/>
-      <c r="V196" s="43"/>
+      <c r="U196" s="44"/>
+      <c r="V196" s="44"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
       <c r="G197" s="42"/>
-      <c r="U197" s="43"/>
-      <c r="V197" s="43"/>
+      <c r="U197" s="44"/>
+      <c r="V197" s="44"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
       <c r="G198" s="42"/>
-      <c r="U198" s="43"/>
-      <c r="V198" s="43"/>
+      <c r="U198" s="44"/>
+      <c r="V198" s="44"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
       <c r="G199" s="42"/>
-      <c r="U199" s="43"/>
-      <c r="V199" s="43"/>
+      <c r="U199" s="44"/>
+      <c r="V199" s="44"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
       <c r="G200" s="42"/>
-      <c r="U200" s="43"/>
-      <c r="V200" s="43"/>
+      <c r="U200" s="44"/>
+      <c r="V200" s="44"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
       <c r="G201" s="42"/>
-      <c r="U201" s="43"/>
-      <c r="V201" s="43"/>
+      <c r="U201" s="44"/>
+      <c r="V201" s="44"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
       <c r="G202" s="42"/>
-      <c r="U202" s="43"/>
-      <c r="V202" s="43"/>
+      <c r="U202" s="44"/>
+      <c r="V202" s="44"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
       <c r="G203" s="42"/>
-      <c r="U203" s="43"/>
-      <c r="V203" s="43"/>
+      <c r="U203" s="44"/>
+      <c r="V203" s="44"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
       <c r="G204" s="42"/>
-      <c r="U204" s="43"/>
-      <c r="V204" s="43"/>
+      <c r="U204" s="44"/>
+      <c r="V204" s="44"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
       <c r="G205" s="42"/>
-      <c r="U205" s="43"/>
-      <c r="V205" s="43"/>
+      <c r="U205" s="44"/>
+      <c r="V205" s="44"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
       <c r="G206" s="42"/>
-      <c r="U206" s="43"/>
-      <c r="V206" s="43"/>
+      <c r="U206" s="44"/>
+      <c r="V206" s="44"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
       <c r="G207" s="42"/>
-      <c r="U207" s="43"/>
-      <c r="V207" s="43"/>
+      <c r="U207" s="44"/>
+      <c r="V207" s="44"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
       <c r="G208" s="42"/>
-      <c r="U208" s="43"/>
-      <c r="V208" s="43"/>
+      <c r="U208" s="44"/>
+      <c r="V208" s="44"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
       <c r="G209" s="42"/>
-      <c r="U209" s="43"/>
-      <c r="V209" s="43"/>
+      <c r="U209" s="44"/>
+      <c r="V209" s="44"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
       <c r="G210" s="42"/>
-      <c r="U210" s="43"/>
-      <c r="V210" s="43"/>
+      <c r="U210" s="44"/>
+      <c r="V210" s="44"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
       <c r="G211" s="42"/>
-      <c r="U211" s="43"/>
-      <c r="V211" s="43"/>
+      <c r="U211" s="44"/>
+      <c r="V211" s="44"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
       <c r="G212" s="42"/>
-      <c r="U212" s="43"/>
-      <c r="V212" s="43"/>
+      <c r="U212" s="44"/>
+      <c r="V212" s="44"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
       <c r="G213" s="42"/>
-      <c r="U213" s="43"/>
-      <c r="V213" s="43"/>
+      <c r="U213" s="44"/>
+      <c r="V213" s="44"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
       <c r="G214" s="42"/>
-      <c r="U214" s="43"/>
-      <c r="V214" s="43"/>
+      <c r="U214" s="44"/>
+      <c r="V214" s="44"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
       <c r="G215" s="42"/>
-      <c r="U215" s="43"/>
-      <c r="V215" s="43"/>
+      <c r="U215" s="44"/>
+      <c r="V215" s="44"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
       <c r="G216" s="42"/>
-      <c r="U216" s="43"/>
-      <c r="V216" s="43"/>
+      <c r="U216" s="44"/>
+      <c r="V216" s="44"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
       <c r="G217" s="42"/>
-      <c r="U217" s="43"/>
-      <c r="V217" s="43"/>
+      <c r="U217" s="44"/>
+      <c r="V217" s="44"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
       <c r="G218" s="42"/>
-      <c r="U218" s="43"/>
-      <c r="V218" s="43"/>
+      <c r="U218" s="44"/>
+      <c r="V218" s="44"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
       <c r="G219" s="42"/>
-      <c r="U219" s="43"/>
-      <c r="V219" s="43"/>
+      <c r="U219" s="44"/>
+      <c r="V219" s="44"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
       <c r="G220" s="42"/>
-      <c r="U220" s="43"/>
-      <c r="V220" s="43"/>
+      <c r="U220" s="44"/>
+      <c r="V220" s="44"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
       <c r="G221" s="42"/>
-      <c r="U221" s="43"/>
-      <c r="V221" s="43"/>
+      <c r="U221" s="44"/>
+      <c r="V221" s="44"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
       <c r="G222" s="42"/>
-      <c r="U222" s="43"/>
-      <c r="V222" s="43"/>
+      <c r="U222" s="44"/>
+      <c r="V222" s="44"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
       <c r="G223" s="42"/>
-      <c r="U223" s="43"/>
-      <c r="V223" s="43"/>
+      <c r="U223" s="44"/>
+      <c r="V223" s="44"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
       <c r="G224" s="42"/>
-      <c r="U224" s="43"/>
-      <c r="V224" s="43"/>
+      <c r="U224" s="44"/>
+      <c r="V224" s="44"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
       <c r="G225" s="42"/>
-      <c r="U225" s="43"/>
-      <c r="V225" s="43"/>
+      <c r="U225" s="44"/>
+      <c r="V225" s="44"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
       <c r="G226" s="42"/>
-      <c r="U226" s="43"/>
-      <c r="V226" s="43"/>
+      <c r="U226" s="44"/>
+      <c r="V226" s="44"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
       <c r="G227" s="42"/>
-      <c r="U227" s="43"/>
-      <c r="V227" s="43"/>
+      <c r="U227" s="44"/>
+      <c r="V227" s="44"/>
     </row>
     <row r="228" ht="14.25" customHeight="1">
       <c r="G228" s="42"/>
-      <c r="U228" s="43"/>
-      <c r="V228" s="43"/>
+      <c r="U228" s="44"/>
+      <c r="V228" s="44"/>
     </row>
     <row r="229" ht="14.25" customHeight="1">
       <c r="G229" s="42"/>
-      <c r="U229" s="43"/>
-      <c r="V229" s="43"/>
+      <c r="U229" s="44"/>
+      <c r="V229" s="44"/>
     </row>
     <row r="230" ht="14.25" customHeight="1">
       <c r="G230" s="42"/>
-      <c r="U230" s="43"/>
-      <c r="V230" s="43"/>
+      <c r="U230" s="44"/>
+      <c r="V230" s="44"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
       <c r="G231" s="42"/>
-      <c r="U231" s="43"/>
-      <c r="V231" s="43"/>
+      <c r="U231" s="44"/>
+      <c r="V231" s="44"/>
     </row>
     <row r="232" ht="14.25" customHeight="1">
       <c r="G232" s="42"/>
-      <c r="U232" s="43"/>
-      <c r="V232" s="43"/>
+      <c r="U232" s="44"/>
+      <c r="V232" s="44"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
       <c r="G233" s="42"/>
-      <c r="U233" s="43"/>
-      <c r="V233" s="43"/>
+      <c r="U233" s="44"/>
+      <c r="V233" s="44"/>
     </row>
     <row r="234" ht="14.25" customHeight="1">
       <c r="G234" s="42"/>
-      <c r="U234" s="43"/>
-      <c r="V234" s="43"/>
+      <c r="U234" s="44"/>
+      <c r="V234" s="44"/>
     </row>
     <row r="235" ht="14.25" customHeight="1">
       <c r="G235" s="42"/>
-      <c r="U235" s="43"/>
-      <c r="V235" s="43"/>
+      <c r="U235" s="44"/>
+      <c r="V235" s="44"/>
     </row>
     <row r="236" ht="14.25" customHeight="1">
       <c r="G236" s="42"/>
-      <c r="U236" s="43"/>
-      <c r="V236" s="43"/>
+      <c r="U236" s="44"/>
+      <c r="V236" s="44"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
       <c r="G237" s="42"/>
-      <c r="U237" s="43"/>
-      <c r="V237" s="43"/>
+      <c r="U237" s="44"/>
+      <c r="V237" s="44"/>
     </row>
     <row r="238" ht="14.25" customHeight="1">
       <c r="G238" s="42"/>
-      <c r="U238" s="43"/>
-      <c r="V238" s="43"/>
+      <c r="U238" s="44"/>
+      <c r="V238" s="44"/>
     </row>
     <row r="239" ht="14.25" customHeight="1">
       <c r="G239" s="42"/>
-      <c r="U239" s="43"/>
-      <c r="V239" s="43"/>
+      <c r="U239" s="44"/>
+      <c r="V239" s="44"/>
     </row>
     <row r="240" ht="14.25" customHeight="1">
       <c r="G240" s="42"/>
-      <c r="U240" s="43"/>
-      <c r="V240" s="43"/>
+      <c r="U240" s="44"/>
+      <c r="V240" s="44"/>
     </row>
     <row r="241" ht="14.25" customHeight="1">
       <c r="G241" s="42"/>
-      <c r="U241" s="43"/>
-      <c r="V241" s="43"/>
+      <c r="U241" s="44"/>
+      <c r="V241" s="44"/>
     </row>
     <row r="242" ht="14.25" customHeight="1">
       <c r="G242" s="42"/>
-      <c r="U242" s="43"/>
-      <c r="V242" s="43"/>
+      <c r="U242" s="44"/>
+      <c r="V242" s="44"/>
     </row>
     <row r="243" ht="14.25" customHeight="1">
       <c r="G243" s="42"/>
-      <c r="U243" s="43"/>
-      <c r="V243" s="43"/>
+      <c r="U243" s="44"/>
+      <c r="V243" s="44"/>
     </row>
     <row r="244" ht="14.25" customHeight="1">
       <c r="G244" s="42"/>
-      <c r="U244" s="43"/>
-      <c r="V244" s="43"/>
+      <c r="U244" s="44"/>
+      <c r="V244" s="44"/>
     </row>
     <row r="245" ht="14.25" customHeight="1">
       <c r="G245" s="42"/>
-      <c r="U245" s="43"/>
-      <c r="V245" s="43"/>
+      <c r="U245" s="44"/>
+      <c r="V245" s="44"/>
     </row>
     <row r="246" ht="14.25" customHeight="1">
       <c r="G246" s="42"/>
-      <c r="U246" s="43"/>
-      <c r="V246" s="43"/>
+      <c r="U246" s="44"/>
+      <c r="V246" s="44"/>
     </row>
     <row r="247" ht="14.25" customHeight="1">
       <c r="G247" s="42"/>
-      <c r="U247" s="43"/>
-      <c r="V247" s="43"/>
+      <c r="U247" s="44"/>
+      <c r="V247" s="44"/>
     </row>
     <row r="248" ht="14.25" customHeight="1">
       <c r="G248" s="42"/>
-      <c r="U248" s="43"/>
-      <c r="V248" s="43"/>
+      <c r="U248" s="44"/>
+      <c r="V248" s="44"/>
     </row>
     <row r="249" ht="14.25" customHeight="1">
       <c r="G249" s="42"/>
-      <c r="U249" s="43"/>
-      <c r="V249" s="43"/>
+      <c r="U249" s="44"/>
+      <c r="V249" s="44"/>
     </row>
     <row r="250" ht="14.25" customHeight="1">
       <c r="G250" s="42"/>
-      <c r="U250" s="43"/>
-      <c r="V250" s="43"/>
+      <c r="U250" s="44"/>
+      <c r="V250" s="44"/>
     </row>
     <row r="251" ht="14.25" customHeight="1">
       <c r="G251" s="42"/>
-      <c r="U251" s="43"/>
-      <c r="V251" s="43"/>
+      <c r="U251" s="44"/>
+      <c r="V251" s="44"/>
     </row>
     <row r="252" ht="14.25" customHeight="1">
       <c r="G252" s="42"/>
-      <c r="U252" s="43"/>
-      <c r="V252" s="43"/>
+      <c r="U252" s="44"/>
+      <c r="V252" s="44"/>
     </row>
     <row r="253" ht="14.25" customHeight="1">
       <c r="G253" s="42"/>
-      <c r="U253" s="43"/>
-      <c r="V253" s="43"/>
+      <c r="U253" s="44"/>
+      <c r="V253" s="44"/>
     </row>
     <row r="254" ht="14.25" customHeight="1">
       <c r="G254" s="42"/>
-      <c r="U254" s="43"/>
-      <c r="V254" s="43"/>
+      <c r="U254" s="44"/>
+      <c r="V254" s="44"/>
     </row>
     <row r="255" ht="14.25" customHeight="1">
       <c r="G255" s="42"/>
-      <c r="U255" s="43"/>
-      <c r="V255" s="43"/>
+      <c r="U255" s="44"/>
+      <c r="V255" s="44"/>
     </row>
     <row r="256" ht="14.25" customHeight="1">
       <c r="G256" s="42"/>
-      <c r="U256" s="43"/>
-      <c r="V256" s="43"/>
+      <c r="U256" s="44"/>
+      <c r="V256" s="44"/>
     </row>
     <row r="257" ht="14.25" customHeight="1">
       <c r="G257" s="42"/>
-      <c r="U257" s="43"/>
-      <c r="V257" s="43"/>
+      <c r="U257" s="44"/>
+      <c r="V257" s="44"/>
     </row>
     <row r="258" ht="14.25" customHeight="1">
       <c r="G258" s="42"/>
-      <c r="U258" s="43"/>
-      <c r="V258" s="43"/>
+      <c r="U258" s="44"/>
+      <c r="V258" s="44"/>
     </row>
     <row r="259" ht="14.25" customHeight="1">
       <c r="G259" s="42"/>
-      <c r="U259" s="43"/>
-      <c r="V259" s="43"/>
+      <c r="U259" s="44"/>
+      <c r="V259" s="44"/>
     </row>
     <row r="260" ht="14.25" customHeight="1">
       <c r="G260" s="42"/>
-      <c r="U260" s="43"/>
-      <c r="V260" s="43"/>
+      <c r="U260" s="44"/>
+      <c r="V260" s="44"/>
     </row>
     <row r="261" ht="14.25" customHeight="1">
       <c r="G261" s="42"/>
-      <c r="U261" s="43"/>
-      <c r="V261" s="43"/>
+      <c r="U261" s="44"/>
+      <c r="V261" s="44"/>
     </row>
     <row r="262" ht="14.25" customHeight="1">
       <c r="G262" s="42"/>
-      <c r="U262" s="43"/>
-      <c r="V262" s="43"/>
+      <c r="U262" s="44"/>
+      <c r="V262" s="44"/>
     </row>
     <row r="263" ht="14.25" customHeight="1">
       <c r="G263" s="42"/>
-      <c r="U263" s="43"/>
-      <c r="V263" s="43"/>
+      <c r="U263" s="44"/>
+      <c r="V263" s="44"/>
     </row>
     <row r="264" ht="14.25" customHeight="1">
       <c r="G264" s="42"/>
-      <c r="U264" s="43"/>
-      <c r="V264" s="43"/>
+      <c r="U264" s="44"/>
+      <c r="V264" s="44"/>
     </row>
     <row r="265" ht="14.25" customHeight="1">
       <c r="G265" s="42"/>
-      <c r="U265" s="43"/>
-      <c r="V265" s="43"/>
+      <c r="U265" s="44"/>
+      <c r="V265" s="44"/>
     </row>
     <row r="266" ht="14.25" customHeight="1">
       <c r="G266" s="42"/>
-      <c r="U266" s="43"/>
-      <c r="V266" s="43"/>
+      <c r="U266" s="44"/>
+      <c r="V266" s="44"/>
     </row>
     <row r="267" ht="14.25" customHeight="1">
       <c r="G267" s="42"/>
-      <c r="U267" s="43"/>
-      <c r="V267" s="43"/>
+      <c r="U267" s="44"/>
+      <c r="V267" s="44"/>
     </row>
     <row r="268" ht="14.25" customHeight="1">
       <c r="G268" s="42"/>
-      <c r="U268" s="43"/>
-      <c r="V268" s="43"/>
+      <c r="U268" s="44"/>
+      <c r="V268" s="44"/>
     </row>
     <row r="269" ht="14.25" customHeight="1">
       <c r="G269" s="42"/>
-      <c r="U269" s="43"/>
-      <c r="V269" s="43"/>
+      <c r="U269" s="44"/>
+      <c r="V269" s="44"/>
     </row>
     <row r="270" ht="14.25" customHeight="1">
       <c r="G270" s="42"/>
-      <c r="U270" s="43"/>
-      <c r="V270" s="43"/>
+      <c r="U270" s="44"/>
+      <c r="V270" s="44"/>
     </row>
     <row r="271" ht="14.25" customHeight="1">
       <c r="G271" s="42"/>
-      <c r="U271" s="43"/>
-      <c r="V271" s="43"/>
+      <c r="U271" s="44"/>
+      <c r="V271" s="44"/>
     </row>
     <row r="272" ht="14.25" customHeight="1">
       <c r="G272" s="42"/>
-      <c r="U272" s="43"/>
-      <c r="V272" s="43"/>
+      <c r="U272" s="44"/>
+      <c r="V272" s="44"/>
     </row>
     <row r="273" ht="14.25" customHeight="1">
       <c r="G273" s="42"/>
-      <c r="U273" s="43"/>
-      <c r="V273" s="43"/>
+      <c r="U273" s="44"/>
+      <c r="V273" s="44"/>
     </row>
     <row r="274" ht="14.25" customHeight="1">
       <c r="G274" s="42"/>
-      <c r="U274" s="43"/>
-      <c r="V274" s="43"/>
+      <c r="U274" s="44"/>
+      <c r="V274" s="44"/>
     </row>
     <row r="275" ht="14.25" customHeight="1">
       <c r="G275" s="42"/>
-      <c r="U275" s="43"/>
-      <c r="V275" s="43"/>
+      <c r="U275" s="44"/>
+      <c r="V275" s="44"/>
     </row>
     <row r="276" ht="14.25" customHeight="1">
       <c r="G276" s="42"/>
-      <c r="U276" s="43"/>
-      <c r="V276" s="43"/>
+      <c r="U276" s="44"/>
+      <c r="V276" s="44"/>
     </row>
     <row r="277" ht="14.25" customHeight="1">
       <c r="G277" s="42"/>
-      <c r="U277" s="43"/>
-      <c r="V277" s="43"/>
+      <c r="U277" s="44"/>
+      <c r="V277" s="44"/>
     </row>
     <row r="278" ht="14.25" customHeight="1">
       <c r="G278" s="42"/>
-      <c r="U278" s="43"/>
-      <c r="V278" s="43"/>
+      <c r="U278" s="44"/>
+      <c r="V278" s="44"/>
     </row>
     <row r="279" ht="14.25" customHeight="1">
       <c r="G279" s="42"/>
-      <c r="U279" s="43"/>
-      <c r="V279" s="43"/>
+      <c r="U279" s="44"/>
+      <c r="V279" s="44"/>
     </row>
     <row r="280" ht="14.25" customHeight="1">
       <c r="G280" s="42"/>
-      <c r="U280" s="43"/>
-      <c r="V280" s="43"/>
+      <c r="U280" s="44"/>
+      <c r="V280" s="44"/>
     </row>
     <row r="281" ht="14.25" customHeight="1">
       <c r="G281" s="42"/>
-      <c r="U281" s="43"/>
-      <c r="V281" s="43"/>
+      <c r="U281" s="44"/>
+      <c r="V281" s="44"/>
     </row>
     <row r="282" ht="14.25" customHeight="1">
       <c r="G282" s="42"/>
-      <c r="U282" s="43"/>
-      <c r="V282" s="43"/>
+      <c r="U282" s="44"/>
+      <c r="V282" s="44"/>
     </row>
     <row r="283" ht="14.25" customHeight="1">
       <c r="G283" s="42"/>
-      <c r="U283" s="43"/>
-      <c r="V283" s="43"/>
+      <c r="U283" s="44"/>
+      <c r="V283" s="44"/>
     </row>
     <row r="284" ht="14.25" customHeight="1">
       <c r="G284" s="42"/>
-      <c r="U284" s="43"/>
-      <c r="V284" s="43"/>
+      <c r="U284" s="44"/>
+      <c r="V284" s="44"/>
     </row>
     <row r="285" ht="14.25" customHeight="1">
       <c r="G285" s="42"/>
-      <c r="U285" s="43"/>
-      <c r="V285" s="43"/>
+      <c r="U285" s="44"/>
+      <c r="V285" s="44"/>
     </row>
     <row r="286" ht="14.25" customHeight="1">
       <c r="G286" s="42"/>
-      <c r="U286" s="43"/>
-      <c r="V286" s="43"/>
+      <c r="U286" s="44"/>
+      <c r="V286" s="44"/>
     </row>
     <row r="287" ht="14.25" customHeight="1">
       <c r="G287" s="42"/>
-      <c r="U287" s="43"/>
-      <c r="V287" s="43"/>
+      <c r="U287" s="44"/>
+      <c r="V287" s="44"/>
     </row>
     <row r="288" ht="14.25" customHeight="1">
       <c r="G288" s="42"/>
-      <c r="U288" s="43"/>
-      <c r="V288" s="43"/>
+      <c r="U288" s="44"/>
+      <c r="V288" s="44"/>
     </row>
     <row r="289" ht="14.25" customHeight="1">
       <c r="G289" s="42"/>
-      <c r="U289" s="43"/>
-      <c r="V289" s="43"/>
+      <c r="U289" s="44"/>
+      <c r="V289" s="44"/>
     </row>
     <row r="290" ht="14.25" customHeight="1">
       <c r="G290" s="42"/>
-      <c r="U290" s="43"/>
-      <c r="V290" s="43"/>
+      <c r="U290" s="44"/>
+      <c r="V290" s="44"/>
     </row>
     <row r="291" ht="14.25" customHeight="1">
       <c r="G291" s="42"/>
-      <c r="U291" s="43"/>
-      <c r="V291" s="43"/>
+      <c r="U291" s="44"/>
+      <c r="V291" s="44"/>
     </row>
     <row r="292" ht="14.25" customHeight="1">
       <c r="G292" s="42"/>
-      <c r="U292" s="43"/>
-      <c r="V292" s="43"/>
+      <c r="U292" s="44"/>
+      <c r="V292" s="44"/>
     </row>
     <row r="293" ht="14.25" customHeight="1">
       <c r="G293" s="42"/>
-      <c r="U293" s="43"/>
-      <c r="V293" s="43"/>
+      <c r="U293" s="44"/>
+      <c r="V293" s="44"/>
     </row>
     <row r="294" ht="14.25" customHeight="1">
       <c r="G294" s="42"/>
-      <c r="U294" s="43"/>
-      <c r="V294" s="43"/>
+      <c r="U294" s="44"/>
+      <c r="V294" s="44"/>
     </row>
     <row r="295" ht="14.25" customHeight="1">
       <c r="G295" s="42"/>
-      <c r="U295" s="43"/>
-      <c r="V295" s="43"/>
+      <c r="U295" s="44"/>
+      <c r="V295" s="44"/>
     </row>
     <row r="296" ht="14.25" customHeight="1">
       <c r="G296" s="42"/>
-      <c r="U296" s="43"/>
-      <c r="V296" s="43"/>
+      <c r="U296" s="44"/>
+      <c r="V296" s="44"/>
     </row>
     <row r="297" ht="14.25" customHeight="1">
       <c r="G297" s="42"/>
-      <c r="U297" s="43"/>
-      <c r="V297" s="43"/>
+      <c r="U297" s="44"/>
+      <c r="V297" s="44"/>
     </row>
     <row r="298" ht="14.25" customHeight="1">
       <c r="G298" s="42"/>
-      <c r="U298" s="43"/>
-      <c r="V298" s="43"/>
+      <c r="U298" s="44"/>
+      <c r="V298" s="44"/>
     </row>
     <row r="299" ht="14.25" customHeight="1">
       <c r="G299" s="42"/>
-      <c r="U299" s="43"/>
-      <c r="V299" s="43"/>
+      <c r="U299" s="44"/>
+      <c r="V299" s="44"/>
     </row>
     <row r="300" ht="14.25" customHeight="1">
       <c r="G300" s="42"/>
-      <c r="U300" s="43"/>
-      <c r="V300" s="43"/>
+      <c r="U300" s="44"/>
+      <c r="V300" s="44"/>
     </row>
     <row r="301" ht="14.25" customHeight="1">
       <c r="G301" s="42"/>
-      <c r="U301" s="43"/>
-      <c r="V301" s="43"/>
+      <c r="U301" s="44"/>
+      <c r="V301" s="44"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
       <c r="G302" s="42"/>
-      <c r="U302" s="43"/>
-      <c r="V302" s="43"/>
+      <c r="U302" s="44"/>
+      <c r="V302" s="44"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
       <c r="G303" s="42"/>
-      <c r="U303" s="43"/>
-      <c r="V303" s="43"/>
+      <c r="U303" s="44"/>
+      <c r="V303" s="44"/>
     </row>
     <row r="304" ht="14.25" customHeight="1">
       <c r="G304" s="42"/>
-      <c r="U304" s="43"/>
-      <c r="V304" s="43"/>
+      <c r="U304" s="44"/>
+      <c r="V304" s="44"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
       <c r="G305" s="42"/>
-      <c r="U305" s="43"/>
-      <c r="V305" s="43"/>
+      <c r="U305" s="44"/>
+      <c r="V305" s="44"/>
     </row>
     <row r="306" ht="14.25" customHeight="1">
       <c r="G306" s="42"/>
-      <c r="U306" s="43"/>
-      <c r="V306" s="43"/>
+      <c r="U306" s="44"/>
+      <c r="V306" s="44"/>
     </row>
     <row r="307" ht="14.25" customHeight="1">
       <c r="G307" s="42"/>
-      <c r="U307" s="43"/>
-      <c r="V307" s="43"/>
+      <c r="U307" s="44"/>
+      <c r="V307" s="44"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
       <c r="G308" s="42"/>
-      <c r="U308" s="43"/>
-      <c r="V308" s="43"/>
+      <c r="U308" s="44"/>
+      <c r="V308" s="44"/>
     </row>
     <row r="309" ht="14.25" customHeight="1">
       <c r="G309" s="42"/>
-      <c r="U309" s="43"/>
-      <c r="V309" s="43"/>
+      <c r="U309" s="44"/>
+      <c r="V309" s="44"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
       <c r="G310" s="42"/>
-      <c r="U310" s="43"/>
-      <c r="V310" s="43"/>
+      <c r="U310" s="44"/>
+      <c r="V310" s="44"/>
     </row>
     <row r="311" ht="14.25" customHeight="1">
       <c r="G311" s="42"/>
-      <c r="U311" s="43"/>
-      <c r="V311" s="43"/>
+      <c r="U311" s="44"/>
+      <c r="V311" s="44"/>
     </row>
     <row r="312" ht="14.25" customHeight="1">
       <c r="G312" s="42"/>
-      <c r="U312" s="43"/>
-      <c r="V312" s="43"/>
+      <c r="U312" s="44"/>
+      <c r="V312" s="44"/>
     </row>
     <row r="313" ht="14.25" customHeight="1">
       <c r="G313" s="42"/>
-      <c r="U313" s="43"/>
-      <c r="V313" s="43"/>
+      <c r="U313" s="44"/>
+      <c r="V313" s="44"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
       <c r="G314" s="42"/>
-      <c r="U314" s="43"/>
-      <c r="V314" s="43"/>
+      <c r="U314" s="44"/>
+      <c r="V314" s="44"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
       <c r="G315" s="42"/>
-      <c r="U315" s="43"/>
-      <c r="V315" s="43"/>
+      <c r="U315" s="44"/>
+      <c r="V315" s="44"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
       <c r="G316" s="42"/>
-      <c r="U316" s="43"/>
-      <c r="V316" s="43"/>
+      <c r="U316" s="44"/>
+      <c r="V316" s="44"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
       <c r="G317" s="42"/>
-      <c r="U317" s="43"/>
-      <c r="V317" s="43"/>
+      <c r="U317" s="44"/>
+      <c r="V317" s="44"/>
     </row>
     <row r="318" ht="14.25" customHeight="1">
       <c r="G318" s="42"/>
-      <c r="U318" s="43"/>
-      <c r="V318" s="43"/>
+      <c r="U318" s="44"/>
+      <c r="V318" s="44"/>
     </row>
     <row r="319" ht="14.25" customHeight="1">
       <c r="G319" s="42"/>
-      <c r="U319" s="43"/>
-      <c r="V319" s="43"/>
+      <c r="U319" s="44"/>
+      <c r="V319" s="44"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
       <c r="G320" s="42"/>
-      <c r="U320" s="43"/>
-      <c r="V320" s="43"/>
+      <c r="U320" s="44"/>
+      <c r="V320" s="44"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
       <c r="G321" s="42"/>
-      <c r="U321" s="43"/>
-      <c r="V321" s="43"/>
+      <c r="U321" s="44"/>
+      <c r="V321" s="44"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
       <c r="G322" s="42"/>
-      <c r="U322" s="43"/>
-      <c r="V322" s="43"/>
+      <c r="U322" s="44"/>
+      <c r="V322" s="44"/>
     </row>
     <row r="323" ht="14.25" customHeight="1">
       <c r="G323" s="42"/>
-      <c r="U323" s="43"/>
-      <c r="V323" s="43"/>
+      <c r="U323" s="44"/>
+      <c r="V323" s="44"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
       <c r="G324" s="42"/>
-      <c r="U324" s="43"/>
-      <c r="V324" s="43"/>
+      <c r="U324" s="44"/>
+      <c r="V324" s="44"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
       <c r="G325" s="42"/>
-      <c r="U325" s="43"/>
-      <c r="V325" s="43"/>
+      <c r="U325" s="44"/>
+      <c r="V325" s="44"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
       <c r="G326" s="42"/>
-      <c r="U326" s="43"/>
-      <c r="V326" s="43"/>
+      <c r="U326" s="44"/>
+      <c r="V326" s="44"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
       <c r="G327" s="42"/>
-      <c r="U327" s="43"/>
-      <c r="V327" s="43"/>
+      <c r="U327" s="44"/>
+      <c r="V327" s="44"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
       <c r="G328" s="42"/>
-      <c r="U328" s="43"/>
-      <c r="V328" s="43"/>
+      <c r="U328" s="44"/>
+      <c r="V328" s="44"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
       <c r="G329" s="42"/>
-      <c r="U329" s="43"/>
-      <c r="V329" s="43"/>
+      <c r="U329" s="44"/>
+      <c r="V329" s="44"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
       <c r="G330" s="42"/>
-      <c r="U330" s="43"/>
-      <c r="V330" s="43"/>
+      <c r="U330" s="44"/>
+      <c r="V330" s="44"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
       <c r="G331" s="42"/>
-      <c r="U331" s="43"/>
-      <c r="V331" s="43"/>
+      <c r="U331" s="44"/>
+      <c r="V331" s="44"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
       <c r="G332" s="42"/>
-      <c r="U332" s="43"/>
-      <c r="V332" s="43"/>
+      <c r="U332" s="44"/>
+      <c r="V332" s="44"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
       <c r="G333" s="42"/>
-      <c r="U333" s="43"/>
-      <c r="V333" s="43"/>
+      <c r="U333" s="44"/>
+      <c r="V333" s="44"/>
     </row>
     <row r="334" ht="14.25" customHeight="1">
       <c r="G334" s="42"/>
-      <c r="U334" s="43"/>
-      <c r="V334" s="43"/>
+      <c r="U334" s="44"/>
+      <c r="V334" s="44"/>
     </row>
     <row r="335" ht="14.25" customHeight="1">
       <c r="G335" s="42"/>
-      <c r="U335" s="43"/>
-      <c r="V335" s="43"/>
+      <c r="U335" s="44"/>
+      <c r="V335" s="44"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
       <c r="G336" s="42"/>
-      <c r="U336" s="43"/>
-      <c r="V336" s="43"/>
+      <c r="U336" s="44"/>
+      <c r="V336" s="44"/>
     </row>
     <row r="337" ht="14.25" customHeight="1">
       <c r="G337" s="42"/>
-      <c r="U337" s="43"/>
-      <c r="V337" s="43"/>
+      <c r="U337" s="44"/>
+      <c r="V337" s="44"/>
     </row>
     <row r="338" ht="14.25" customHeight="1">
       <c r="G338" s="42"/>
-      <c r="U338" s="43"/>
-      <c r="V338" s="43"/>
+      <c r="U338" s="44"/>
+      <c r="V338" s="44"/>
     </row>
     <row r="339" ht="14.25" customHeight="1">
       <c r="G339" s="42"/>
-      <c r="U339" s="43"/>
-      <c r="V339" s="43"/>
+      <c r="U339" s="44"/>
+      <c r="V339" s="44"/>
     </row>
     <row r="340" ht="14.25" customHeight="1">
       <c r="G340" s="42"/>
-      <c r="U340" s="43"/>
-      <c r="V340" s="43"/>
+      <c r="U340" s="44"/>
+      <c r="V340" s="44"/>
     </row>
     <row r="341" ht="14.25" customHeight="1">
       <c r="G341" s="42"/>
-      <c r="U341" s="43"/>
-      <c r="V341" s="43"/>
+      <c r="U341" s="44"/>
+      <c r="V341" s="44"/>
     </row>
     <row r="342" ht="14.25" customHeight="1">
       <c r="G342" s="42"/>
-      <c r="U342" s="43"/>
-      <c r="V342" s="43"/>
+      <c r="U342" s="44"/>
+      <c r="V342" s="44"/>
     </row>
     <row r="343" ht="14.25" customHeight="1">
       <c r="G343" s="42"/>
-      <c r="U343" s="43"/>
-      <c r="V343" s="43"/>
+      <c r="U343" s="44"/>
+      <c r="V343" s="44"/>
     </row>
     <row r="344" ht="14.25" customHeight="1">
       <c r="G344" s="42"/>
-      <c r="U344" s="43"/>
-      <c r="V344" s="43"/>
+      <c r="U344" s="44"/>
+      <c r="V344" s="44"/>
     </row>
     <row r="345" ht="14.25" customHeight="1">
       <c r="G345" s="42"/>
-      <c r="U345" s="43"/>
-      <c r="V345" s="43"/>
+      <c r="U345" s="44"/>
+      <c r="V345" s="44"/>
     </row>
     <row r="346" ht="14.25" customHeight="1">
       <c r="G346" s="42"/>
-      <c r="U346" s="43"/>
-      <c r="V346" s="43"/>
+      <c r="U346" s="44"/>
+      <c r="V346" s="44"/>
     </row>
     <row r="347" ht="14.25" customHeight="1">
       <c r="G347" s="42"/>
-      <c r="U347" s="43"/>
-      <c r="V347" s="43"/>
+      <c r="U347" s="44"/>
+      <c r="V347" s="44"/>
     </row>
     <row r="348" ht="14.25" customHeight="1">
       <c r="G348" s="42"/>
-      <c r="U348" s="43"/>
-      <c r="V348" s="43"/>
+      <c r="U348" s="44"/>
+      <c r="V348" s="44"/>
     </row>
     <row r="349" ht="14.25" customHeight="1">
       <c r="G349" s="42"/>
-      <c r="U349" s="43"/>
-      <c r="V349" s="43"/>
+      <c r="U349" s="44"/>
+      <c r="V349" s="44"/>
     </row>
     <row r="350" ht="14.25" customHeight="1">
       <c r="G350" s="42"/>
-      <c r="U350" s="43"/>
-      <c r="V350" s="43"/>
+      <c r="U350" s="44"/>
+      <c r="V350" s="44"/>
     </row>
     <row r="351" ht="14.25" customHeight="1">
       <c r="G351" s="42"/>
-      <c r="U351" s="43"/>
-      <c r="V351" s="43"/>
+      <c r="U351" s="44"/>
+      <c r="V351" s="44"/>
     </row>
     <row r="352" ht="14.25" customHeight="1">
       <c r="G352" s="42"/>
-      <c r="U352" s="43"/>
-      <c r="V352" s="43"/>
+      <c r="U352" s="44"/>
+      <c r="V352" s="44"/>
     </row>
     <row r="353" ht="14.25" customHeight="1">
       <c r="G353" s="42"/>
-      <c r="U353" s="43"/>
-      <c r="V353" s="43"/>
+      <c r="U353" s="44"/>
+      <c r="V353" s="44"/>
     </row>
     <row r="354" ht="14.25" customHeight="1">
       <c r="G354" s="42"/>
-      <c r="U354" s="43"/>
-      <c r="V354" s="43"/>
+      <c r="U354" s="44"/>
+      <c r="V354" s="44"/>
     </row>
     <row r="355" ht="14.25" customHeight="1">
       <c r="G355" s="42"/>
-      <c r="U355" s="43"/>
-      <c r="V355" s="43"/>
+      <c r="U355" s="44"/>
+      <c r="V355" s="44"/>
     </row>
     <row r="356" ht="14.25" customHeight="1">
       <c r="G356" s="42"/>
-      <c r="U356" s="43"/>
-      <c r="V356" s="43"/>
+      <c r="U356" s="44"/>
+      <c r="V356" s="44"/>
     </row>
     <row r="357" ht="14.25" customHeight="1">
       <c r="G357" s="42"/>
-      <c r="U357" s="43"/>
-      <c r="V357" s="43"/>
+      <c r="U357" s="44"/>
+      <c r="V357" s="44"/>
     </row>
     <row r="358" ht="14.25" customHeight="1">
       <c r="G358" s="42"/>
-      <c r="U358" s="43"/>
-      <c r="V358" s="43"/>
+      <c r="U358" s="44"/>
+      <c r="V358" s="44"/>
     </row>
     <row r="359" ht="14.25" customHeight="1">
       <c r="G359" s="42"/>
-      <c r="U359" s="43"/>
-      <c r="V359" s="43"/>
+      <c r="U359" s="44"/>
+      <c r="V359" s="44"/>
     </row>
     <row r="360" ht="14.25" customHeight="1">
       <c r="G360" s="42"/>
-      <c r="U360" s="43"/>
-      <c r="V360" s="43"/>
+      <c r="U360" s="44"/>
+      <c r="V360" s="44"/>
     </row>
     <row r="361" ht="14.25" customHeight="1">
       <c r="G361" s="42"/>
-      <c r="U361" s="43"/>
-      <c r="V361" s="43"/>
+      <c r="U361" s="44"/>
+      <c r="V361" s="44"/>
     </row>
     <row r="362" ht="14.25" customHeight="1">
       <c r="G362" s="42"/>
-      <c r="U362" s="43"/>
-      <c r="V362" s="43"/>
+      <c r="U362" s="44"/>
+      <c r="V362" s="44"/>
     </row>
     <row r="363" ht="14.25" customHeight="1">
       <c r="G363" s="42"/>
-      <c r="U363" s="43"/>
-      <c r="V363" s="43"/>
+      <c r="U363" s="44"/>
+      <c r="V363" s="44"/>
     </row>
     <row r="364" ht="14.25" customHeight="1">
       <c r="G364" s="42"/>
-      <c r="U364" s="43"/>
-      <c r="V364" s="43"/>
+      <c r="U364" s="44"/>
+      <c r="V364" s="44"/>
     </row>
     <row r="365" ht="14.25" customHeight="1">
       <c r="G365" s="42"/>
-      <c r="U365" s="43"/>
-      <c r="V365" s="43"/>
+      <c r="U365" s="44"/>
+      <c r="V365" s="44"/>
     </row>
     <row r="366" ht="14.25" customHeight="1">
       <c r="G366" s="42"/>
-      <c r="U366" s="43"/>
-      <c r="V366" s="43"/>
+      <c r="U366" s="44"/>
+      <c r="V366" s="44"/>
     </row>
     <row r="367" ht="14.25" customHeight="1">
       <c r="G367" s="42"/>
-      <c r="U367" s="43"/>
-      <c r="V367" s="43"/>
+      <c r="U367" s="44"/>
+      <c r="V367" s="44"/>
     </row>
     <row r="368" ht="14.25" customHeight="1">
       <c r="G368" s="42"/>
-      <c r="U368" s="43"/>
-      <c r="V368" s="43"/>
+      <c r="U368" s="44"/>
+      <c r="V368" s="44"/>
     </row>
     <row r="369" ht="14.25" customHeight="1">
       <c r="G369" s="42"/>
-      <c r="U369" s="43"/>
-      <c r="V369" s="43"/>
+      <c r="U369" s="44"/>
+      <c r="V369" s="44"/>
     </row>
     <row r="370" ht="14.25" customHeight="1">
       <c r="G370" s="42"/>
-      <c r="U370" s="43"/>
-      <c r="V370" s="43"/>
+      <c r="U370" s="44"/>
+      <c r="V370" s="44"/>
     </row>
     <row r="371" ht="14.25" customHeight="1">
       <c r="G371" s="42"/>
-      <c r="U371" s="43"/>
-      <c r="V371" s="43"/>
+      <c r="U371" s="44"/>
+      <c r="V371" s="44"/>
     </row>
     <row r="372" ht="14.25" customHeight="1">
       <c r="G372" s="42"/>
-      <c r="U372" s="43"/>
-      <c r="V372" s="43"/>
+      <c r="U372" s="44"/>
+      <c r="V372" s="44"/>
     </row>
     <row r="373" ht="14.25" customHeight="1">
       <c r="G373" s="42"/>
-      <c r="U373" s="43"/>
-      <c r="V373" s="43"/>
+      <c r="U373" s="44"/>
+      <c r="V373" s="44"/>
     </row>
     <row r="374" ht="14.25" customHeight="1">
       <c r="G374" s="42"/>
-      <c r="U374" s="43"/>
-      <c r="V374" s="43"/>
+      <c r="U374" s="44"/>
+      <c r="V374" s="44"/>
     </row>
     <row r="375" ht="14.25" customHeight="1">
       <c r="G375" s="42"/>
-      <c r="U375" s="43"/>
-      <c r="V375" s="43"/>
+      <c r="U375" s="44"/>
+      <c r="V375" s="44"/>
     </row>
     <row r="376" ht="14.25" customHeight="1">
       <c r="G376" s="42"/>
-      <c r="U376" s="43"/>
-      <c r="V376" s="43"/>
+      <c r="U376" s="44"/>
+      <c r="V376" s="44"/>
     </row>
     <row r="377" ht="14.25" customHeight="1">
       <c r="G377" s="42"/>
-      <c r="U377" s="43"/>
-      <c r="V377" s="43"/>
+      <c r="U377" s="44"/>
+      <c r="V377" s="44"/>
     </row>
     <row r="378" ht="14.25" customHeight="1">
       <c r="G378" s="42"/>
-      <c r="U378" s="43"/>
-      <c r="V378" s="43"/>
+      <c r="U378" s="44"/>
+      <c r="V378" s="44"/>
     </row>
     <row r="379" ht="14.25" customHeight="1">
       <c r="G379" s="42"/>
-      <c r="U379" s="43"/>
-      <c r="V379" s="43"/>
+      <c r="U379" s="44"/>
+      <c r="V379" s="44"/>
     </row>
     <row r="380" ht="14.25" customHeight="1">
       <c r="G380" s="42"/>
-      <c r="U380" s="43"/>
-      <c r="V380" s="43"/>
+      <c r="U380" s="44"/>
+      <c r="V380" s="44"/>
     </row>
     <row r="381" ht="14.25" customHeight="1">
       <c r="G381" s="42"/>
-      <c r="U381" s="43"/>
-      <c r="V381" s="43"/>
+      <c r="U381" s="44"/>
+      <c r="V381" s="44"/>
     </row>
     <row r="382" ht="14.25" customHeight="1">
       <c r="G382" s="42"/>
-      <c r="U382" s="43"/>
-      <c r="V382" s="43"/>
+      <c r="U382" s="44"/>
+      <c r="V382" s="44"/>
     </row>
     <row r="383" ht="14.25" customHeight="1">
       <c r="G383" s="42"/>
-      <c r="U383" s="43"/>
-      <c r="V383" s="43"/>
+      <c r="U383" s="44"/>
+      <c r="V383" s="44"/>
     </row>
     <row r="384" ht="14.25" customHeight="1">
       <c r="G384" s="42"/>
-      <c r="U384" s="43"/>
-      <c r="V384" s="43"/>
+      <c r="U384" s="44"/>
+      <c r="V384" s="44"/>
     </row>
     <row r="385" ht="14.25" customHeight="1">
       <c r="G385" s="42"/>
-      <c r="U385" s="43"/>
-      <c r="V385" s="43"/>
+      <c r="U385" s="44"/>
+      <c r="V385" s="44"/>
     </row>
     <row r="386" ht="14.25" customHeight="1">
       <c r="G386" s="42"/>
-      <c r="U386" s="43"/>
-      <c r="V386" s="43"/>
+      <c r="U386" s="44"/>
+      <c r="V386" s="44"/>
     </row>
     <row r="387" ht="14.25" customHeight="1">
       <c r="G387" s="42"/>
-      <c r="U387" s="43"/>
-      <c r="V387" s="43"/>
+      <c r="U387" s="44"/>
+      <c r="V387" s="44"/>
     </row>
     <row r="388" ht="14.25" customHeight="1">
       <c r="G388" s="42"/>
-      <c r="U388" s="43"/>
-      <c r="V388" s="43"/>
+      <c r="U388" s="44"/>
+      <c r="V388" s="44"/>
     </row>
     <row r="389" ht="14.25" customHeight="1">
       <c r="G389" s="42"/>
-      <c r="U389" s="43"/>
-      <c r="V389" s="43"/>
+      <c r="U389" s="44"/>
+      <c r="V389" s="44"/>
     </row>
     <row r="390" ht="14.25" customHeight="1">
       <c r="G390" s="42"/>
-      <c r="U390" s="43"/>
-      <c r="V390" s="43"/>
+      <c r="U390" s="44"/>
+      <c r="V390" s="44"/>
     </row>
     <row r="391" ht="14.25" customHeight="1">
       <c r="G391" s="42"/>
-      <c r="U391" s="43"/>
-      <c r="V391" s="43"/>
+      <c r="U391" s="44"/>
+      <c r="V391" s="44"/>
     </row>
     <row r="392" ht="14.25" customHeight="1">
       <c r="G392" s="42"/>
-      <c r="U392" s="43"/>
-      <c r="V392" s="43"/>
+      <c r="U392" s="44"/>
+      <c r="V392" s="44"/>
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="G393" s="42"/>
-      <c r="U393" s="43"/>
-      <c r="V393" s="43"/>
+      <c r="U393" s="44"/>
+      <c r="V393" s="44"/>
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="G394" s="42"/>
-      <c r="U394" s="43"/>
-      <c r="V394" s="43"/>
+      <c r="U394" s="44"/>
+      <c r="V394" s="44"/>
     </row>
     <row r="395" ht="14.25" customHeight="1">
       <c r="G395" s="42"/>
-      <c r="U395" s="43"/>
-      <c r="V395" s="43"/>
+      <c r="U395" s="44"/>
+      <c r="V395" s="44"/>
     </row>
     <row r="396" ht="14.25" customHeight="1">
       <c r="G396" s="42"/>
-      <c r="U396" s="43"/>
-      <c r="V396" s="43"/>
+      <c r="U396" s="44"/>
+      <c r="V396" s="44"/>
     </row>
     <row r="397" ht="14.25" customHeight="1">
       <c r="G397" s="42"/>
-      <c r="U397" s="43"/>
-      <c r="V397" s="43"/>
+      <c r="U397" s="44"/>
+      <c r="V397" s="44"/>
     </row>
     <row r="398" ht="14.25" customHeight="1">
       <c r="G398" s="42"/>
-      <c r="U398" s="43"/>
-      <c r="V398" s="43"/>
+      <c r="U398" s="44"/>
+      <c r="V398" s="44"/>
     </row>
     <row r="399" ht="14.25" customHeight="1">
       <c r="G399" s="42"/>
-      <c r="U399" s="43"/>
-      <c r="V399" s="43"/>
+      <c r="U399" s="44"/>
+      <c r="V399" s="44"/>
     </row>
     <row r="400" ht="14.25" customHeight="1">
       <c r="G400" s="42"/>
-      <c r="U400" s="43"/>
-      <c r="V400" s="43"/>
+      <c r="U400" s="44"/>
+      <c r="V400" s="44"/>
     </row>
     <row r="401" ht="14.25" customHeight="1">
       <c r="G401" s="42"/>
-      <c r="U401" s="43"/>
-      <c r="V401" s="43"/>
+      <c r="U401" s="44"/>
+      <c r="V401" s="44"/>
     </row>
     <row r="402" ht="14.25" customHeight="1">
       <c r="G402" s="42"/>
-      <c r="U402" s="43"/>
-      <c r="V402" s="43"/>
+      <c r="U402" s="44"/>
+      <c r="V402" s="44"/>
     </row>
     <row r="403" ht="14.25" customHeight="1">
       <c r="G403" s="42"/>
-      <c r="U403" s="43"/>
-      <c r="V403" s="43"/>
+      <c r="U403" s="44"/>
+      <c r="V403" s="44"/>
     </row>
     <row r="404" ht="14.25" customHeight="1">
       <c r="G404" s="42"/>
-      <c r="U404" s="43"/>
-      <c r="V404" s="43"/>
+      <c r="U404" s="44"/>
+      <c r="V404" s="44"/>
     </row>
     <row r="405" ht="14.25" customHeight="1">
       <c r="G405" s="42"/>
-      <c r="U405" s="43"/>
-      <c r="V405" s="43"/>
+      <c r="U405" s="44"/>
+      <c r="V405" s="44"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
       <c r="G406" s="42"/>
-      <c r="U406" s="43"/>
-      <c r="V406" s="43"/>
+      <c r="U406" s="44"/>
+      <c r="V406" s="44"/>
     </row>
     <row r="407" ht="14.25" customHeight="1">
       <c r="G407" s="42"/>
-      <c r="U407" s="43"/>
-      <c r="V407" s="43"/>
+      <c r="U407" s="44"/>
+      <c r="V407" s="44"/>
     </row>
     <row r="408" ht="14.25" customHeight="1">
       <c r="G408" s="42"/>
-      <c r="U408" s="43"/>
-      <c r="V408" s="43"/>
+      <c r="U408" s="44"/>
+      <c r="V408" s="44"/>
     </row>
     <row r="409" ht="14.25" customHeight="1">
       <c r="G409" s="42"/>
-      <c r="U409" s="43"/>
-      <c r="V409" s="43"/>
+      <c r="U409" s="44"/>
+      <c r="V409" s="44"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
       <c r="G410" s="42"/>
-      <c r="U410" s="43"/>
-      <c r="V410" s="43"/>
+      <c r="U410" s="44"/>
+      <c r="V410" s="44"/>
     </row>
     <row r="411" ht="14.25" customHeight="1">
       <c r="G411" s="42"/>
-      <c r="U411" s="43"/>
-      <c r="V411" s="43"/>
+      <c r="U411" s="44"/>
+      <c r="V411" s="44"/>
     </row>
     <row r="412" ht="14.25" customHeight="1">
       <c r="G412" s="42"/>
-      <c r="U412" s="43"/>
-      <c r="V412" s="43"/>
+      <c r="U412" s="44"/>
+      <c r="V412" s="44"/>
     </row>
     <row r="413" ht="14.25" customHeight="1">
       <c r="G413" s="42"/>
-      <c r="U413" s="43"/>
-      <c r="V413" s="43"/>
+      <c r="U413" s="44"/>
+      <c r="V413" s="44"/>
     </row>
     <row r="414" ht="14.25" customHeight="1">
       <c r="G414" s="42"/>
-      <c r="U414" s="43"/>
-      <c r="V414" s="43"/>
+      <c r="U414" s="44"/>
+      <c r="V414" s="44"/>
     </row>
     <row r="415" ht="14.25" customHeight="1">
       <c r="G415" s="42"/>
-      <c r="U415" s="43"/>
-      <c r="V415" s="43"/>
+      <c r="U415" s="44"/>
+      <c r="V415" s="44"/>
     </row>
     <row r="416" ht="14.25" customHeight="1">
       <c r="G416" s="42"/>
-      <c r="U416" s="43"/>
-      <c r="V416" s="43"/>
+      <c r="U416" s="44"/>
+      <c r="V416" s="44"/>
     </row>
     <row r="417" ht="14.25" customHeight="1">
       <c r="G417" s="42"/>
-      <c r="U417" s="43"/>
-      <c r="V417" s="43"/>
+      <c r="U417" s="44"/>
+      <c r="V417" s="44"/>
     </row>
     <row r="418" ht="14.25" customHeight="1">
       <c r="G418" s="42"/>
-      <c r="U418" s="43"/>
-      <c r="V418" s="43"/>
+      <c r="U418" s="44"/>
+      <c r="V418" s="44"/>
     </row>
     <row r="419" ht="14.25" customHeight="1">
       <c r="G419" s="42"/>
-      <c r="U419" s="43"/>
-      <c r="V419" s="43"/>
+      <c r="U419" s="44"/>
+      <c r="V419" s="44"/>
     </row>
     <row r="420" ht="14.25" customHeight="1">
       <c r="G420" s="42"/>
-      <c r="U420" s="43"/>
-      <c r="V420" s="43"/>
+      <c r="U420" s="44"/>
+      <c r="V420" s="44"/>
     </row>
     <row r="421" ht="14.25" customHeight="1">
       <c r="G421" s="42"/>
-      <c r="U421" s="43"/>
-      <c r="V421" s="43"/>
+      <c r="U421" s="44"/>
+      <c r="V421" s="44"/>
     </row>
     <row r="422" ht="14.25" customHeight="1">
       <c r="G422" s="42"/>
-      <c r="U422" s="43"/>
-      <c r="V422" s="43"/>
+      <c r="U422" s="44"/>
+      <c r="V422" s="44"/>
     </row>
     <row r="423" ht="14.25" customHeight="1">
       <c r="G423" s="42"/>
-      <c r="U423" s="43"/>
-      <c r="V423" s="43"/>
+      <c r="U423" s="44"/>
+      <c r="V423" s="44"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
       <c r="G424" s="42"/>
-      <c r="U424" s="43"/>
-      <c r="V424" s="43"/>
+      <c r="U424" s="44"/>
+      <c r="V424" s="44"/>
     </row>
     <row r="425" ht="14.25" customHeight="1">
       <c r="G425" s="42"/>
-      <c r="U425" s="43"/>
-      <c r="V425" s="43"/>
+      <c r="U425" s="44"/>
+      <c r="V425" s="44"/>
     </row>
     <row r="426" ht="14.25" customHeight="1">
       <c r="G426" s="42"/>
-      <c r="U426" s="43"/>
-      <c r="V426" s="43"/>
+      <c r="U426" s="44"/>
+      <c r="V426" s="44"/>
     </row>
     <row r="427" ht="14.25" customHeight="1">
       <c r="G427" s="42"/>
-      <c r="U427" s="43"/>
-      <c r="V427" s="43"/>
+      <c r="U427" s="44"/>
+      <c r="V427" s="44"/>
     </row>
     <row r="428" ht="14.25" customHeight="1">
       <c r="G428" s="42"/>
-      <c r="U428" s="43"/>
-      <c r="V428" s="43"/>
+      <c r="U428" s="44"/>
+      <c r="V428" s="44"/>
     </row>
     <row r="429" ht="14.25" customHeight="1">
       <c r="G429" s="42"/>
-      <c r="U429" s="43"/>
-      <c r="V429" s="43"/>
+      <c r="U429" s="44"/>
+      <c r="V429" s="44"/>
     </row>
     <row r="430" ht="14.25" customHeight="1">
       <c r="G430" s="42"/>
-      <c r="U430" s="43"/>
-      <c r="V430" s="43"/>
+      <c r="U430" s="44"/>
+      <c r="V430" s="44"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
       <c r="G431" s="42"/>
-      <c r="U431" s="43"/>
-      <c r="V431" s="43"/>
+      <c r="U431" s="44"/>
+      <c r="V431" s="44"/>
     </row>
     <row r="432" ht="14.25" customHeight="1">
       <c r="G432" s="42"/>
-      <c r="U432" s="43"/>
-      <c r="V432" s="43"/>
+      <c r="U432" s="44"/>
+      <c r="V432" s="44"/>
     </row>
     <row r="433" ht="14.25" customHeight="1">
       <c r="G433" s="42"/>
-      <c r="U433" s="43"/>
-      <c r="V433" s="43"/>
+      <c r="U433" s="44"/>
+      <c r="V433" s="44"/>
     </row>
     <row r="434" ht="14.25" customHeight="1">
       <c r="G434" s="42"/>
-      <c r="U434" s="43"/>
-      <c r="V434" s="43"/>
+      <c r="U434" s="44"/>
+      <c r="V434" s="44"/>
     </row>
     <row r="435" ht="14.25" customHeight="1">
       <c r="G435" s="42"/>
-      <c r="U435" s="43"/>
-      <c r="V435" s="43"/>
+      <c r="U435" s="44"/>
+      <c r="V435" s="44"/>
     </row>
     <row r="436" ht="14.25" customHeight="1">
       <c r="G436" s="42"/>
-      <c r="U436" s="43"/>
-      <c r="V436" s="43"/>
+      <c r="U436" s="44"/>
+      <c r="V436" s="44"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
       <c r="G437" s="42"/>
-      <c r="U437" s="43"/>
-      <c r="V437" s="43"/>
+      <c r="U437" s="44"/>
+      <c r="V437" s="44"/>
     </row>
     <row r="438" ht="14.25" customHeight="1">
       <c r="G438" s="42"/>
-      <c r="U438" s="43"/>
-      <c r="V438" s="43"/>
+      <c r="U438" s="44"/>
+      <c r="V438" s="44"/>
     </row>
     <row r="439" ht="14.25" customHeight="1">
       <c r="G439" s="42"/>
-      <c r="U439" s="43"/>
-      <c r="V439" s="43"/>
+      <c r="U439" s="44"/>
+      <c r="V439" s="44"/>
     </row>
     <row r="440" ht="14.25" customHeight="1">
       <c r="G440" s="42"/>
-      <c r="U440" s="43"/>
-      <c r="V440" s="43"/>
+      <c r="U440" s="44"/>
+      <c r="V440" s="44"/>
     </row>
     <row r="441" ht="14.25" customHeight="1">
       <c r="G441" s="42"/>
-      <c r="U441" s="43"/>
-      <c r="V441" s="43"/>
+      <c r="U441" s="44"/>
+      <c r="V441" s="44"/>
     </row>
     <row r="442" ht="14.25" customHeight="1">
       <c r="G442" s="42"/>
-      <c r="U442" s="43"/>
-      <c r="V442" s="43"/>
+      <c r="U442" s="44"/>
+      <c r="V442" s="44"/>
     </row>
     <row r="443" ht="14.25" customHeight="1">
       <c r="G443" s="42"/>
-      <c r="U443" s="43"/>
-      <c r="V443" s="43"/>
+      <c r="U443" s="44"/>
+      <c r="V443" s="44"/>
     </row>
     <row r="444" ht="14.25" customHeight="1">
       <c r="G444" s="42"/>
-      <c r="U444" s="43"/>
-      <c r="V444" s="43"/>
+      <c r="U444" s="44"/>
+      <c r="V444" s="44"/>
     </row>
     <row r="445" ht="14.25" customHeight="1">
       <c r="G445" s="42"/>
-      <c r="U445" s="43"/>
-      <c r="V445" s="43"/>
+      <c r="U445" s="44"/>
+      <c r="V445" s="44"/>
     </row>
     <row r="446" ht="14.25" customHeight="1">
       <c r="G446" s="42"/>
-      <c r="U446" s="43"/>
-      <c r="V446" s="43"/>
+      <c r="U446" s="44"/>
+      <c r="V446" s="44"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
       <c r="G447" s="42"/>
-      <c r="U447" s="43"/>
-      <c r="V447" s="43"/>
+      <c r="U447" s="44"/>
+      <c r="V447" s="44"/>
     </row>
     <row r="448" ht="14.25" customHeight="1">
       <c r="G448" s="42"/>
-      <c r="U448" s="43"/>
-      <c r="V448" s="43"/>
+      <c r="U448" s="44"/>
+      <c r="V448" s="44"/>
     </row>
     <row r="449" ht="14.25" customHeight="1">
       <c r="G449" s="42"/>
-      <c r="U449" s="43"/>
-      <c r="V449" s="43"/>
+      <c r="U449" s="44"/>
+      <c r="V449" s="44"/>
     </row>
     <row r="450" ht="14.25" customHeight="1">
       <c r="G450" s="42"/>
-      <c r="U450" s="43"/>
-      <c r="V450" s="43"/>
+      <c r="U450" s="44"/>
+      <c r="V450" s="44"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
       <c r="G451" s="42"/>
-      <c r="U451" s="43"/>
-      <c r="V451" s="43"/>
+      <c r="U451" s="44"/>
+      <c r="V451" s="44"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
       <c r="G452" s="42"/>
-      <c r="U452" s="43"/>
-      <c r="V452" s="43"/>
+      <c r="U452" s="44"/>
+      <c r="V452" s="44"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
       <c r="G453" s="42"/>
-      <c r="U453" s="43"/>
-      <c r="V453" s="43"/>
+      <c r="U453" s="44"/>
+      <c r="V453" s="44"/>
     </row>
     <row r="454" ht="14.25" customHeight="1">
       <c r="G454" s="42"/>
-      <c r="U454" s="43"/>
-      <c r="V454" s="43"/>
+      <c r="U454" s="44"/>
+      <c r="V454" s="44"/>
     </row>
     <row r="455" ht="14.25" customHeight="1">
       <c r="G455" s="42"/>
-      <c r="U455" s="43"/>
-      <c r="V455" s="43"/>
+      <c r="U455" s="44"/>
+      <c r="V455" s="44"/>
     </row>
     <row r="456" ht="14.25" customHeight="1">
       <c r="G456" s="42"/>
-      <c r="U456" s="43"/>
-      <c r="V456" s="43"/>
+      <c r="U456" s="44"/>
+      <c r="V456" s="44"/>
     </row>
     <row r="457" ht="14.25" customHeight="1">
       <c r="G457" s="42"/>
-      <c r="U457" s="43"/>
-      <c r="V457" s="43"/>
+      <c r="U457" s="44"/>
+      <c r="V457" s="44"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
       <c r="G458" s="42"/>
-      <c r="U458" s="43"/>
-      <c r="V458" s="43"/>
+      <c r="U458" s="44"/>
+      <c r="V458" s="44"/>
     </row>
     <row r="459" ht="14.25" customHeight="1">
       <c r="G459" s="42"/>
-      <c r="U459" s="43"/>
-      <c r="V459" s="43"/>
+      <c r="U459" s="44"/>
+      <c r="V459" s="44"/>
     </row>
     <row r="460" ht="14.25" customHeight="1">
       <c r="G460" s="42"/>
-      <c r="U460" s="43"/>
-      <c r="V460" s="43"/>
+      <c r="U460" s="44"/>
+      <c r="V460" s="44"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
       <c r="G461" s="42"/>
-      <c r="U461" s="43"/>
-      <c r="V461" s="43"/>
+      <c r="U461" s="44"/>
+      <c r="V461" s="44"/>
     </row>
     <row r="462" ht="14.25" customHeight="1">
       <c r="G462" s="42"/>
-      <c r="U462" s="43"/>
-      <c r="V462" s="43"/>
+      <c r="U462" s="44"/>
+      <c r="V462" s="44"/>
     </row>
     <row r="463" ht="14.25" customHeight="1">
       <c r="G463" s="42"/>
-      <c r="U463" s="43"/>
-      <c r="V463" s="43"/>
+      <c r="U463" s="44"/>
+      <c r="V463" s="44"/>
     </row>
     <row r="464" ht="14.25" customHeight="1">
       <c r="G464" s="42"/>
-      <c r="U464" s="43"/>
-      <c r="V464" s="43"/>
+      <c r="U464" s="44"/>
+      <c r="V464" s="44"/>
     </row>
     <row r="465" ht="14.25" customHeight="1">
       <c r="G465" s="42"/>
-      <c r="U465" s="43"/>
-      <c r="V465" s="43"/>
+      <c r="U465" s="44"/>
+      <c r="V465" s="44"/>
     </row>
     <row r="466" ht="14.25" customHeight="1">
       <c r="G466" s="42"/>
-      <c r="U466" s="43"/>
-      <c r="V466" s="43"/>
+      <c r="U466" s="44"/>
+      <c r="V466" s="44"/>
     </row>
     <row r="467" ht="14.25" customHeight="1">
       <c r="G467" s="42"/>
-      <c r="U467" s="43"/>
-      <c r="V467" s="43"/>
+      <c r="U467" s="44"/>
+      <c r="V467" s="44"/>
     </row>
     <row r="468" ht="14.25" customHeight="1">
       <c r="G468" s="42"/>
-      <c r="U468" s="43"/>
-      <c r="V468" s="43"/>
+      <c r="U468" s="44"/>
+      <c r="V468" s="44"/>
     </row>
     <row r="469" ht="14.25" customHeight="1">
       <c r="G469" s="42"/>
-      <c r="U469" s="43"/>
-      <c r="V469" s="43"/>
+      <c r="U469" s="44"/>
+      <c r="V469" s="44"/>
     </row>
     <row r="470" ht="14.25" customHeight="1">
       <c r="G470" s="42"/>
-      <c r="U470" s="43"/>
-      <c r="V470" s="43"/>
+      <c r="U470" s="44"/>
+      <c r="V470" s="44"/>
     </row>
     <row r="471" ht="14.25" customHeight="1">
       <c r="G471" s="42"/>
-      <c r="U471" s="43"/>
-      <c r="V471" s="43"/>
+      <c r="U471" s="44"/>
+      <c r="V471" s="44"/>
     </row>
     <row r="472" ht="14.25" customHeight="1">
       <c r="G472" s="42"/>
-      <c r="U472" s="43"/>
-      <c r="V472" s="43"/>
+      <c r="U472" s="44"/>
+      <c r="V472" s="44"/>
     </row>
     <row r="473" ht="14.25" customHeight="1">
       <c r="G473" s="42"/>
-      <c r="U473" s="43"/>
-      <c r="V473" s="43"/>
+      <c r="U473" s="44"/>
+      <c r="V473" s="44"/>
     </row>
     <row r="474" ht="14.25" customHeight="1">
       <c r="G474" s="42"/>
-      <c r="U474" s="43"/>
-      <c r="V474" s="43"/>
+      <c r="U474" s="44"/>
+      <c r="V474" s="44"/>
     </row>
     <row r="475" ht="14.25" customHeight="1">
       <c r="G475" s="42"/>
-      <c r="U475" s="43"/>
-      <c r="V475" s="43"/>
+      <c r="U475" s="44"/>
+      <c r="V475" s="44"/>
     </row>
     <row r="476" ht="14.25" customHeight="1">
       <c r="G476" s="42"/>
-      <c r="U476" s="43"/>
-      <c r="V476" s="43"/>
+      <c r="U476" s="44"/>
+      <c r="V476" s="44"/>
     </row>
     <row r="477" ht="14.25" customHeight="1">
       <c r="G477" s="42"/>
-      <c r="U477" s="43"/>
-      <c r="V477" s="43"/>
+      <c r="U477" s="44"/>
+      <c r="V477" s="44"/>
     </row>
     <row r="478" ht="14.25" customHeight="1">
       <c r="G478" s="42"/>
-      <c r="U478" s="43"/>
-      <c r="V478" s="43"/>
+      <c r="U478" s="44"/>
+      <c r="V478" s="44"/>
     </row>
     <row r="479" ht="14.25" customHeight="1">
       <c r="G479" s="42"/>
-      <c r="U479" s="43"/>
-      <c r="V479" s="43"/>
+      <c r="U479" s="44"/>
+      <c r="V479" s="44"/>
     </row>
     <row r="480" ht="14.25" customHeight="1">
       <c r="G480" s="42"/>
-      <c r="U480" s="43"/>
-      <c r="V480" s="43"/>
+      <c r="U480" s="44"/>
+      <c r="V480" s="44"/>
     </row>
     <row r="481" ht="14.25" customHeight="1">
       <c r="G481" s="42"/>
-      <c r="U481" s="43"/>
-      <c r="V481" s="43"/>
+      <c r="U481" s="44"/>
+      <c r="V481" s="44"/>
     </row>
     <row r="482" ht="14.25" customHeight="1">
       <c r="G482" s="42"/>
-      <c r="U482" s="43"/>
-      <c r="V482" s="43"/>
+      <c r="U482" s="44"/>
+      <c r="V482" s="44"/>
     </row>
     <row r="483" ht="14.25" customHeight="1">
       <c r="G483" s="42"/>
-      <c r="U483" s="43"/>
-      <c r="V483" s="43"/>
+      <c r="U483" s="44"/>
+      <c r="V483" s="44"/>
     </row>
     <row r="484" ht="14.25" customHeight="1">
       <c r="G484" s="42"/>
-      <c r="U484" s="43"/>
-      <c r="V484" s="43"/>
+      <c r="U484" s="44"/>
+      <c r="V484" s="44"/>
     </row>
     <row r="485" ht="14.25" customHeight="1">
       <c r="G485" s="42"/>
-      <c r="U485" s="43"/>
-      <c r="V485" s="43"/>
+      <c r="U485" s="44"/>
+      <c r="V485" s="44"/>
     </row>
     <row r="486" ht="14.25" customHeight="1">
       <c r="G486" s="42"/>
-      <c r="U486" s="43"/>
-      <c r="V486" s="43"/>
+      <c r="U486" s="44"/>
+      <c r="V486" s="44"/>
     </row>
     <row r="487" ht="14.25" customHeight="1">
       <c r="G487" s="42"/>
-      <c r="U487" s="43"/>
-      <c r="V487" s="43"/>
+      <c r="U487" s="44"/>
+      <c r="V487" s="44"/>
     </row>
     <row r="488" ht="14.25" customHeight="1">
       <c r="G488" s="42"/>
-      <c r="U488" s="43"/>
-      <c r="V488" s="43"/>
+      <c r="U488" s="44"/>
+      <c r="V488" s="44"/>
     </row>
     <row r="489" ht="14.25" customHeight="1">
       <c r="G489" s="42"/>
-      <c r="U489" s="43"/>
-      <c r="V489" s="43"/>
+      <c r="U489" s="44"/>
+      <c r="V489" s="44"/>
     </row>
     <row r="490" ht="14.25" customHeight="1">
       <c r="G490" s="42"/>
-      <c r="U490" s="43"/>
-      <c r="V490" s="43"/>
+      <c r="U490" s="44"/>
+      <c r="V490" s="44"/>
     </row>
     <row r="491" ht="14.25" customHeight="1">
       <c r="G491" s="42"/>
-      <c r="U491" s="43"/>
-      <c r="V491" s="43"/>
+      <c r="U491" s="44"/>
+      <c r="V491" s="44"/>
     </row>
     <row r="492" ht="14.25" customHeight="1">
       <c r="G492" s="42"/>
-      <c r="U492" s="43"/>
-      <c r="V492" s="43"/>
+      <c r="U492" s="44"/>
+      <c r="V492" s="44"/>
     </row>
     <row r="493" ht="14.25" customHeight="1">
       <c r="G493" s="42"/>
-      <c r="U493" s="43"/>
-      <c r="V493" s="43"/>
+      <c r="U493" s="44"/>
+      <c r="V493" s="44"/>
     </row>
     <row r="494" ht="14.25" customHeight="1">
       <c r="G494" s="42"/>
-      <c r="U494" s="43"/>
-      <c r="V494" s="43"/>
+      <c r="U494" s="44"/>
+      <c r="V494" s="44"/>
     </row>
     <row r="495" ht="14.25" customHeight="1">
       <c r="G495" s="42"/>
-      <c r="U495" s="43"/>
-      <c r="V495" s="43"/>
+      <c r="U495" s="44"/>
+      <c r="V495" s="44"/>
     </row>
     <row r="496" ht="14.25" customHeight="1">
       <c r="G496" s="42"/>
-      <c r="U496" s="43"/>
-      <c r="V496" s="43"/>
+      <c r="U496" s="44"/>
+      <c r="V496" s="44"/>
     </row>
     <row r="497" ht="14.25" customHeight="1">
       <c r="G497" s="42"/>
-      <c r="U497" s="43"/>
-      <c r="V497" s="43"/>
+      <c r="U497" s="44"/>
+      <c r="V497" s="44"/>
     </row>
     <row r="498" ht="14.25" customHeight="1">
       <c r="G498" s="42"/>
-      <c r="U498" s="43"/>
-      <c r="V498" s="43"/>
+      <c r="U498" s="44"/>
+      <c r="V498" s="44"/>
     </row>
     <row r="499" ht="14.25" customHeight="1">
       <c r="G499" s="42"/>
-      <c r="U499" s="43"/>
-      <c r="V499" s="43"/>
+      <c r="U499" s="44"/>
+      <c r="V499" s="44"/>
     </row>
     <row r="500" ht="14.25" customHeight="1">
       <c r="G500" s="42"/>
-      <c r="U500" s="43"/>
-      <c r="V500" s="43"/>
+      <c r="U500" s="44"/>
+      <c r="V500" s="44"/>
     </row>
     <row r="501" ht="14.25" customHeight="1">
       <c r="G501" s="42"/>
-      <c r="U501" s="43"/>
-      <c r="V501" s="43"/>
+      <c r="U501" s="44"/>
+      <c r="V501" s="44"/>
     </row>
     <row r="502" ht="14.25" customHeight="1">
       <c r="G502" s="42"/>
-      <c r="U502" s="43"/>
-      <c r="V502" s="43"/>
+      <c r="U502" s="44"/>
+      <c r="V502" s="44"/>
     </row>
     <row r="503" ht="14.25" customHeight="1">
       <c r="G503" s="42"/>
-      <c r="U503" s="43"/>
-      <c r="V503" s="43"/>
+      <c r="U503" s="44"/>
+      <c r="V503" s="44"/>
     </row>
     <row r="504" ht="14.25" customHeight="1">
       <c r="G504" s="42"/>
-      <c r="U504" s="43"/>
-      <c r="V504" s="43"/>
+      <c r="U504" s="44"/>
+      <c r="V504" s="44"/>
     </row>
     <row r="505" ht="14.25" customHeight="1">
       <c r="G505" s="42"/>
-      <c r="U505" s="43"/>
-      <c r="V505" s="43"/>
+      <c r="U505" s="44"/>
+      <c r="V505" s="44"/>
     </row>
     <row r="506" ht="14.25" customHeight="1">
       <c r="G506" s="42"/>
-      <c r="U506" s="43"/>
-      <c r="V506" s="43"/>
+      <c r="U506" s="44"/>
+      <c r="V506" s="44"/>
     </row>
     <row r="507" ht="14.25" customHeight="1">
       <c r="G507" s="42"/>
-      <c r="U507" s="43"/>
-      <c r="V507" s="43"/>
+      <c r="U507" s="44"/>
+      <c r="V507" s="44"/>
     </row>
     <row r="508" ht="14.25" customHeight="1">
       <c r="G508" s="42"/>
-      <c r="U508" s="43"/>
-      <c r="V508" s="43"/>
+      <c r="U508" s="44"/>
+      <c r="V508" s="44"/>
     </row>
     <row r="509" ht="14.25" customHeight="1">
       <c r="G509" s="42"/>
-      <c r="U509" s="43"/>
-      <c r="V509" s="43"/>
+      <c r="U509" s="44"/>
+      <c r="V509" s="44"/>
     </row>
     <row r="510" ht="14.25" customHeight="1">
       <c r="G510" s="42"/>
-      <c r="U510" s="43"/>
-      <c r="V510" s="43"/>
+      <c r="U510" s="44"/>
+      <c r="V510" s="44"/>
     </row>
     <row r="511" ht="14.25" customHeight="1">
       <c r="G511" s="42"/>
-      <c r="U511" s="43"/>
-      <c r="V511" s="43"/>
+      <c r="U511" s="44"/>
+      <c r="V511" s="44"/>
     </row>
     <row r="512" ht="14.25" customHeight="1">
       <c r="G512" s="42"/>
-      <c r="U512" s="43"/>
-      <c r="V512" s="43"/>
+      <c r="U512" s="44"/>
+      <c r="V512" s="44"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
       <c r="G513" s="42"/>
-      <c r="U513" s="43"/>
-      <c r="V513" s="43"/>
+      <c r="U513" s="44"/>
+      <c r="V513" s="44"/>
     </row>
     <row r="514" ht="14.25" customHeight="1">
       <c r="G514" s="42"/>
-      <c r="U514" s="43"/>
-      <c r="V514" s="43"/>
+      <c r="U514" s="44"/>
+      <c r="V514" s="44"/>
     </row>
     <row r="515" ht="14.25" customHeight="1">
       <c r="G515" s="42"/>
-      <c r="U515" s="43"/>
-      <c r="V515" s="43"/>
+      <c r="U515" s="44"/>
+      <c r="V515" s="44"/>
     </row>
     <row r="516" ht="14.25" customHeight="1">
       <c r="G516" s="42"/>
-      <c r="U516" s="43"/>
-      <c r="V516" s="43"/>
+      <c r="U516" s="44"/>
+      <c r="V516" s="44"/>
     </row>
     <row r="517" ht="14.25" customHeight="1">
       <c r="G517" s="42"/>
-      <c r="U517" s="43"/>
-      <c r="V517" s="43"/>
+      <c r="U517" s="44"/>
+      <c r="V517" s="44"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
       <c r="G518" s="42"/>
-      <c r="U518" s="43"/>
-      <c r="V518" s="43"/>
+      <c r="U518" s="44"/>
+      <c r="V518" s="44"/>
     </row>
     <row r="519" ht="14.25" customHeight="1">
       <c r="G519" s="42"/>
-      <c r="U519" s="43"/>
-      <c r="V519" s="43"/>
+      <c r="U519" s="44"/>
+      <c r="V519" s="44"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
       <c r="G520" s="42"/>
-      <c r="U520" s="43"/>
-      <c r="V520" s="43"/>
+      <c r="U520" s="44"/>
+      <c r="V520" s="44"/>
     </row>
     <row r="521" ht="14.25" customHeight="1">
       <c r="G521" s="42"/>
-      <c r="U521" s="43"/>
-      <c r="V521" s="43"/>
+      <c r="U521" s="44"/>
+      <c r="V521" s="44"/>
     </row>
     <row r="522" ht="14.25" customHeight="1">
       <c r="G522" s="42"/>
-      <c r="U522" s="43"/>
-      <c r="V522" s="43"/>
+      <c r="U522" s="44"/>
+      <c r="V522" s="44"/>
     </row>
     <row r="523" ht="14.25" customHeight="1">
       <c r="G523" s="42"/>
-      <c r="U523" s="43"/>
-      <c r="V523" s="43"/>
+      <c r="U523" s="44"/>
+      <c r="V523" s="44"/>
     </row>
     <row r="524" ht="14.25" customHeight="1">
       <c r="G524" s="42"/>
-      <c r="U524" s="43"/>
-      <c r="V524" s="43"/>
+      <c r="U524" s="44"/>
+      <c r="V524" s="44"/>
     </row>
     <row r="525" ht="14.25" customHeight="1">
       <c r="G525" s="42"/>
-      <c r="U525" s="43"/>
-      <c r="V525" s="43"/>
+      <c r="U525" s="44"/>
+      <c r="V525" s="44"/>
     </row>
     <row r="526" ht="14.25" customHeight="1">
       <c r="G526" s="42"/>
-      <c r="U526" s="43"/>
-      <c r="V526" s="43"/>
+      <c r="U526" s="44"/>
+      <c r="V526" s="44"/>
     </row>
     <row r="527" ht="14.25" customHeight="1">
       <c r="G527" s="42"/>
-      <c r="U527" s="43"/>
-      <c r="V527" s="43"/>
+      <c r="U527" s="44"/>
+      <c r="V527" s="44"/>
     </row>
     <row r="528" ht="14.25" customHeight="1">
       <c r="G528" s="42"/>
-      <c r="U528" s="43"/>
-      <c r="V528" s="43"/>
+      <c r="U528" s="44"/>
+      <c r="V528" s="44"/>
     </row>
     <row r="529" ht="14.25" customHeight="1">
       <c r="G529" s="42"/>
-      <c r="U529" s="43"/>
-      <c r="V529" s="43"/>
+      <c r="U529" s="44"/>
+      <c r="V529" s="44"/>
     </row>
     <row r="530" ht="14.25" customHeight="1">
       <c r="G530" s="42"/>
-      <c r="U530" s="43"/>
-      <c r="V530" s="43"/>
+      <c r="U530" s="44"/>
+      <c r="V530" s="44"/>
     </row>
     <row r="531" ht="14.25" customHeight="1">
       <c r="G531" s="42"/>
-      <c r="U531" s="43"/>
-      <c r="V531" s="43"/>
+      <c r="U531" s="44"/>
+      <c r="V531" s="44"/>
     </row>
     <row r="532" ht="14.25" customHeight="1">
       <c r="G532" s="42"/>
-      <c r="U532" s="43"/>
-      <c r="V532" s="43"/>
+      <c r="U532" s="44"/>
+      <c r="V532" s="44"/>
     </row>
     <row r="533" ht="14.25" customHeight="1">
       <c r="G533" s="42"/>
-      <c r="U533" s="43"/>
-      <c r="V533" s="43"/>
+      <c r="U533" s="44"/>
+      <c r="V533" s="44"/>
     </row>
     <row r="534" ht="14.25" customHeight="1">
       <c r="G534" s="42"/>
-      <c r="U534" s="43"/>
-      <c r="V534" s="43"/>
+      <c r="U534" s="44"/>
+      <c r="V534" s="44"/>
     </row>
     <row r="535" ht="14.25" customHeight="1">
       <c r="G535" s="42"/>
-      <c r="U535" s="43"/>
-      <c r="V535" s="43"/>
+      <c r="U535" s="44"/>
+      <c r="V535" s="44"/>
     </row>
     <row r="536" ht="14.25" customHeight="1">
       <c r="G536" s="42"/>
-      <c r="U536" s="43"/>
-      <c r="V536" s="43"/>
+      <c r="U536" s="44"/>
+      <c r="V536" s="44"/>
     </row>
     <row r="537" ht="14.25" customHeight="1">
       <c r="G537" s="42"/>
-      <c r="U537" s="43"/>
-      <c r="V537" s="43"/>
+      <c r="U537" s="44"/>
+      <c r="V537" s="44"/>
     </row>
     <row r="538" ht="14.25" customHeight="1">
       <c r="G538" s="42"/>
-      <c r="U538" s="43"/>
-      <c r="V538" s="43"/>
+      <c r="U538" s="44"/>
+      <c r="V538" s="44"/>
     </row>
     <row r="539" ht="14.25" customHeight="1">
       <c r="G539" s="42"/>
-      <c r="U539" s="43"/>
-      <c r="V539" s="43"/>
+      <c r="U539" s="44"/>
+      <c r="V539" s="44"/>
     </row>
     <row r="540" ht="14.25" customHeight="1">
       <c r="G540" s="42"/>
-      <c r="U540" s="43"/>
-      <c r="V540" s="43"/>
+      <c r="U540" s="44"/>
+      <c r="V540" s="44"/>
     </row>
     <row r="541" ht="14.25" customHeight="1">
       <c r="G541" s="42"/>
-      <c r="U541" s="43"/>
-      <c r="V541" s="43"/>
+      <c r="U541" s="44"/>
+      <c r="V541" s="44"/>
     </row>
     <row r="542" ht="14.25" customHeight="1">
       <c r="G542" s="42"/>
-      <c r="U542" s="43"/>
-      <c r="V542" s="43"/>
+      <c r="U542" s="44"/>
+      <c r="V542" s="44"/>
     </row>
     <row r="543" ht="14.25" customHeight="1">
       <c r="G543" s="42"/>
-      <c r="U543" s="43"/>
-      <c r="V543" s="43"/>
+      <c r="U543" s="44"/>
+      <c r="V543" s="44"/>
     </row>
     <row r="544" ht="14.25" customHeight="1">
       <c r="G544" s="42"/>
-      <c r="U544" s="43"/>
-      <c r="V544" s="43"/>
+      <c r="U544" s="44"/>
+      <c r="V544" s="44"/>
     </row>
     <row r="545" ht="14.25" customHeight="1">
       <c r="G545" s="42"/>
-      <c r="U545" s="43"/>
-      <c r="V545" s="43"/>
+      <c r="U545" s="44"/>
+      <c r="V545" s="44"/>
     </row>
     <row r="546" ht="14.25" customHeight="1">
       <c r="G546" s="42"/>
-      <c r="U546" s="43"/>
-      <c r="V546" s="43"/>
+      <c r="U546" s="44"/>
+      <c r="V546" s="44"/>
     </row>
     <row r="547" ht="14.25" customHeight="1">
       <c r="G547" s="42"/>
-      <c r="U547" s="43"/>
-      <c r="V547" s="43"/>
+      <c r="U547" s="44"/>
+      <c r="V547" s="44"/>
     </row>
     <row r="548" ht="14.25" customHeight="1">
       <c r="G548" s="42"/>
-      <c r="U548" s="43"/>
-      <c r="V548" s="43"/>
+      <c r="U548" s="44"/>
+      <c r="V548" s="44"/>
     </row>
     <row r="549" ht="14.25" customHeight="1">
       <c r="G549" s="42"/>
-      <c r="U549" s="43"/>
-      <c r="V549" s="43"/>
+      <c r="U549" s="44"/>
+      <c r="V549" s="44"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
       <c r="G550" s="42"/>
-      <c r="U550" s="43"/>
-      <c r="V550" s="43"/>
+      <c r="U550" s="44"/>
+      <c r="V550" s="44"/>
     </row>
     <row r="551" ht="14.25" customHeight="1">
       <c r="G551" s="42"/>
-      <c r="U551" s="43"/>
-      <c r="V551" s="43"/>
+      <c r="U551" s="44"/>
+      <c r="V551" s="44"/>
     </row>
     <row r="552" ht="14.25" customHeight="1">
       <c r="G552" s="42"/>
-      <c r="U552" s="43"/>
-      <c r="V552" s="43"/>
+      <c r="U552" s="44"/>
+      <c r="V552" s="44"/>
     </row>
     <row r="553" ht="14.25" customHeight="1">
       <c r="G553" s="42"/>
-      <c r="U553" s="43"/>
-      <c r="V553" s="43"/>
+      <c r="U553" s="44"/>
+      <c r="V553" s="44"/>
     </row>
     <row r="554" ht="14.25" customHeight="1">
       <c r="G554" s="42"/>
-      <c r="U554" s="43"/>
-      <c r="V554" s="43"/>
+      <c r="U554" s="44"/>
+      <c r="V554" s="44"/>
     </row>
     <row r="555" ht="14.25" customHeight="1">
       <c r="G555" s="42"/>
-      <c r="U555" s="43"/>
-      <c r="V555" s="43"/>
+      <c r="U555" s="44"/>
+      <c r="V555" s="44"/>
     </row>
     <row r="556" ht="14.25" customHeight="1">
       <c r="G556" s="42"/>
-      <c r="U556" s="43"/>
-      <c r="V556" s="43"/>
+      <c r="U556" s="44"/>
+      <c r="V556" s="44"/>
     </row>
     <row r="557" ht="14.25" customHeight="1">
       <c r="G557" s="42"/>
-      <c r="U557" s="43"/>
-      <c r="V557" s="43"/>
+      <c r="U557" s="44"/>
+      <c r="V557" s="44"/>
     </row>
     <row r="558" ht="14.25" customHeight="1">
       <c r="G558" s="42"/>
-      <c r="U558" s="43"/>
-      <c r="V558" s="43"/>
+      <c r="U558" s="44"/>
+      <c r="V558" s="44"/>
     </row>
     <row r="559" ht="14.25" customHeight="1">
       <c r="G559" s="42"/>
-      <c r="U559" s="43"/>
-      <c r="V559" s="43"/>
+      <c r="U559" s="44"/>
+      <c r="V559" s="44"/>
     </row>
     <row r="560" ht="14.25" customHeight="1">
       <c r="G560" s="42"/>
-      <c r="U560" s="43"/>
-      <c r="V560" s="43"/>
+      <c r="U560" s="44"/>
+      <c r="V560" s="44"/>
     </row>
     <row r="561" ht="14.25" customHeight="1">
       <c r="G561" s="42"/>
-      <c r="U561" s="43"/>
-      <c r="V561" s="43"/>
+      <c r="U561" s="44"/>
+      <c r="V561" s="44"/>
     </row>
     <row r="562" ht="14.25" customHeight="1">
       <c r="G562" s="42"/>
-      <c r="U562" s="43"/>
-      <c r="V562" s="43"/>
+      <c r="U562" s="44"/>
+      <c r="V562" s="44"/>
     </row>
     <row r="563" ht="14.25" customHeight="1">
       <c r="G563" s="42"/>
-      <c r="U563" s="43"/>
-      <c r="V563" s="43"/>
+      <c r="U563" s="44"/>
+      <c r="V563" s="44"/>
     </row>
     <row r="564" ht="14.25" customHeight="1">
       <c r="G564" s="42"/>
-      <c r="U564" s="43"/>
-      <c r="V564" s="43"/>
+      <c r="U564" s="44"/>
+      <c r="V564" s="44"/>
     </row>
     <row r="565" ht="14.25" customHeight="1">
       <c r="G565" s="42"/>
-      <c r="U565" s="43"/>
-      <c r="V565" s="43"/>
+      <c r="U565" s="44"/>
+      <c r="V565" s="44"/>
     </row>
     <row r="566" ht="14.25" customHeight="1">
       <c r="G566" s="42"/>
-      <c r="U566" s="43"/>
-      <c r="V566" s="43"/>
+      <c r="U566" s="44"/>
+      <c r="V566" s="44"/>
     </row>
     <row r="567" ht="14.25" customHeight="1">
       <c r="G567" s="42"/>
-      <c r="U567" s="43"/>
-      <c r="V567" s="43"/>
+      <c r="U567" s="44"/>
+      <c r="V567" s="44"/>
     </row>
     <row r="568" ht="14.25" customHeight="1">
       <c r="G568" s="42"/>
-      <c r="U568" s="43"/>
-      <c r="V568" s="43"/>
+      <c r="U568" s="44"/>
+      <c r="V568" s="44"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
       <c r="G569" s="42"/>
-      <c r="U569" s="43"/>
-      <c r="V569" s="43"/>
+      <c r="U569" s="44"/>
+      <c r="V569" s="44"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
       <c r="G570" s="42"/>
-      <c r="U570" s="43"/>
-      <c r="V570" s="43"/>
+      <c r="U570" s="44"/>
+      <c r="V570" s="44"/>
     </row>
     <row r="571" ht="14.25" customHeight="1">
       <c r="G571" s="42"/>
-      <c r="U571" s="43"/>
-      <c r="V571" s="43"/>
+      <c r="U571" s="44"/>
+      <c r="V571" s="44"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
       <c r="G572" s="42"/>
-      <c r="U572" s="43"/>
-      <c r="V572" s="43"/>
+      <c r="U572" s="44"/>
+      <c r="V572" s="44"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
       <c r="G573" s="42"/>
-      <c r="U573" s="43"/>
-      <c r="V573" s="43"/>
+      <c r="U573" s="44"/>
+      <c r="V573" s="44"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
       <c r="G574" s="42"/>
-      <c r="U574" s="43"/>
-      <c r="V574" s="43"/>
+      <c r="U574" s="44"/>
+      <c r="V574" s="44"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
       <c r="G575" s="42"/>
-      <c r="U575" s="43"/>
-      <c r="V575" s="43"/>
+      <c r="U575" s="44"/>
+      <c r="V575" s="44"/>
     </row>
     <row r="576" ht="14.25" customHeight="1">
       <c r="G576" s="42"/>
-      <c r="U576" s="43"/>
-      <c r="V576" s="43"/>
+      <c r="U576" s="44"/>
+      <c r="V576" s="44"/>
     </row>
     <row r="577" ht="14.25" customHeight="1">
       <c r="G577" s="42"/>
-      <c r="U577" s="43"/>
-      <c r="V577" s="43"/>
+      <c r="U577" s="44"/>
+      <c r="V577" s="44"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
       <c r="G578" s="42"/>
-      <c r="U578" s="43"/>
-      <c r="V578" s="43"/>
+      <c r="U578" s="44"/>
+      <c r="V578" s="44"/>
     </row>
     <row r="579" ht="14.25" customHeight="1">
       <c r="G579" s="42"/>
-      <c r="U579" s="43"/>
-      <c r="V579" s="43"/>
+      <c r="U579" s="44"/>
+      <c r="V579" s="44"/>
     </row>
     <row r="580" ht="14.25" customHeight="1">
       <c r="G580" s="42"/>
-      <c r="U580" s="43"/>
-      <c r="V580" s="43"/>
+      <c r="U580" s="44"/>
+      <c r="V580" s="44"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
       <c r="G581" s="42"/>
-      <c r="U581" s="43"/>
-      <c r="V581" s="43"/>
+      <c r="U581" s="44"/>
+      <c r="V581" s="44"/>
     </row>
     <row r="582" ht="14.25" customHeight="1">
       <c r="G582" s="42"/>
-      <c r="U582" s="43"/>
-      <c r="V582" s="43"/>
+      <c r="U582" s="44"/>
+      <c r="V582" s="44"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
       <c r="G583" s="42"/>
-      <c r="U583" s="43"/>
-      <c r="V583" s="43"/>
+      <c r="U583" s="44"/>
+      <c r="V583" s="44"/>
     </row>
     <row r="584" ht="14.25" customHeight="1">
       <c r="G584" s="42"/>
-      <c r="U584" s="43"/>
-      <c r="V584" s="43"/>
+      <c r="U584" s="44"/>
+      <c r="V584" s="44"/>
     </row>
     <row r="585" ht="14.25" customHeight="1">
       <c r="G585" s="42"/>
-      <c r="U585" s="43"/>
-      <c r="V585" s="43"/>
+      <c r="U585" s="44"/>
+      <c r="V585" s="44"/>
     </row>
     <row r="586" ht="14.25" customHeight="1">
       <c r="G586" s="42"/>
-      <c r="U586" s="43"/>
-      <c r="V586" s="43"/>
+      <c r="U586" s="44"/>
+      <c r="V586" s="44"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
       <c r="G587" s="42"/>
-      <c r="U587" s="43"/>
-      <c r="V587" s="43"/>
+      <c r="U587" s="44"/>
+      <c r="V587" s="44"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
       <c r="G588" s="42"/>
-      <c r="U588" s="43"/>
-      <c r="V588" s="43"/>
+      <c r="U588" s="44"/>
+      <c r="V588" s="44"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
       <c r="G589" s="42"/>
-      <c r="U589" s="43"/>
-      <c r="V589" s="43"/>
+      <c r="U589" s="44"/>
+      <c r="V589" s="44"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
       <c r="G590" s="42"/>
-      <c r="U590" s="43"/>
-      <c r="V590" s="43"/>
+      <c r="U590" s="44"/>
+      <c r="V590" s="44"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
       <c r="G591" s="42"/>
-      <c r="U591" s="43"/>
-      <c r="V591" s="43"/>
+      <c r="U591" s="44"/>
+      <c r="V591" s="44"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
       <c r="G592" s="42"/>
-      <c r="U592" s="43"/>
-      <c r="V592" s="43"/>
+      <c r="U592" s="44"/>
+      <c r="V592" s="44"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
       <c r="G593" s="42"/>
-      <c r="U593" s="43"/>
-      <c r="V593" s="43"/>
+      <c r="U593" s="44"/>
+      <c r="V593" s="44"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
       <c r="G594" s="42"/>
-      <c r="U594" s="43"/>
-      <c r="V594" s="43"/>
+      <c r="U594" s="44"/>
+      <c r="V594" s="44"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
       <c r="G595" s="42"/>
-      <c r="U595" s="43"/>
-      <c r="V595" s="43"/>
+      <c r="U595" s="44"/>
+      <c r="V595" s="44"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
       <c r="G596" s="42"/>
-      <c r="U596" s="43"/>
-      <c r="V596" s="43"/>
+      <c r="U596" s="44"/>
+      <c r="V596" s="44"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
       <c r="G597" s="42"/>
-      <c r="U597" s="43"/>
-      <c r="V597" s="43"/>
+      <c r="U597" s="44"/>
+      <c r="V597" s="44"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
       <c r="G598" s="42"/>
-      <c r="U598" s="43"/>
-      <c r="V598" s="43"/>
+      <c r="U598" s="44"/>
+      <c r="V598" s="44"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
       <c r="G599" s="42"/>
-      <c r="U599" s="43"/>
-      <c r="V599" s="43"/>
+      <c r="U599" s="44"/>
+      <c r="V599" s="44"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
       <c r="G600" s="42"/>
-      <c r="U600" s="43"/>
-      <c r="V600" s="43"/>
+      <c r="U600" s="44"/>
+      <c r="V600" s="44"/>
     </row>
     <row r="601" ht="14.25" customHeight="1">
       <c r="G601" s="42"/>
-      <c r="U601" s="43"/>
-      <c r="V601" s="43"/>
+      <c r="U601" s="44"/>
+      <c r="V601" s="44"/>
     </row>
     <row r="602" ht="14.25" customHeight="1">
       <c r="G602" s="42"/>
-      <c r="U602" s="43"/>
-      <c r="V602" s="43"/>
+      <c r="U602" s="44"/>
+      <c r="V602" s="44"/>
     </row>
     <row r="603" ht="14.25" customHeight="1">
       <c r="G603" s="42"/>
-      <c r="U603" s="43"/>
-      <c r="V603" s="43"/>
+      <c r="U603" s="44"/>
+      <c r="V603" s="44"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
       <c r="G604" s="42"/>
-      <c r="U604" s="43"/>
-      <c r="V604" s="43"/>
+      <c r="U604" s="44"/>
+      <c r="V604" s="44"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
       <c r="G605" s="42"/>
-      <c r="U605" s="43"/>
-      <c r="V605" s="43"/>
+      <c r="U605" s="44"/>
+      <c r="V605" s="44"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
       <c r="G606" s="42"/>
-      <c r="U606" s="43"/>
-      <c r="V606" s="43"/>
+      <c r="U606" s="44"/>
+      <c r="V606" s="44"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
       <c r="G607" s="42"/>
-      <c r="U607" s="43"/>
-      <c r="V607" s="43"/>
+      <c r="U607" s="44"/>
+      <c r="V607" s="44"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
       <c r="G608" s="42"/>
-      <c r="U608" s="43"/>
-      <c r="V608" s="43"/>
+      <c r="U608" s="44"/>
+      <c r="V608" s="44"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
       <c r="G609" s="42"/>
-      <c r="U609" s="43"/>
-      <c r="V609" s="43"/>
+      <c r="U609" s="44"/>
+      <c r="V609" s="44"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
       <c r="G610" s="42"/>
-      <c r="U610" s="43"/>
-      <c r="V610" s="43"/>
+      <c r="U610" s="44"/>
+      <c r="V610" s="44"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
       <c r="G611" s="42"/>
-      <c r="U611" s="43"/>
-      <c r="V611" s="43"/>
+      <c r="U611" s="44"/>
+      <c r="V611" s="44"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
       <c r="G612" s="42"/>
-      <c r="U612" s="43"/>
-      <c r="V612" s="43"/>
+      <c r="U612" s="44"/>
+      <c r="V612" s="44"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
       <c r="G613" s="42"/>
-      <c r="U613" s="43"/>
-      <c r="V613" s="43"/>
+      <c r="U613" s="44"/>
+      <c r="V613" s="44"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
       <c r="G614" s="42"/>
-      <c r="U614" s="43"/>
-      <c r="V614" s="43"/>
+      <c r="U614" s="44"/>
+      <c r="V614" s="44"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
       <c r="G615" s="42"/>
-      <c r="U615" s="43"/>
-      <c r="V615" s="43"/>
+      <c r="U615" s="44"/>
+      <c r="V615" s="44"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
       <c r="G616" s="42"/>
-      <c r="U616" s="43"/>
-      <c r="V616" s="43"/>
+      <c r="U616" s="44"/>
+      <c r="V616" s="44"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
       <c r="G617" s="42"/>
-      <c r="U617" s="43"/>
-      <c r="V617" s="43"/>
+      <c r="U617" s="44"/>
+      <c r="V617" s="44"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
       <c r="G618" s="42"/>
-      <c r="U618" s="43"/>
-      <c r="V618" s="43"/>
+      <c r="U618" s="44"/>
+      <c r="V618" s="44"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
       <c r="G619" s="42"/>
-      <c r="U619" s="43"/>
-      <c r="V619" s="43"/>
+      <c r="U619" s="44"/>
+      <c r="V619" s="44"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
       <c r="G620" s="42"/>
-      <c r="U620" s="43"/>
-      <c r="V620" s="43"/>
+      <c r="U620" s="44"/>
+      <c r="V620" s="44"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
       <c r="G621" s="42"/>
-      <c r="U621" s="43"/>
-      <c r="V621" s="43"/>
+      <c r="U621" s="44"/>
+      <c r="V621" s="44"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
       <c r="G622" s="42"/>
-      <c r="U622" s="43"/>
-      <c r="V622" s="43"/>
+      <c r="U622" s="44"/>
+      <c r="V622" s="44"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
       <c r="G623" s="42"/>
-      <c r="U623" s="43"/>
-      <c r="V623" s="43"/>
+      <c r="U623" s="44"/>
+      <c r="V623" s="44"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
       <c r="G624" s="42"/>
-      <c r="U624" s="43"/>
-      <c r="V624" s="43"/>
+      <c r="U624" s="44"/>
+      <c r="V624" s="44"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
       <c r="G625" s="42"/>
-      <c r="U625" s="43"/>
-      <c r="V625" s="43"/>
+      <c r="U625" s="44"/>
+      <c r="V625" s="44"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
       <c r="G626" s="42"/>
-      <c r="U626" s="43"/>
-      <c r="V626" s="43"/>
+      <c r="U626" s="44"/>
+      <c r="V626" s="44"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
       <c r="G627" s="42"/>
-      <c r="U627" s="43"/>
-      <c r="V627" s="43"/>
+      <c r="U627" s="44"/>
+      <c r="V627" s="44"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
       <c r="G628" s="42"/>
-      <c r="U628" s="43"/>
-      <c r="V628" s="43"/>
+      <c r="U628" s="44"/>
+      <c r="V628" s="44"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
       <c r="G629" s="42"/>
-      <c r="U629" s="43"/>
-      <c r="V629" s="43"/>
+      <c r="U629" s="44"/>
+      <c r="V629" s="44"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
       <c r="G630" s="42"/>
-      <c r="U630" s="43"/>
-      <c r="V630" s="43"/>
+      <c r="U630" s="44"/>
+      <c r="V630" s="44"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
       <c r="G631" s="42"/>
-      <c r="U631" s="43"/>
-      <c r="V631" s="43"/>
+      <c r="U631" s="44"/>
+      <c r="V631" s="44"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
       <c r="G632" s="42"/>
-      <c r="U632" s="43"/>
-      <c r="V632" s="43"/>
+      <c r="U632" s="44"/>
+      <c r="V632" s="44"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
       <c r="G633" s="42"/>
-      <c r="U633" s="43"/>
-      <c r="V633" s="43"/>
+      <c r="U633" s="44"/>
+      <c r="V633" s="44"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
       <c r="G634" s="42"/>
-      <c r="U634" s="43"/>
-      <c r="V634" s="43"/>
+      <c r="U634" s="44"/>
+      <c r="V634" s="44"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
       <c r="G635" s="42"/>
-      <c r="U635" s="43"/>
-      <c r="V635" s="43"/>
+      <c r="U635" s="44"/>
+      <c r="V635" s="44"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
       <c r="G636" s="42"/>
-      <c r="U636" s="43"/>
-      <c r="V636" s="43"/>
+      <c r="U636" s="44"/>
+      <c r="V636" s="44"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
       <c r="G637" s="42"/>
-      <c r="U637" s="43"/>
-      <c r="V637" s="43"/>
+      <c r="U637" s="44"/>
+      <c r="V637" s="44"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
       <c r="G638" s="42"/>
-      <c r="U638" s="43"/>
-      <c r="V638" s="43"/>
+      <c r="U638" s="44"/>
+      <c r="V638" s="44"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
       <c r="G639" s="42"/>
-      <c r="U639" s="43"/>
-      <c r="V639" s="43"/>
+      <c r="U639" s="44"/>
+      <c r="V639" s="44"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
       <c r="G640" s="42"/>
-      <c r="U640" s="43"/>
-      <c r="V640" s="43"/>
+      <c r="U640" s="44"/>
+      <c r="V640" s="44"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
       <c r="G641" s="42"/>
-      <c r="U641" s="43"/>
-      <c r="V641" s="43"/>
+      <c r="U641" s="44"/>
+      <c r="V641" s="44"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
       <c r="G642" s="42"/>
-      <c r="U642" s="43"/>
-      <c r="V642" s="43"/>
+      <c r="U642" s="44"/>
+      <c r="V642" s="44"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
       <c r="G643" s="42"/>
-      <c r="U643" s="43"/>
-      <c r="V643" s="43"/>
+      <c r="U643" s="44"/>
+      <c r="V643" s="44"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
       <c r="G644" s="42"/>
-      <c r="U644" s="43"/>
-      <c r="V644" s="43"/>
+      <c r="U644" s="44"/>
+      <c r="V644" s="44"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
       <c r="G645" s="42"/>
-      <c r="U645" s="43"/>
-      <c r="V645" s="43"/>
+      <c r="U645" s="44"/>
+      <c r="V645" s="44"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
       <c r="G646" s="42"/>
-      <c r="U646" s="43"/>
-      <c r="V646" s="43"/>
+      <c r="U646" s="44"/>
+      <c r="V646" s="44"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
       <c r="G647" s="42"/>
-      <c r="U647" s="43"/>
-      <c r="V647" s="43"/>
+      <c r="U647" s="44"/>
+      <c r="V647" s="44"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
       <c r="G648" s="42"/>
-      <c r="U648" s="43"/>
-      <c r="V648" s="43"/>
+      <c r="U648" s="44"/>
+      <c r="V648" s="44"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
       <c r="G649" s="42"/>
-      <c r="U649" s="43"/>
-      <c r="V649" s="43"/>
+      <c r="U649" s="44"/>
+      <c r="V649" s="44"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
       <c r="G650" s="42"/>
-      <c r="U650" s="43"/>
-      <c r="V650" s="43"/>
+      <c r="U650" s="44"/>
+      <c r="V650" s="44"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
       <c r="G651" s="42"/>
-      <c r="U651" s="43"/>
-      <c r="V651" s="43"/>
+      <c r="U651" s="44"/>
+      <c r="V651" s="44"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
       <c r="G652" s="42"/>
-      <c r="U652" s="43"/>
-      <c r="V652" s="43"/>
+      <c r="U652" s="44"/>
+      <c r="V652" s="44"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
       <c r="G653" s="42"/>
-      <c r="U653" s="43"/>
-      <c r="V653" s="43"/>
+      <c r="U653" s="44"/>
+      <c r="V653" s="44"/>
     </row>
     <row r="654" ht="14.25" customHeight="1">
       <c r="G654" s="42"/>
-      <c r="U654" s="43"/>
-      <c r="V654" s="43"/>
+      <c r="U654" s="44"/>
+      <c r="V654" s="44"/>
     </row>
     <row r="655" ht="14.25" customHeight="1">
       <c r="G655" s="42"/>
-      <c r="U655" s="43"/>
-      <c r="V655" s="43"/>
+      <c r="U655" s="44"/>
+      <c r="V655" s="44"/>
     </row>
     <row r="656" ht="14.25" customHeight="1">
       <c r="G656" s="42"/>
-      <c r="U656" s="43"/>
-      <c r="V656" s="43"/>
+      <c r="U656" s="44"/>
+      <c r="V656" s="44"/>
     </row>
     <row r="657" ht="14.25" customHeight="1">
       <c r="G657" s="42"/>
-      <c r="U657" s="43"/>
-      <c r="V657" s="43"/>
+      <c r="U657" s="44"/>
+      <c r="V657" s="44"/>
     </row>
     <row r="658" ht="14.25" customHeight="1">
       <c r="G658" s="42"/>
-      <c r="U658" s="43"/>
-      <c r="V658" s="43"/>
+      <c r="U658" s="44"/>
+      <c r="V658" s="44"/>
     </row>
     <row r="659" ht="14.25" customHeight="1">
       <c r="G659" s="42"/>
-      <c r="U659" s="43"/>
-      <c r="V659" s="43"/>
+      <c r="U659" s="44"/>
+      <c r="V659" s="44"/>
     </row>
     <row r="660" ht="14.25" customHeight="1">
       <c r="G660" s="42"/>
-      <c r="U660" s="43"/>
-      <c r="V660" s="43"/>
+      <c r="U660" s="44"/>
+      <c r="V660" s="44"/>
     </row>
     <row r="661" ht="14.25" customHeight="1">
       <c r="G661" s="42"/>
-      <c r="U661" s="43"/>
-      <c r="V661" s="43"/>
+      <c r="U661" s="44"/>
+      <c r="V661" s="44"/>
     </row>
     <row r="662" ht="14.25" customHeight="1">
       <c r="G662" s="42"/>
-      <c r="U662" s="43"/>
-      <c r="V662" s="43"/>
+      <c r="U662" s="44"/>
+      <c r="V662" s="44"/>
     </row>
     <row r="663" ht="14.25" customHeight="1">
       <c r="G663" s="42"/>
-      <c r="U663" s="43"/>
-      <c r="V663" s="43"/>
+      <c r="U663" s="44"/>
+      <c r="V663" s="44"/>
     </row>
     <row r="664" ht="14.25" customHeight="1">
       <c r="G664" s="42"/>
-      <c r="U664" s="43"/>
-      <c r="V664" s="43"/>
+      <c r="U664" s="44"/>
+      <c r="V664" s="44"/>
     </row>
     <row r="665" ht="14.25" customHeight="1">
       <c r="G665" s="42"/>
-      <c r="U665" s="43"/>
-      <c r="V665" s="43"/>
+      <c r="U665" s="44"/>
+      <c r="V665" s="44"/>
     </row>
     <row r="666" ht="14.25" customHeight="1">
       <c r="G666" s="42"/>
-      <c r="U666" s="43"/>
-      <c r="V666" s="43"/>
+      <c r="U666" s="44"/>
+      <c r="V666" s="44"/>
     </row>
     <row r="667" ht="14.25" customHeight="1">
       <c r="G667" s="42"/>
-      <c r="U667" s="43"/>
-      <c r="V667" s="43"/>
+      <c r="U667" s="44"/>
+      <c r="V667" s="44"/>
     </row>
     <row r="668" ht="14.25" customHeight="1">
       <c r="G668" s="42"/>
-      <c r="U668" s="43"/>
-      <c r="V668" s="43"/>
+      <c r="U668" s="44"/>
+      <c r="V668" s="44"/>
     </row>
     <row r="669" ht="14.25" customHeight="1">
       <c r="G669" s="42"/>
-      <c r="U669" s="43"/>
-      <c r="V669" s="43"/>
+      <c r="U669" s="44"/>
+      <c r="V669" s="44"/>
     </row>
     <row r="670" ht="14.25" customHeight="1">
       <c r="G670" s="42"/>
-      <c r="U670" s="43"/>
-      <c r="V670" s="43"/>
+      <c r="U670" s="44"/>
+      <c r="V670" s="44"/>
     </row>
     <row r="671" ht="14.25" customHeight="1">
       <c r="G671" s="42"/>
-      <c r="U671" s="43"/>
-      <c r="V671" s="43"/>
+      <c r="U671" s="44"/>
+      <c r="V671" s="44"/>
     </row>
     <row r="672" ht="14.25" customHeight="1">
       <c r="G672" s="42"/>
-      <c r="U672" s="43"/>
-      <c r="V672" s="43"/>
+      <c r="U672" s="44"/>
+      <c r="V672" s="44"/>
     </row>
     <row r="673" ht="14.25" customHeight="1">
       <c r="G673" s="42"/>
-      <c r="U673" s="43"/>
-      <c r="V673" s="43"/>
+      <c r="U673" s="44"/>
+      <c r="V673" s="44"/>
     </row>
     <row r="674" ht="14.25" customHeight="1">
       <c r="G674" s="42"/>
-      <c r="U674" s="43"/>
-      <c r="V674" s="43"/>
+      <c r="U674" s="44"/>
+      <c r="V674" s="44"/>
     </row>
     <row r="675" ht="14.25" customHeight="1">
       <c r="G675" s="42"/>
-      <c r="U675" s="43"/>
-      <c r="V675" s="43"/>
+      <c r="U675" s="44"/>
+      <c r="V675" s="44"/>
     </row>
     <row r="676" ht="14.25" customHeight="1">
       <c r="G676" s="42"/>
-      <c r="U676" s="43"/>
-      <c r="V676" s="43"/>
+      <c r="U676" s="44"/>
+      <c r="V676" s="44"/>
     </row>
     <row r="677" ht="14.25" customHeight="1">
       <c r="G677" s="42"/>
-      <c r="U677" s="43"/>
-      <c r="V677" s="43"/>
+      <c r="U677" s="44"/>
+      <c r="V677" s="44"/>
     </row>
     <row r="678" ht="14.25" customHeight="1">
       <c r="G678" s="42"/>
-      <c r="U678" s="43"/>
-      <c r="V678" s="43"/>
+      <c r="U678" s="44"/>
+      <c r="V678" s="44"/>
     </row>
     <row r="679" ht="14.25" customHeight="1">
       <c r="G679" s="42"/>
-      <c r="U679" s="43"/>
-      <c r="V679" s="43"/>
+      <c r="U679" s="44"/>
+      <c r="V679" s="44"/>
     </row>
     <row r="680" ht="14.25" customHeight="1">
       <c r="G680" s="42"/>
-      <c r="U680" s="43"/>
-      <c r="V680" s="43"/>
+      <c r="U680" s="44"/>
+      <c r="V680" s="44"/>
     </row>
     <row r="681" ht="14.25" customHeight="1">
       <c r="G681" s="42"/>
-      <c r="U681" s="43"/>
-      <c r="V681" s="43"/>
+      <c r="U681" s="44"/>
+      <c r="V681" s="44"/>
     </row>
     <row r="682" ht="14.25" customHeight="1">
       <c r="G682" s="42"/>
-      <c r="U682" s="43"/>
-      <c r="V682" s="43"/>
+      <c r="U682" s="44"/>
+      <c r="V682" s="44"/>
     </row>
     <row r="683" ht="14.25" customHeight="1">
       <c r="G683" s="42"/>
-      <c r="U683" s="43"/>
-      <c r="V683" s="43"/>
+      <c r="U683" s="44"/>
+      <c r="V683" s="44"/>
     </row>
     <row r="684" ht="14.25" customHeight="1">
       <c r="G684" s="42"/>
-      <c r="U684" s="43"/>
-      <c r="V684" s="43"/>
+      <c r="U684" s="44"/>
+      <c r="V684" s="44"/>
     </row>
     <row r="685" ht="14.25" customHeight="1">
       <c r="G685" s="42"/>
-      <c r="U685" s="43"/>
-      <c r="V685" s="43"/>
+      <c r="U685" s="44"/>
+      <c r="V685" s="44"/>
     </row>
     <row r="686" ht="14.25" customHeight="1">
       <c r="G686" s="42"/>
-      <c r="U686" s="43"/>
-      <c r="V686" s="43"/>
+      <c r="U686" s="44"/>
+      <c r="V686" s="44"/>
     </row>
     <row r="687" ht="14.25" customHeight="1">
       <c r="G687" s="42"/>
-      <c r="U687" s="43"/>
-      <c r="V687" s="43"/>
+      <c r="U687" s="44"/>
+      <c r="V687" s="44"/>
     </row>
     <row r="688" ht="14.25" customHeight="1">
       <c r="G688" s="42"/>
-      <c r="U688" s="43"/>
-      <c r="V688" s="43"/>
+      <c r="U688" s="44"/>
+      <c r="V688" s="44"/>
     </row>
     <row r="689" ht="14.25" customHeight="1">
       <c r="G689" s="42"/>
-      <c r="U689" s="43"/>
-      <c r="V689" s="43"/>
+      <c r="U689" s="44"/>
+      <c r="V689" s="44"/>
     </row>
     <row r="690" ht="14.25" customHeight="1">
       <c r="G690" s="42"/>
-      <c r="U690" s="43"/>
-      <c r="V690" s="43"/>
+      <c r="U690" s="44"/>
+      <c r="V690" s="44"/>
     </row>
     <row r="691" ht="14.25" customHeight="1">
       <c r="G691" s="42"/>
-      <c r="U691" s="43"/>
-      <c r="V691" s="43"/>
+      <c r="U691" s="44"/>
+      <c r="V691" s="44"/>
     </row>
     <row r="692" ht="14.25" customHeight="1">
       <c r="G692" s="42"/>
-      <c r="U692" s="43"/>
-      <c r="V692" s="43"/>
+      <c r="U692" s="44"/>
+      <c r="V692" s="44"/>
     </row>
     <row r="693" ht="14.25" customHeight="1">
       <c r="G693" s="42"/>
-      <c r="U693" s="43"/>
-      <c r="V693" s="43"/>
+      <c r="U693" s="44"/>
+      <c r="V693" s="44"/>
     </row>
     <row r="694" ht="14.25" customHeight="1">
       <c r="G694" s="42"/>
-      <c r="U694" s="43"/>
-      <c r="V694" s="43"/>
+      <c r="U694" s="44"/>
+      <c r="V694" s="44"/>
     </row>
     <row r="695" ht="14.25" customHeight="1">
       <c r="G695" s="42"/>
-      <c r="U695" s="43"/>
-      <c r="V695" s="43"/>
+      <c r="U695" s="44"/>
+      <c r="V695" s="44"/>
     </row>
     <row r="696" ht="14.25" customHeight="1">
       <c r="G696" s="42"/>
-      <c r="U696" s="43"/>
-      <c r="V696" s="43"/>
+      <c r="U696" s="44"/>
+      <c r="V696" s="44"/>
     </row>
     <row r="697" ht="14.25" customHeight="1">
       <c r="G697" s="42"/>
-      <c r="U697" s="43"/>
-      <c r="V697" s="43"/>
+      <c r="U697" s="44"/>
+      <c r="V697" s="44"/>
     </row>
     <row r="698" ht="14.25" customHeight="1">
       <c r="G698" s="42"/>
-      <c r="U698" s="43"/>
-      <c r="V698" s="43"/>
+      <c r="U698" s="44"/>
+      <c r="V698" s="44"/>
     </row>
     <row r="699" ht="14.25" customHeight="1">
       <c r="G699" s="42"/>
-      <c r="U699" s="43"/>
-      <c r="V699" s="43"/>
+      <c r="U699" s="44"/>
+      <c r="V699" s="44"/>
     </row>
     <row r="700" ht="14.25" customHeight="1">
       <c r="G700" s="42"/>
-      <c r="U700" s="43"/>
-      <c r="V700" s="43"/>
+      <c r="U700" s="44"/>
+      <c r="V700" s="44"/>
     </row>
     <row r="701" ht="14.25" customHeight="1">
       <c r="G701" s="42"/>
-      <c r="U701" s="43"/>
-      <c r="V701" s="43"/>
+      <c r="U701" s="44"/>
+      <c r="V701" s="44"/>
     </row>
     <row r="702" ht="14.25" customHeight="1">
       <c r="G702" s="42"/>
-      <c r="U702" s="43"/>
-      <c r="V702" s="43"/>
+      <c r="U702" s="44"/>
+      <c r="V702" s="44"/>
     </row>
     <row r="703" ht="14.25" customHeight="1">
       <c r="G703" s="42"/>
-      <c r="U703" s="43"/>
-      <c r="V703" s="43"/>
+      <c r="U703" s="44"/>
+      <c r="V703" s="44"/>
     </row>
     <row r="704" ht="14.25" customHeight="1">
       <c r="G704" s="42"/>
-      <c r="U704" s="43"/>
-      <c r="V704" s="43"/>
+      <c r="U704" s="44"/>
+      <c r="V704" s="44"/>
     </row>
     <row r="705" ht="14.25" customHeight="1">
       <c r="G705" s="42"/>
-      <c r="U705" s="43"/>
-      <c r="V705" s="43"/>
+      <c r="U705" s="44"/>
+      <c r="V705" s="44"/>
     </row>
     <row r="706" ht="14.25" customHeight="1">
       <c r="G706" s="42"/>
-      <c r="U706" s="43"/>
-      <c r="V706" s="43"/>
+      <c r="U706" s="44"/>
+      <c r="V706" s="44"/>
     </row>
     <row r="707" ht="14.25" customHeight="1">
       <c r="G707" s="42"/>
-      <c r="U707" s="43"/>
-      <c r="V707" s="43"/>
+      <c r="U707" s="44"/>
+      <c r="V707" s="44"/>
     </row>
     <row r="708" ht="14.25" customHeight="1">
       <c r="G708" s="42"/>
-      <c r="U708" s="43"/>
-      <c r="V708" s="43"/>
+      <c r="U708" s="44"/>
+      <c r="V708" s="44"/>
     </row>
     <row r="709" ht="14.25" customHeight="1">
       <c r="G709" s="42"/>
-      <c r="U709" s="43"/>
-      <c r="V709" s="43"/>
+      <c r="U709" s="44"/>
+      <c r="V709" s="44"/>
     </row>
     <row r="710" ht="14.25" customHeight="1">
       <c r="G710" s="42"/>
-      <c r="U710" s="43"/>
-      <c r="V710" s="43"/>
+      <c r="U710" s="44"/>
+      <c r="V710" s="44"/>
     </row>
     <row r="711" ht="14.25" customHeight="1">
       <c r="G711" s="42"/>
-      <c r="U711" s="43"/>
-      <c r="V711" s="43"/>
+      <c r="U711" s="44"/>
+      <c r="V711" s="44"/>
     </row>
     <row r="712" ht="14.25" customHeight="1">
       <c r="G712" s="42"/>
-      <c r="U712" s="43"/>
-      <c r="V712" s="43"/>
+      <c r="U712" s="44"/>
+      <c r="V712" s="44"/>
     </row>
     <row r="713" ht="14.25" customHeight="1">
       <c r="G713" s="42"/>
-      <c r="U713" s="43"/>
-      <c r="V713" s="43"/>
+      <c r="U713" s="44"/>
+      <c r="V713" s="44"/>
     </row>
     <row r="714" ht="14.25" customHeight="1">
       <c r="G714" s="42"/>
-      <c r="U714" s="43"/>
-      <c r="V714" s="43"/>
+      <c r="U714" s="44"/>
+      <c r="V714" s="44"/>
     </row>
     <row r="715" ht="14.25" customHeight="1">
       <c r="G715" s="42"/>
-      <c r="U715" s="43"/>
-      <c r="V715" s="43"/>
+      <c r="U715" s="44"/>
+      <c r="V715" s="44"/>
     </row>
     <row r="716" ht="14.25" customHeight="1">
       <c r="G716" s="42"/>
-      <c r="U716" s="43"/>
-      <c r="V716" s="43"/>
+      <c r="U716" s="44"/>
+      <c r="V716" s="44"/>
     </row>
     <row r="717" ht="14.25" customHeight="1">
       <c r="G717" s="42"/>
-      <c r="U717" s="43"/>
-      <c r="V717" s="43"/>
+      <c r="U717" s="44"/>
+      <c r="V717" s="44"/>
     </row>
     <row r="718" ht="14.25" customHeight="1">
       <c r="G718" s="42"/>
-      <c r="U718" s="43"/>
-      <c r="V718" s="43"/>
+      <c r="U718" s="44"/>
+      <c r="V718" s="44"/>
     </row>
     <row r="719" ht="14.25" customHeight="1">
       <c r="G719" s="42"/>
-      <c r="U719" s="43"/>
-      <c r="V719" s="43"/>
+      <c r="U719" s="44"/>
+      <c r="V719" s="44"/>
     </row>
     <row r="720" ht="14.25" customHeight="1">
       <c r="G720" s="42"/>
-      <c r="U720" s="43"/>
-      <c r="V720" s="43"/>
+      <c r="U720" s="44"/>
+      <c r="V720" s="44"/>
     </row>
     <row r="721" ht="14.25" customHeight="1">
       <c r="G721" s="42"/>
-      <c r="U721" s="43"/>
-      <c r="V721" s="43"/>
+      <c r="U721" s="44"/>
+      <c r="V721" s="44"/>
     </row>
     <row r="722" ht="14.25" customHeight="1">
       <c r="G722" s="42"/>
-      <c r="U722" s="43"/>
-      <c r="V722" s="43"/>
+      <c r="U722" s="44"/>
+      <c r="V722" s="44"/>
     </row>
     <row r="723" ht="14.25" customHeight="1">
       <c r="G723" s="42"/>
-      <c r="U723" s="43"/>
-      <c r="V723" s="43"/>
+      <c r="U723" s="44"/>
+      <c r="V723" s="44"/>
     </row>
     <row r="724" ht="14.25" customHeight="1">
       <c r="G724" s="42"/>
-      <c r="U724" s="43"/>
-      <c r="V724" s="43"/>
+      <c r="U724" s="44"/>
+      <c r="V724" s="44"/>
     </row>
     <row r="725" ht="14.25" customHeight="1">
       <c r="G725" s="42"/>
-      <c r="U725" s="43"/>
-      <c r="V725" s="43"/>
+      <c r="U725" s="44"/>
+      <c r="V725" s="44"/>
     </row>
     <row r="726" ht="14.25" customHeight="1">
       <c r="G726" s="42"/>
-      <c r="U726" s="43"/>
-      <c r="V726" s="43"/>
+      <c r="U726" s="44"/>
+      <c r="V726" s="44"/>
     </row>
     <row r="727" ht="14.25" customHeight="1">
       <c r="G727" s="42"/>
-      <c r="U727" s="43"/>
-      <c r="V727" s="43"/>
+      <c r="U727" s="44"/>
+      <c r="V727" s="44"/>
     </row>
     <row r="728" ht="14.25" customHeight="1">
       <c r="G728" s="42"/>
-      <c r="U728" s="43"/>
-      <c r="V728" s="43"/>
+      <c r="U728" s="44"/>
+      <c r="V728" s="44"/>
     </row>
     <row r="729" ht="14.25" customHeight="1">
       <c r="G729" s="42"/>
-      <c r="U729" s="43"/>
-      <c r="V729" s="43"/>
+      <c r="U729" s="44"/>
+      <c r="V729" s="44"/>
     </row>
     <row r="730" ht="14.25" customHeight="1">
       <c r="G730" s="42"/>
-      <c r="U730" s="43"/>
-      <c r="V730" s="43"/>
+      <c r="U730" s="44"/>
+      <c r="V730" s="44"/>
     </row>
     <row r="731" ht="14.25" customHeight="1">
       <c r="G731" s="42"/>
-      <c r="U731" s="43"/>
-      <c r="V731" s="43"/>
+      <c r="U731" s="44"/>
+      <c r="V731" s="44"/>
     </row>
     <row r="732" ht="14.25" customHeight="1">
       <c r="G732" s="42"/>
-      <c r="U732" s="43"/>
-      <c r="V732" s="43"/>
+      <c r="U732" s="44"/>
+      <c r="V732" s="44"/>
     </row>
     <row r="733" ht="14.25" customHeight="1">
       <c r="G733" s="42"/>
-      <c r="U733" s="43"/>
-      <c r="V733" s="43"/>
+      <c r="U733" s="44"/>
+      <c r="V733" s="44"/>
     </row>
     <row r="734" ht="14.25" customHeight="1">
       <c r="G734" s="42"/>
-      <c r="U734" s="43"/>
-      <c r="V734" s="43"/>
+      <c r="U734" s="44"/>
+      <c r="V734" s="44"/>
     </row>
     <row r="735" ht="14.25" customHeight="1">
       <c r="G735" s="42"/>
-      <c r="U735" s="43"/>
-      <c r="V735" s="43"/>
+      <c r="U735" s="44"/>
+      <c r="V735" s="44"/>
     </row>
     <row r="736" ht="14.25" customHeight="1">
       <c r="G736" s="42"/>
-      <c r="U736" s="43"/>
-      <c r="V736" s="43"/>
+      <c r="U736" s="44"/>
+      <c r="V736" s="44"/>
     </row>
     <row r="737" ht="14.25" customHeight="1">
       <c r="G737" s="42"/>
-      <c r="U737" s="43"/>
-      <c r="V737" s="43"/>
+      <c r="U737" s="44"/>
+      <c r="V737" s="44"/>
     </row>
     <row r="738" ht="14.25" customHeight="1">
       <c r="G738" s="42"/>
-      <c r="U738" s="43"/>
-      <c r="V738" s="43"/>
+      <c r="U738" s="44"/>
+      <c r="V738" s="44"/>
     </row>
     <row r="739" ht="14.25" customHeight="1">
       <c r="G739" s="42"/>
-      <c r="U739" s="43"/>
-      <c r="V739" s="43"/>
+      <c r="U739" s="44"/>
+      <c r="V739" s="44"/>
     </row>
     <row r="740" ht="14.25" customHeight="1">
       <c r="G740" s="42"/>
-      <c r="U740" s="43"/>
-      <c r="V740" s="43"/>
+      <c r="U740" s="44"/>
+      <c r="V740" s="44"/>
     </row>
     <row r="741" ht="14.25" customHeight="1">
       <c r="G741" s="42"/>
-      <c r="U741" s="43"/>
-      <c r="V741" s="43"/>
+      <c r="U741" s="44"/>
+      <c r="V741" s="44"/>
     </row>
     <row r="742" ht="14.25" customHeight="1">
       <c r="G742" s="42"/>
-      <c r="U742" s="43"/>
-      <c r="V742" s="43"/>
+      <c r="U742" s="44"/>
+      <c r="V742" s="44"/>
     </row>
     <row r="743" ht="14.25" customHeight="1">
       <c r="G743" s="42"/>
-      <c r="U743" s="43"/>
-      <c r="V743" s="43"/>
+      <c r="U743" s="44"/>
+      <c r="V743" s="44"/>
     </row>
     <row r="744" ht="14.25" customHeight="1">
       <c r="G744" s="42"/>
-      <c r="U744" s="43"/>
-      <c r="V744" s="43"/>
+      <c r="U744" s="44"/>
+      <c r="V744" s="44"/>
     </row>
     <row r="745" ht="14.25" customHeight="1">
       <c r="G745" s="42"/>
-      <c r="U745" s="43"/>
-      <c r="V745" s="43"/>
+      <c r="U745" s="44"/>
+      <c r="V745" s="44"/>
     </row>
     <row r="746" ht="14.25" customHeight="1">
       <c r="G746" s="42"/>
-      <c r="U746" s="43"/>
-      <c r="V746" s="43"/>
+      <c r="U746" s="44"/>
+      <c r="V746" s="44"/>
     </row>
     <row r="747" ht="14.25" customHeight="1">
       <c r="G747" s="42"/>
-      <c r="U747" s="43"/>
-      <c r="V747" s="43"/>
+      <c r="U747" s="44"/>
+      <c r="V747" s="44"/>
     </row>
     <row r="748" ht="14.25" customHeight="1">
       <c r="G748" s="42"/>
-      <c r="U748" s="43"/>
-      <c r="V748" s="43"/>
+      <c r="U748" s="44"/>
+      <c r="V748" s="44"/>
     </row>
     <row r="749" ht="14.25" customHeight="1">
       <c r="G749" s="42"/>
-      <c r="U749" s="43"/>
-      <c r="V749" s="43"/>
+      <c r="U749" s="44"/>
+      <c r="V749" s="44"/>
     </row>
     <row r="750" ht="14.25" customHeight="1">
       <c r="G750" s="42"/>
-      <c r="U750" s="43"/>
-      <c r="V750" s="43"/>
+      <c r="U750" s="44"/>
+      <c r="V750" s="44"/>
     </row>
     <row r="751" ht="14.25" customHeight="1">
       <c r="G751" s="42"/>
-      <c r="U751" s="43"/>
-      <c r="V751" s="43"/>
+      <c r="U751" s="44"/>
+      <c r="V751" s="44"/>
     </row>
     <row r="752" ht="14.25" customHeight="1">
       <c r="G752" s="42"/>
-      <c r="U752" s="43"/>
-      <c r="V752" s="43"/>
+      <c r="U752" s="44"/>
+      <c r="V752" s="44"/>
     </row>
     <row r="753" ht="14.25" customHeight="1">
       <c r="G753" s="42"/>
-      <c r="U753" s="43"/>
-      <c r="V753" s="43"/>
+      <c r="U753" s="44"/>
+      <c r="V753" s="44"/>
     </row>
     <row r="754" ht="14.25" customHeight="1">
       <c r="G754" s="42"/>
-      <c r="U754" s="43"/>
-      <c r="V754" s="43"/>
+      <c r="U754" s="44"/>
+      <c r="V754" s="44"/>
     </row>
     <row r="755" ht="14.25" customHeight="1">
       <c r="G755" s="42"/>
-      <c r="U755" s="43"/>
-      <c r="V755" s="43"/>
+      <c r="U755" s="44"/>
+      <c r="V755" s="44"/>
     </row>
     <row r="756" ht="14.25" customHeight="1">
       <c r="G756" s="42"/>
-      <c r="U756" s="43"/>
-      <c r="V756" s="43"/>
+      <c r="U756" s="44"/>
+      <c r="V756" s="44"/>
     </row>
     <row r="757" ht="14.25" customHeight="1">
       <c r="G757" s="42"/>
-      <c r="U757" s="43"/>
-      <c r="V757" s="43"/>
+      <c r="U757" s="44"/>
+      <c r="V757" s="44"/>
     </row>
     <row r="758" ht="14.25" customHeight="1">
       <c r="G758" s="42"/>
-      <c r="U758" s="43"/>
-      <c r="V758" s="43"/>
+      <c r="U758" s="44"/>
+      <c r="V758" s="44"/>
     </row>
     <row r="759" ht="14.25" customHeight="1">
       <c r="G759" s="42"/>
-      <c r="U759" s="43"/>
-      <c r="V759" s="43"/>
+      <c r="U759" s="44"/>
+      <c r="V759" s="44"/>
     </row>
     <row r="760" ht="14.25" customHeight="1">
       <c r="G760" s="42"/>
-      <c r="U760" s="43"/>
-      <c r="V760" s="43"/>
+      <c r="U760" s="44"/>
+      <c r="V760" s="44"/>
     </row>
     <row r="761" ht="14.25" customHeight="1">
       <c r="G761" s="42"/>
-      <c r="U761" s="43"/>
-      <c r="V761" s="43"/>
+      <c r="U761" s="44"/>
+      <c r="V761" s="44"/>
     </row>
     <row r="762" ht="14.25" customHeight="1">
       <c r="G762" s="42"/>
-      <c r="U762" s="43"/>
-      <c r="V762" s="43"/>
+      <c r="U762" s="44"/>
+      <c r="V762" s="44"/>
     </row>
     <row r="763" ht="14.25" customHeight="1">
       <c r="G763" s="42"/>
-      <c r="U763" s="43"/>
-      <c r="V763" s="43"/>
+      <c r="U763" s="44"/>
+      <c r="V763" s="44"/>
     </row>
     <row r="764" ht="14.25" customHeight="1">
       <c r="G764" s="42"/>
-      <c r="U764" s="43"/>
-      <c r="V764" s="43"/>
+      <c r="U764" s="44"/>
+      <c r="V764" s="44"/>
     </row>
     <row r="765" ht="14.25" customHeight="1">
       <c r="G765" s="42"/>
-      <c r="U765" s="43"/>
-      <c r="V765" s="43"/>
+      <c r="U765" s="44"/>
+      <c r="V765" s="44"/>
     </row>
     <row r="766" ht="14.25" customHeight="1">
       <c r="G766" s="42"/>
-      <c r="U766" s="43"/>
-      <c r="V766" s="43"/>
+      <c r="U766" s="44"/>
+      <c r="V766" s="44"/>
     </row>
     <row r="767" ht="14.25" customHeight="1">
       <c r="G767" s="42"/>
-      <c r="U767" s="43"/>
-      <c r="V767" s="43"/>
+      <c r="U767" s="44"/>
+      <c r="V767" s="44"/>
     </row>
     <row r="768" ht="14.25" customHeight="1">
       <c r="G768" s="42"/>
-      <c r="U768" s="43"/>
-      <c r="V768" s="43"/>
+      <c r="U768" s="44"/>
+      <c r="V768" s="44"/>
     </row>
     <row r="769" ht="14.25" customHeight="1">
       <c r="G769" s="42"/>
-      <c r="U769" s="43"/>
-      <c r="V769" s="43"/>
+      <c r="U769" s="44"/>
+      <c r="V769" s="44"/>
     </row>
     <row r="770" ht="14.25" customHeight="1">
       <c r="G770" s="42"/>
-      <c r="U770" s="43"/>
-      <c r="V770" s="43"/>
+      <c r="U770" s="44"/>
+      <c r="V770" s="44"/>
     </row>
     <row r="771" ht="14.25" customHeight="1">
       <c r="G771" s="42"/>
-      <c r="U771" s="43"/>
-      <c r="V771" s="43"/>
+      <c r="U771" s="44"/>
+      <c r="V771" s="44"/>
     </row>
     <row r="772" ht="14.25" customHeight="1">
       <c r="G772" s="42"/>
-      <c r="U772" s="43"/>
-      <c r="V772" s="43"/>
+      <c r="U772" s="44"/>
+      <c r="V772" s="44"/>
     </row>
     <row r="773" ht="14.25" customHeight="1">
       <c r="G773" s="42"/>
-      <c r="U773" s="43"/>
-      <c r="V773" s="43"/>
+      <c r="U773" s="44"/>
+      <c r="V773" s="44"/>
     </row>
     <row r="774" ht="14.25" customHeight="1">
       <c r="G774" s="42"/>
-      <c r="U774" s="43"/>
-      <c r="V774" s="43"/>
+      <c r="U774" s="44"/>
+      <c r="V774" s="44"/>
     </row>
     <row r="775" ht="14.25" customHeight="1">
       <c r="G775" s="42"/>
-      <c r="U775" s="43"/>
-      <c r="V775" s="43"/>
+      <c r="U775" s="44"/>
+      <c r="V775" s="44"/>
     </row>
     <row r="776" ht="14.25" customHeight="1">
       <c r="G776" s="42"/>
-      <c r="U776" s="43"/>
-      <c r="V776" s="43"/>
+      <c r="U776" s="44"/>
+      <c r="V776" s="44"/>
     </row>
     <row r="777" ht="14.25" customHeight="1">
       <c r="G777" s="42"/>
-      <c r="U777" s="43"/>
-      <c r="V777" s="43"/>
+      <c r="U777" s="44"/>
+      <c r="V777" s="44"/>
     </row>
     <row r="778" ht="14.25" customHeight="1">
       <c r="G778" s="42"/>
-      <c r="U778" s="43"/>
-      <c r="V778" s="43"/>
+      <c r="U778" s="44"/>
+      <c r="V778" s="44"/>
     </row>
     <row r="779" ht="14.25" customHeight="1">
       <c r="G779" s="42"/>
-      <c r="U779" s="43"/>
-      <c r="V779" s="43"/>
+      <c r="U779" s="44"/>
+      <c r="V779" s="44"/>
     </row>
     <row r="780" ht="14.25" customHeight="1">
       <c r="G780" s="42"/>
-      <c r="U780" s="43"/>
-      <c r="V780" s="43"/>
+      <c r="U780" s="44"/>
+      <c r="V780" s="44"/>
     </row>
     <row r="781" ht="14.25" customHeight="1">
       <c r="G781" s="42"/>
-      <c r="U781" s="43"/>
-      <c r="V781" s="43"/>
+      <c r="U781" s="44"/>
+      <c r="V781" s="44"/>
     </row>
     <row r="782" ht="14.25" customHeight="1">
       <c r="G782" s="42"/>
-      <c r="U782" s="43"/>
-      <c r="V782" s="43"/>
+      <c r="U782" s="44"/>
+      <c r="V782" s="44"/>
     </row>
     <row r="783" ht="14.25" customHeight="1">
       <c r="G783" s="42"/>
-      <c r="U783" s="43"/>
-      <c r="V783" s="43"/>
+      <c r="U783" s="44"/>
+      <c r="V783" s="44"/>
     </row>
     <row r="784" ht="14.25" customHeight="1">
       <c r="G784" s="42"/>
-      <c r="U784" s="43"/>
-      <c r="V784" s="43"/>
+      <c r="U784" s="44"/>
+      <c r="V784" s="44"/>
     </row>
     <row r="785" ht="14.25" customHeight="1">
       <c r="G785" s="42"/>
-      <c r="U785" s="43"/>
-      <c r="V785" s="43"/>
+      <c r="U785" s="44"/>
+      <c r="V785" s="44"/>
     </row>
     <row r="786" ht="14.25" customHeight="1">
       <c r="G786" s="42"/>
-      <c r="U786" s="43"/>
-      <c r="V786" s="43"/>
+      <c r="U786" s="44"/>
+      <c r="V786" s="44"/>
     </row>
     <row r="787" ht="14.25" customHeight="1">
       <c r="G787" s="42"/>
-      <c r="U787" s="43"/>
-      <c r="V787" s="43"/>
+      <c r="U787" s="44"/>
+      <c r="V787" s="44"/>
     </row>
     <row r="788" ht="14.25" customHeight="1">
       <c r="G788" s="42"/>
-      <c r="U788" s="43"/>
-      <c r="V788" s="43"/>
+      <c r="U788" s="44"/>
+      <c r="V788" s="44"/>
     </row>
     <row r="789" ht="14.25" customHeight="1">
       <c r="G789" s="42"/>
-      <c r="U789" s="43"/>
-      <c r="V789" s="43"/>
+      <c r="U789" s="44"/>
+      <c r="V789" s="44"/>
     </row>
     <row r="790" ht="14.25" customHeight="1">
       <c r="G790" s="42"/>
-      <c r="U790" s="43"/>
-      <c r="V790" s="43"/>
+      <c r="U790" s="44"/>
+      <c r="V790" s="44"/>
     </row>
     <row r="791" ht="14.25" customHeight="1">
       <c r="G791" s="42"/>
-      <c r="U791" s="43"/>
-      <c r="V791" s="43"/>
+      <c r="U791" s="44"/>
+      <c r="V791" s="44"/>
     </row>
     <row r="792" ht="14.25" customHeight="1">
       <c r="G792" s="42"/>
-      <c r="U792" s="43"/>
-      <c r="V792" s="43"/>
+      <c r="U792" s="44"/>
+      <c r="V792" s="44"/>
     </row>
     <row r="793" ht="14.25" customHeight="1">
       <c r="G793" s="42"/>
-      <c r="U793" s="43"/>
-      <c r="V793" s="43"/>
+      <c r="U793" s="44"/>
+      <c r="V793" s="44"/>
     </row>
     <row r="794" ht="14.25" customHeight="1">
       <c r="G794" s="42"/>
-      <c r="U794" s="43"/>
-      <c r="V794" s="43"/>
+      <c r="U794" s="44"/>
+      <c r="V794" s="44"/>
     </row>
     <row r="795" ht="14.25" customHeight="1">
       <c r="G795" s="42"/>
-      <c r="U795" s="43"/>
-      <c r="V795" s="43"/>
+      <c r="U795" s="44"/>
+      <c r="V795" s="44"/>
     </row>
     <row r="796" ht="14.25" customHeight="1">
       <c r="G796" s="42"/>
-      <c r="U796" s="43"/>
-      <c r="V796" s="43"/>
+      <c r="U796" s="44"/>
+      <c r="V796" s="44"/>
     </row>
     <row r="797" ht="14.25" customHeight="1">
       <c r="G797" s="42"/>
-      <c r="U797" s="43"/>
-      <c r="V797" s="43"/>
+      <c r="U797" s="44"/>
+      <c r="V797" s="44"/>
     </row>
     <row r="798" ht="14.25" customHeight="1">
       <c r="G798" s="42"/>
-      <c r="U798" s="43"/>
-      <c r="V798" s="43"/>
+      <c r="U798" s="44"/>
+      <c r="V798" s="44"/>
     </row>
     <row r="799" ht="14.25" customHeight="1">
       <c r="G799" s="42"/>
-      <c r="U799" s="43"/>
-      <c r="V799" s="43"/>
+      <c r="U799" s="44"/>
+      <c r="V799" s="44"/>
     </row>
     <row r="800" ht="14.25" customHeight="1">
       <c r="G800" s="42"/>
-      <c r="U800" s="43"/>
-      <c r="V800" s="43"/>
+      <c r="U800" s="44"/>
+      <c r="V800" s="44"/>
     </row>
     <row r="801" ht="14.25" customHeight="1">
       <c r="G801" s="42"/>
-      <c r="U801" s="43"/>
-      <c r="V801" s="43"/>
+      <c r="U801" s="44"/>
+      <c r="V801" s="44"/>
     </row>
     <row r="802" ht="14.25" customHeight="1">
       <c r="G802" s="42"/>
-      <c r="U802" s="43"/>
-      <c r="V802" s="43"/>
+      <c r="U802" s="44"/>
+      <c r="V802" s="44"/>
     </row>
     <row r="803" ht="14.25" customHeight="1">
       <c r="G803" s="42"/>
-      <c r="U803" s="43"/>
-      <c r="V803" s="43"/>
+      <c r="U803" s="44"/>
+      <c r="V803" s="44"/>
     </row>
     <row r="804" ht="14.25" customHeight="1">
       <c r="G804" s="42"/>
-      <c r="U804" s="43"/>
-      <c r="V804" s="43"/>
+      <c r="U804" s="44"/>
+      <c r="V804" s="44"/>
     </row>
     <row r="805" ht="14.25" customHeight="1">
       <c r="G805" s="42"/>
-      <c r="U805" s="43"/>
-      <c r="V805" s="43"/>
+      <c r="U805" s="44"/>
+      <c r="V805" s="44"/>
     </row>
     <row r="806" ht="14.25" customHeight="1">
       <c r="G806" s="42"/>
-      <c r="U806" s="43"/>
-      <c r="V806" s="43"/>
+      <c r="U806" s="44"/>
+      <c r="V806" s="44"/>
     </row>
     <row r="807" ht="14.25" customHeight="1">
       <c r="G807" s="42"/>
-      <c r="U807" s="43"/>
-      <c r="V807" s="43"/>
+      <c r="U807" s="44"/>
+      <c r="V807" s="44"/>
     </row>
     <row r="808" ht="14.25" customHeight="1">
       <c r="G808" s="42"/>
-      <c r="U808" s="43"/>
-      <c r="V808" s="43"/>
+      <c r="U808" s="44"/>
+      <c r="V808" s="44"/>
     </row>
     <row r="809" ht="14.25" customHeight="1">
       <c r="G809" s="42"/>
-      <c r="U809" s="43"/>
-      <c r="V809" s="43"/>
+      <c r="U809" s="44"/>
+      <c r="V809" s="44"/>
     </row>
     <row r="810" ht="14.25" customHeight="1">
       <c r="G810" s="42"/>
-      <c r="U810" s="43"/>
-      <c r="V810" s="43"/>
+      <c r="U810" s="44"/>
+      <c r="V810" s="44"/>
     </row>
     <row r="811" ht="14.25" customHeight="1">
       <c r="G811" s="42"/>
-      <c r="U811" s="43"/>
-      <c r="V811" s="43"/>
+      <c r="U811" s="44"/>
+      <c r="V811" s="44"/>
     </row>
     <row r="812" ht="14.25" customHeight="1">
       <c r="G812" s="42"/>
-      <c r="U812" s="43"/>
-      <c r="V812" s="43"/>
+      <c r="U812" s="44"/>
+      <c r="V812" s="44"/>
     </row>
     <row r="813" ht="14.25" customHeight="1">
       <c r="G813" s="42"/>
-      <c r="U813" s="43"/>
-      <c r="V813" s="43"/>
+      <c r="U813" s="44"/>
+      <c r="V813" s="44"/>
     </row>
     <row r="814" ht="14.25" customHeight="1">
       <c r="G814" s="42"/>
-      <c r="U814" s="43"/>
-      <c r="V814" s="43"/>
+      <c r="U814" s="44"/>
+      <c r="V814" s="44"/>
     </row>
     <row r="815" ht="14.25" customHeight="1">
       <c r="G815" s="42"/>
-      <c r="U815" s="43"/>
-      <c r="V815" s="43"/>
+      <c r="U815" s="44"/>
+      <c r="V815" s="44"/>
     </row>
     <row r="816" ht="14.25" customHeight="1">
       <c r="G816" s="42"/>
-      <c r="U816" s="43"/>
-      <c r="V816" s="43"/>
+      <c r="U816" s="44"/>
+      <c r="V816" s="44"/>
     </row>
     <row r="817" ht="14.25" customHeight="1">
       <c r="G817" s="42"/>
-      <c r="U817" s="43"/>
-      <c r="V817" s="43"/>
+      <c r="U817" s="44"/>
+      <c r="V817" s="44"/>
     </row>
     <row r="818" ht="14.25" customHeight="1">
       <c r="G818" s="42"/>
-      <c r="U818" s="43"/>
-      <c r="V818" s="43"/>
+      <c r="U818" s="44"/>
+      <c r="V818" s="44"/>
     </row>
     <row r="819" ht="14.25" customHeight="1">
       <c r="G819" s="42"/>
-      <c r="U819" s="43"/>
-      <c r="V819" s="43"/>
+      <c r="U819" s="44"/>
+      <c r="V819" s="44"/>
     </row>
     <row r="820" ht="14.25" customHeight="1">
       <c r="G820" s="42"/>
-      <c r="U820" s="43"/>
-      <c r="V820" s="43"/>
+      <c r="U820" s="44"/>
+      <c r="V820" s="44"/>
     </row>
     <row r="821" ht="14.25" customHeight="1">
       <c r="G821" s="42"/>
-      <c r="U821" s="43"/>
-      <c r="V821" s="43"/>
+      <c r="U821" s="44"/>
+      <c r="V821" s="44"/>
     </row>
     <row r="822" ht="14.25" customHeight="1">
       <c r="G822" s="42"/>
-      <c r="U822" s="43"/>
-      <c r="V822" s="43"/>
+      <c r="U822" s="44"/>
+      <c r="V822" s="44"/>
     </row>
     <row r="823" ht="14.25" customHeight="1">
       <c r="G823" s="42"/>
-      <c r="U823" s="43"/>
-      <c r="V823" s="43"/>
+      <c r="U823" s="44"/>
+      <c r="V823" s="44"/>
     </row>
     <row r="824" ht="14.25" customHeight="1">
       <c r="G824" s="42"/>
-      <c r="U824" s="43"/>
-      <c r="V824" s="43"/>
+      <c r="U824" s="44"/>
+      <c r="V824" s="44"/>
     </row>
     <row r="825" ht="14.25" customHeight="1">
       <c r="G825" s="42"/>
-      <c r="U825" s="43"/>
-      <c r="V825" s="43"/>
+      <c r="U825" s="44"/>
+      <c r="V825" s="44"/>
     </row>
     <row r="826" ht="14.25" customHeight="1">
       <c r="G826" s="42"/>
-      <c r="U826" s="43"/>
-      <c r="V826" s="43"/>
+      <c r="U826" s="44"/>
+      <c r="V826" s="44"/>
     </row>
     <row r="827" ht="14.25" customHeight="1">
       <c r="G827" s="42"/>
-      <c r="U827" s="43"/>
-      <c r="V827" s="43"/>
+      <c r="U827" s="44"/>
+      <c r="V827" s="44"/>
     </row>
     <row r="828" ht="14.25" customHeight="1">
       <c r="G828" s="42"/>
-      <c r="U828" s="43"/>
-      <c r="V828" s="43"/>
+      <c r="U828" s="44"/>
+      <c r="V828" s="44"/>
     </row>
     <row r="829" ht="14.25" customHeight="1">
       <c r="G829" s="42"/>
-      <c r="U829" s="43"/>
-      <c r="V829" s="43"/>
+      <c r="U829" s="44"/>
+      <c r="V829" s="44"/>
     </row>
     <row r="830" ht="14.25" customHeight="1">
       <c r="G830" s="42"/>
-      <c r="U830" s="43"/>
-      <c r="V830" s="43"/>
+      <c r="U830" s="44"/>
+      <c r="V830" s="44"/>
     </row>
     <row r="831" ht="14.25" customHeight="1">
       <c r="G831" s="42"/>
-      <c r="U831" s="43"/>
-      <c r="V831" s="43"/>
+      <c r="U831" s="44"/>
+      <c r="V831" s="44"/>
     </row>
     <row r="832" ht="14.25" customHeight="1">
       <c r="G832" s="42"/>
-      <c r="U832" s="43"/>
-      <c r="V832" s="43"/>
+      <c r="U832" s="44"/>
+      <c r="V832" s="44"/>
     </row>
     <row r="833" ht="14.25" customHeight="1">
       <c r="G833" s="42"/>
-      <c r="U833" s="43"/>
-      <c r="V833" s="43"/>
+      <c r="U833" s="44"/>
+      <c r="V833" s="44"/>
     </row>
     <row r="834" ht="14.25" customHeight="1">
       <c r="G834" s="42"/>
-      <c r="U834" s="43"/>
-      <c r="V834" s="43"/>
+      <c r="U834" s="44"/>
+      <c r="V834" s="44"/>
     </row>
     <row r="835" ht="14.25" customHeight="1">
       <c r="G835" s="42"/>
-      <c r="U835" s="43"/>
-      <c r="V835" s="43"/>
+      <c r="U835" s="44"/>
+      <c r="V835" s="44"/>
     </row>
     <row r="836" ht="14.25" customHeight="1">
       <c r="G836" s="42"/>
-      <c r="U836" s="43"/>
-      <c r="V836" s="43"/>
+      <c r="U836" s="44"/>
+      <c r="V836" s="44"/>
     </row>
     <row r="837" ht="14.25" customHeight="1">
       <c r="G837" s="42"/>
-      <c r="U837" s="43"/>
-      <c r="V837" s="43"/>
+      <c r="U837" s="44"/>
+      <c r="V837" s="44"/>
     </row>
     <row r="838" ht="14.25" customHeight="1">
       <c r="G838" s="42"/>
-      <c r="U838" s="43"/>
-      <c r="V838" s="43"/>
+      <c r="U838" s="44"/>
+      <c r="V838" s="44"/>
     </row>
     <row r="839" ht="14.25" customHeight="1">
       <c r="G839" s="42"/>
-      <c r="U839" s="43"/>
-      <c r="V839" s="43"/>
+      <c r="U839" s="44"/>
+      <c r="V839" s="44"/>
     </row>
     <row r="840" ht="14.25" customHeight="1">
       <c r="G840" s="42"/>
-      <c r="U840" s="43"/>
-      <c r="V840" s="43"/>
+      <c r="U840" s="44"/>
+      <c r="V840" s="44"/>
     </row>
     <row r="841" ht="14.25" customHeight="1">
       <c r="G841" s="42"/>
-      <c r="U841" s="43"/>
-      <c r="V841" s="43"/>
+      <c r="U841" s="44"/>
+      <c r="V841" s="44"/>
     </row>
     <row r="842" ht="14.25" customHeight="1">
       <c r="G842" s="42"/>
-      <c r="U842" s="43"/>
-      <c r="V842" s="43"/>
+      <c r="U842" s="44"/>
+      <c r="V842" s="44"/>
     </row>
     <row r="843" ht="14.25" customHeight="1">
       <c r="G843" s="42"/>
-      <c r="U843" s="43"/>
-      <c r="V843" s="43"/>
+      <c r="U843" s="44"/>
+      <c r="V843" s="44"/>
     </row>
     <row r="844" ht="14.25" customHeight="1">
       <c r="G844" s="42"/>
-      <c r="U844" s="43"/>
-      <c r="V844" s="43"/>
+      <c r="U844" s="44"/>
+      <c r="V844" s="44"/>
     </row>
     <row r="845" ht="14.25" customHeight="1">
       <c r="G845" s="42"/>
-      <c r="U845" s="43"/>
-      <c r="V845" s="43"/>
+      <c r="U845" s="44"/>
+      <c r="V845" s="44"/>
     </row>
     <row r="846" ht="14.25" customHeight="1">
       <c r="G846" s="42"/>
-      <c r="U846" s="43"/>
-      <c r="V846" s="43"/>
+      <c r="U846" s="44"/>
+      <c r="V846" s="44"/>
     </row>
     <row r="847" ht="14.25" customHeight="1">
       <c r="G847" s="42"/>
-      <c r="U847" s="43"/>
-      <c r="V847" s="43"/>
+      <c r="U847" s="44"/>
+      <c r="V847" s="44"/>
     </row>
     <row r="848" ht="14.25" customHeight="1">
       <c r="G848" s="42"/>
-      <c r="U848" s="43"/>
-      <c r="V848" s="43"/>
+      <c r="U848" s="44"/>
+      <c r="V848" s="44"/>
     </row>
     <row r="849" ht="14.25" customHeight="1">
       <c r="G849" s="42"/>
-      <c r="U849" s="43"/>
-      <c r="V849" s="43"/>
+      <c r="U849" s="44"/>
+      <c r="V849" s="44"/>
     </row>
     <row r="850" ht="14.25" customHeight="1">
       <c r="G850" s="42"/>
-      <c r="U850" s="43"/>
-      <c r="V850" s="43"/>
+      <c r="U850" s="44"/>
+      <c r="V850" s="44"/>
     </row>
     <row r="851" ht="14.25" customHeight="1">
       <c r="G851" s="42"/>
-      <c r="U851" s="43"/>
-      <c r="V851" s="43"/>
+      <c r="U851" s="44"/>
+      <c r="V851" s="44"/>
     </row>
     <row r="852" ht="14.25" customHeight="1">
       <c r="G852" s="42"/>
-      <c r="U852" s="43"/>
-      <c r="V852" s="43"/>
+      <c r="U852" s="44"/>
+      <c r="V852" s="44"/>
     </row>
     <row r="853" ht="14.25" customHeight="1">
       <c r="G853" s="42"/>
-      <c r="U853" s="43"/>
-      <c r="V853" s="43"/>
+      <c r="U853" s="44"/>
+      <c r="V853" s="44"/>
     </row>
     <row r="854" ht="14.25" customHeight="1">
       <c r="G854" s="42"/>
-      <c r="U854" s="43"/>
-      <c r="V854" s="43"/>
+      <c r="U854" s="44"/>
+      <c r="V854" s="44"/>
     </row>
     <row r="855" ht="14.25" customHeight="1">
       <c r="G855" s="42"/>
-      <c r="U855" s="43"/>
-      <c r="V855" s="43"/>
+      <c r="U855" s="44"/>
+      <c r="V855" s="44"/>
     </row>
     <row r="856" ht="14.25" customHeight="1">
       <c r="G856" s="42"/>
-      <c r="U856" s="43"/>
-      <c r="V856" s="43"/>
+      <c r="U856" s="44"/>
+      <c r="V856" s="44"/>
     </row>
     <row r="857" ht="14.25" customHeight="1">
       <c r="G857" s="42"/>
-      <c r="U857" s="43"/>
-      <c r="V857" s="43"/>
+      <c r="U857" s="44"/>
+      <c r="V857" s="44"/>
     </row>
     <row r="858" ht="14.25" customHeight="1">
       <c r="G858" s="42"/>
-      <c r="U858" s="43"/>
-      <c r="V858" s="43"/>
+      <c r="U858" s="44"/>
+      <c r="V858" s="44"/>
     </row>
     <row r="859" ht="14.25" customHeight="1">
       <c r="G859" s="42"/>
-      <c r="U859" s="43"/>
-      <c r="V859" s="43"/>
+      <c r="U859" s="44"/>
+      <c r="V859" s="44"/>
     </row>
     <row r="860" ht="14.25" customHeight="1">
       <c r="G860" s="42"/>
-      <c r="U860" s="43"/>
-      <c r="V860" s="43"/>
+      <c r="U860" s="44"/>
+      <c r="V860" s="44"/>
     </row>
     <row r="861" ht="14.25" customHeight="1">
       <c r="G861" s="42"/>
-      <c r="U861" s="43"/>
-      <c r="V861" s="43"/>
+      <c r="U861" s="44"/>
+      <c r="V861" s="44"/>
     </row>
     <row r="862" ht="14.25" customHeight="1">
       <c r="G862" s="42"/>
-      <c r="U862" s="43"/>
-      <c r="V862" s="43"/>
+      <c r="U862" s="44"/>
+      <c r="V862" s="44"/>
     </row>
     <row r="863" ht="14.25" customHeight="1">
       <c r="G863" s="42"/>
-      <c r="U863" s="43"/>
-      <c r="V863" s="43"/>
+      <c r="U863" s="44"/>
+      <c r="V863" s="44"/>
     </row>
     <row r="864" ht="14.25" customHeight="1">
       <c r="G864" s="42"/>
-      <c r="U864" s="43"/>
-      <c r="V864" s="43"/>
+      <c r="U864" s="44"/>
+      <c r="V864" s="44"/>
     </row>
     <row r="865" ht="14.25" customHeight="1">
       <c r="G865" s="42"/>
-      <c r="U865" s="43"/>
-      <c r="V865" s="43"/>
+      <c r="U865" s="44"/>
+      <c r="V865" s="44"/>
     </row>
     <row r="866" ht="14.25" customHeight="1">
       <c r="G866" s="42"/>
-      <c r="U866" s="43"/>
-      <c r="V866" s="43"/>
+      <c r="U866" s="44"/>
+      <c r="V866" s="44"/>
     </row>
     <row r="867" ht="14.25" customHeight="1">
       <c r="G867" s="42"/>
-      <c r="U867" s="43"/>
-      <c r="V867" s="43"/>
+      <c r="U867" s="44"/>
+      <c r="V867" s="44"/>
     </row>
     <row r="868" ht="14.25" customHeight="1">
       <c r="G868" s="42"/>
-      <c r="U868" s="43"/>
-      <c r="V868" s="43"/>
+      <c r="U868" s="44"/>
+      <c r="V868" s="44"/>
     </row>
     <row r="869" ht="14.25" customHeight="1">
       <c r="G869" s="42"/>
-      <c r="U869" s="43"/>
-      <c r="V869" s="43"/>
+      <c r="U869" s="44"/>
+      <c r="V869" s="44"/>
     </row>
     <row r="870" ht="14.25" customHeight="1">
       <c r="G870" s="42"/>
-      <c r="U870" s="43"/>
-      <c r="V870" s="43"/>
+      <c r="U870" s="44"/>
+      <c r="V870" s="44"/>
     </row>
     <row r="871" ht="14.25" customHeight="1">
       <c r="G871" s="42"/>
-      <c r="U871" s="43"/>
-      <c r="V871" s="43"/>
+      <c r="U871" s="44"/>
+      <c r="V871" s="44"/>
     </row>
     <row r="872" ht="14.25" customHeight="1">
       <c r="G872" s="42"/>
-      <c r="U872" s="43"/>
-      <c r="V872" s="43"/>
+      <c r="U872" s="44"/>
+      <c r="V872" s="44"/>
     </row>
     <row r="873" ht="14.25" customHeight="1">
       <c r="G873" s="42"/>
-      <c r="U873" s="43"/>
-      <c r="V873" s="43"/>
+      <c r="U873" s="44"/>
+      <c r="V873" s="44"/>
     </row>
     <row r="874" ht="14.25" customHeight="1">
       <c r="G874" s="42"/>
-      <c r="U874" s="43"/>
-      <c r="V874" s="43"/>
+      <c r="U874" s="44"/>
+      <c r="V874" s="44"/>
     </row>
     <row r="875" ht="14.25" customHeight="1">
       <c r="G875" s="42"/>
-      <c r="U875" s="43"/>
-      <c r="V875" s="43"/>
+      <c r="U875" s="44"/>
+      <c r="V875" s="44"/>
     </row>
     <row r="876" ht="14.25" customHeight="1">
       <c r="G876" s="42"/>
-      <c r="U876" s="43"/>
-      <c r="V876" s="43"/>
+      <c r="U876" s="44"/>
+      <c r="V876" s="44"/>
     </row>
     <row r="877" ht="14.25" customHeight="1">
       <c r="G877" s="42"/>
-      <c r="U877" s="43"/>
-      <c r="V877" s="43"/>
+      <c r="U877" s="44"/>
+      <c r="V877" s="44"/>
     </row>
     <row r="878" ht="14.25" customHeight="1">
       <c r="G878" s="42"/>
-      <c r="U878" s="43"/>
-      <c r="V878" s="43"/>
+      <c r="U878" s="44"/>
+      <c r="V878" s="44"/>
     </row>
     <row r="879" ht="14.25" customHeight="1">
       <c r="G879" s="42"/>
-      <c r="U879" s="43"/>
-      <c r="V879" s="43"/>
+      <c r="U879" s="44"/>
+      <c r="V879" s="44"/>
     </row>
     <row r="880" ht="14.25" customHeight="1">
       <c r="G880" s="42"/>
-      <c r="U880" s="43"/>
-      <c r="V880" s="43"/>
+      <c r="U880" s="44"/>
+      <c r="V880" s="44"/>
     </row>
     <row r="881" ht="14.25" customHeight="1">
       <c r="G881" s="42"/>
-      <c r="U881" s="43"/>
-      <c r="V881" s="43"/>
+      <c r="U881" s="44"/>
+      <c r="V881" s="44"/>
     </row>
     <row r="882" ht="14.25" customHeight="1">
       <c r="G882" s="42"/>
-      <c r="U882" s="43"/>
-      <c r="V882" s="43"/>
+      <c r="U882" s="44"/>
+      <c r="V882" s="44"/>
     </row>
     <row r="883" ht="14.25" customHeight="1">
       <c r="G883" s="42"/>
-      <c r="U883" s="43"/>
-      <c r="V883" s="43"/>
+      <c r="U883" s="44"/>
+      <c r="V883" s="44"/>
     </row>
     <row r="884" ht="14.25" customHeight="1">
       <c r="G884" s="42"/>
-      <c r="U884" s="43"/>
-      <c r="V884" s="43"/>
+      <c r="U884" s="44"/>
+      <c r="V884" s="44"/>
     </row>
     <row r="885" ht="14.25" customHeight="1">
       <c r="G885" s="42"/>
-      <c r="U885" s="43"/>
-      <c r="V885" s="43"/>
+      <c r="U885" s="44"/>
+      <c r="V885" s="44"/>
     </row>
     <row r="886" ht="14.25" customHeight="1">
       <c r="G886" s="42"/>
-      <c r="U886" s="43"/>
-      <c r="V886" s="43"/>
+      <c r="U886" s="44"/>
+      <c r="V886" s="44"/>
     </row>
     <row r="887" ht="14.25" customHeight="1">
       <c r="G887" s="42"/>
-      <c r="U887" s="43"/>
-      <c r="V887" s="43"/>
+      <c r="U887" s="44"/>
+      <c r="V887" s="44"/>
     </row>
     <row r="888" ht="14.25" customHeight="1">
       <c r="G888" s="42"/>
-      <c r="U888" s="43"/>
-      <c r="V888" s="43"/>
+      <c r="U888" s="44"/>
+      <c r="V888" s="44"/>
     </row>
     <row r="889" ht="14.25" customHeight="1">
       <c r="G889" s="42"/>
-      <c r="U889" s="43"/>
-      <c r="V889" s="43"/>
+      <c r="U889" s="44"/>
+      <c r="V889" s="44"/>
     </row>
     <row r="890" ht="14.25" customHeight="1">
       <c r="G890" s="42"/>
-      <c r="U890" s="43"/>
-      <c r="V890" s="43"/>
+      <c r="U890" s="44"/>
+      <c r="V890" s="44"/>
     </row>
     <row r="891" ht="14.25" customHeight="1">
       <c r="G891" s="42"/>
-      <c r="U891" s="43"/>
-      <c r="V891" s="43"/>
+      <c r="U891" s="44"/>
+      <c r="V891" s="44"/>
     </row>
     <row r="892" ht="14.25" customHeight="1">
       <c r="G892" s="42"/>
-      <c r="U892" s="43"/>
-      <c r="V892" s="43"/>
+      <c r="U892" s="44"/>
+      <c r="V892" s="44"/>
     </row>
     <row r="893" ht="14.25" customHeight="1">
       <c r="G893" s="42"/>
-      <c r="U893" s="43"/>
-      <c r="V893" s="43"/>
+      <c r="U893" s="44"/>
+      <c r="V893" s="44"/>
     </row>
     <row r="894" ht="14.25" customHeight="1">
       <c r="G894" s="42"/>
-      <c r="U894" s="43"/>
-      <c r="V894" s="43"/>
+      <c r="U894" s="44"/>
+      <c r="V894" s="44"/>
     </row>
     <row r="895" ht="14.25" customHeight="1">
       <c r="G895" s="42"/>
-      <c r="U895" s="43"/>
-      <c r="V895" s="43"/>
+      <c r="U895" s="44"/>
+      <c r="V895" s="44"/>
     </row>
     <row r="896" ht="14.25" customHeight="1">
       <c r="G896" s="42"/>
-      <c r="U896" s="43"/>
-      <c r="V896" s="43"/>
+      <c r="U896" s="44"/>
+      <c r="V896" s="44"/>
     </row>
     <row r="897" ht="14.25" customHeight="1">
       <c r="G897" s="42"/>
-      <c r="U897" s="43"/>
-      <c r="V897" s="43"/>
+      <c r="U897" s="44"/>
+      <c r="V897" s="44"/>
     </row>
     <row r="898" ht="14.25" customHeight="1">
       <c r="G898" s="42"/>
-      <c r="U898" s="43"/>
-      <c r="V898" s="43"/>
+      <c r="U898" s="44"/>
+      <c r="V898" s="44"/>
     </row>
     <row r="899" ht="14.25" customHeight="1">
       <c r="G899" s="42"/>
-      <c r="U899" s="43"/>
-      <c r="V899" s="43"/>
+      <c r="U899" s="44"/>
+      <c r="V899" s="44"/>
     </row>
     <row r="900" ht="14.25" customHeight="1">
       <c r="G900" s="42"/>
-      <c r="U900" s="43"/>
-      <c r="V900" s="43"/>
+      <c r="U900" s="44"/>
+      <c r="V900" s="44"/>
     </row>
     <row r="901" ht="14.25" customHeight="1">
       <c r="G901" s="42"/>
-      <c r="U901" s="43"/>
-      <c r="V901" s="43"/>
+      <c r="U901" s="44"/>
+      <c r="V901" s="44"/>
     </row>
     <row r="902" ht="14.25" customHeight="1">
       <c r="G902" s="42"/>
-      <c r="U902" s="43"/>
-      <c r="V902" s="43"/>
+      <c r="U902" s="44"/>
+      <c r="V902" s="44"/>
     </row>
     <row r="903" ht="14.25" customHeight="1">
       <c r="G903" s="42"/>
-      <c r="U903" s="43"/>
-      <c r="V903" s="43"/>
+      <c r="U903" s="44"/>
+      <c r="V903" s="44"/>
     </row>
     <row r="904" ht="14.25" customHeight="1">
       <c r="G904" s="42"/>
-      <c r="U904" s="43"/>
-      <c r="V904" s="43"/>
+      <c r="U904" s="44"/>
+      <c r="V904" s="44"/>
     </row>
     <row r="905" ht="14.25" customHeight="1">
       <c r="G905" s="42"/>
-      <c r="U905" s="43"/>
-      <c r="V905" s="43"/>
+      <c r="U905" s="44"/>
+      <c r="V905" s="44"/>
     </row>
     <row r="906" ht="14.25" customHeight="1">
       <c r="G906" s="42"/>
-      <c r="U906" s="43"/>
-      <c r="V906" s="43"/>
+      <c r="U906" s="44"/>
+      <c r="V906" s="44"/>
     </row>
     <row r="907" ht="14.25" customHeight="1">
       <c r="G907" s="42"/>
-      <c r="U907" s="43"/>
-      <c r="V907" s="43"/>
+      <c r="U907" s="44"/>
+      <c r="V907" s="44"/>
     </row>
     <row r="908" ht="14.25" customHeight="1">
       <c r="G908" s="42"/>
-      <c r="U908" s="43"/>
-      <c r="V908" s="43"/>
+      <c r="U908" s="44"/>
+      <c r="V908" s="44"/>
     </row>
     <row r="909" ht="14.25" customHeight="1">
       <c r="G909" s="42"/>
-      <c r="U909" s="43"/>
-      <c r="V909" s="43"/>
+      <c r="U909" s="44"/>
+      <c r="V909" s="44"/>
     </row>
     <row r="910" ht="14.25" customHeight="1">
       <c r="G910" s="42"/>
-      <c r="U910" s="43"/>
-      <c r="V910" s="43"/>
+      <c r="U910" s="44"/>
+      <c r="V910" s="44"/>
     </row>
     <row r="911" ht="14.25" customHeight="1">
       <c r="G911" s="42"/>
-      <c r="U911" s="43"/>
-      <c r="V911" s="43"/>
+      <c r="U911" s="44"/>
+      <c r="V911" s="44"/>
     </row>
     <row r="912" ht="14.25" customHeight="1">
       <c r="G912" s="42"/>
-      <c r="U912" s="43"/>
-      <c r="V912" s="43"/>
+      <c r="U912" s="44"/>
+      <c r="V912" s="44"/>
     </row>
     <row r="913" ht="14.25" customHeight="1">
       <c r="G913" s="42"/>
-      <c r="U913" s="43"/>
-      <c r="V913" s="43"/>
+      <c r="U913" s="44"/>
+      <c r="V913" s="44"/>
     </row>
     <row r="914" ht="14.25" customHeight="1">
       <c r="G914" s="42"/>
-      <c r="U914" s="43"/>
-      <c r="V914" s="43"/>
+      <c r="U914" s="44"/>
+      <c r="V914" s="44"/>
     </row>
     <row r="915" ht="14.25" customHeight="1">
       <c r="G915" s="42"/>
-      <c r="U915" s="43"/>
-      <c r="V915" s="43"/>
+      <c r="U915" s="44"/>
+      <c r="V915" s="44"/>
     </row>
     <row r="916" ht="14.25" customHeight="1">
       <c r="G916" s="42"/>
-      <c r="U916" s="43"/>
-      <c r="V916" s="43"/>
+      <c r="U916" s="44"/>
+      <c r="V916" s="44"/>
     </row>
     <row r="917" ht="14.25" customHeight="1">
       <c r="G917" s="42"/>
-      <c r="U917" s="43"/>
-      <c r="V917" s="43"/>
+      <c r="U917" s="44"/>
+      <c r="V917" s="44"/>
     </row>
     <row r="918" ht="14.25" customHeight="1">
       <c r="G918" s="42"/>
-      <c r="U918" s="43"/>
-      <c r="V918" s="43"/>
+      <c r="U918" s="44"/>
+      <c r="V918" s="44"/>
     </row>
     <row r="919" ht="14.25" customHeight="1">
       <c r="G919" s="42"/>
-      <c r="U919" s="43"/>
-      <c r="V919" s="43"/>
+      <c r="U919" s="44"/>
+      <c r="V919" s="44"/>
     </row>
     <row r="920" ht="14.25" customHeight="1">
       <c r="G920" s="42"/>
-      <c r="U920" s="43"/>
-      <c r="V920" s="43"/>
+      <c r="U920" s="44"/>
+      <c r="V920" s="44"/>
     </row>
     <row r="921" ht="14.25" customHeight="1">
       <c r="G921" s="42"/>
-      <c r="U921" s="43"/>
-      <c r="V921" s="43"/>
+      <c r="U921" s="44"/>
+      <c r="V921" s="44"/>
     </row>
     <row r="922" ht="14.25" customHeight="1">
       <c r="G922" s="42"/>
-      <c r="U922" s="43"/>
-      <c r="V922" s="43"/>
+      <c r="U922" s="44"/>
+      <c r="V922" s="44"/>
     </row>
     <row r="923" ht="14.25" customHeight="1">
       <c r="G923" s="42"/>
-      <c r="U923" s="43"/>
-      <c r="V923" s="43"/>
+      <c r="U923" s="44"/>
+      <c r="V923" s="44"/>
     </row>
     <row r="924" ht="14.25" customHeight="1">
       <c r="G924" s="42"/>
-      <c r="U924" s="43"/>
-      <c r="V924" s="43"/>
+      <c r="U924" s="44"/>
+      <c r="V924" s="44"/>
     </row>
     <row r="925" ht="14.25" customHeight="1">
       <c r="G925" s="42"/>
-      <c r="U925" s="43"/>
-      <c r="V925" s="43"/>
+      <c r="U925" s="44"/>
+      <c r="V925" s="44"/>
     </row>
     <row r="926" ht="14.25" customHeight="1">
       <c r="G926" s="42"/>
-      <c r="U926" s="43"/>
-      <c r="V926" s="43"/>
+      <c r="U926" s="44"/>
+      <c r="V926" s="44"/>
     </row>
     <row r="927" ht="14.25" customHeight="1">
       <c r="G927" s="42"/>
-      <c r="U927" s="43"/>
-      <c r="V927" s="43"/>
+      <c r="U927" s="44"/>
+      <c r="V927" s="44"/>
     </row>
     <row r="928" ht="14.25" customHeight="1">
       <c r="G928" s="42"/>
-      <c r="U928" s="43"/>
-      <c r="V928" s="43"/>
+      <c r="U928" s="44"/>
+      <c r="V928" s="44"/>
     </row>
     <row r="929" ht="14.25" customHeight="1">
       <c r="G929" s="42"/>
-      <c r="U929" s="43"/>
-      <c r="V929" s="43"/>
+      <c r="U929" s="44"/>
+      <c r="V929" s="44"/>
     </row>
     <row r="930" ht="14.25" customHeight="1">
       <c r="G930" s="42"/>
-      <c r="U930" s="43"/>
-      <c r="V930" s="43"/>
+      <c r="U930" s="44"/>
+      <c r="V930" s="44"/>
     </row>
     <row r="931" ht="14.25" customHeight="1">
       <c r="G931" s="42"/>
-      <c r="U931" s="43"/>
-      <c r="V931" s="43"/>
+      <c r="U931" s="44"/>
+      <c r="V931" s="44"/>
     </row>
     <row r="932" ht="14.25" customHeight="1">
       <c r="G932" s="42"/>
-      <c r="U932" s="43"/>
-      <c r="V932" s="43"/>
+      <c r="U932" s="44"/>
+      <c r="V932" s="44"/>
     </row>
     <row r="933" ht="14.25" customHeight="1">
       <c r="G933" s="42"/>
-      <c r="U933" s="43"/>
-      <c r="V933" s="43"/>
+      <c r="U933" s="44"/>
+      <c r="V933" s="44"/>
     </row>
     <row r="934" ht="14.25" customHeight="1">
       <c r="G934" s="42"/>
-      <c r="U934" s="43"/>
-      <c r="V934" s="43"/>
+      <c r="U934" s="44"/>
+      <c r="V934" s="44"/>
     </row>
     <row r="935" ht="14.25" customHeight="1">
       <c r="G935" s="42"/>
-      <c r="U935" s="43"/>
-      <c r="V935" s="43"/>
+      <c r="U935" s="44"/>
+      <c r="V935" s="44"/>
     </row>
     <row r="936" ht="14.25" customHeight="1">
       <c r="G936" s="42"/>
-      <c r="U936" s="43"/>
-      <c r="V936" s="43"/>
+      <c r="U936" s="44"/>
+      <c r="V936" s="44"/>
     </row>
     <row r="937" ht="14.25" customHeight="1">
       <c r="G937" s="42"/>
-      <c r="U937" s="43"/>
-      <c r="V937" s="43"/>
+      <c r="U937" s="44"/>
+      <c r="V937" s="44"/>
     </row>
     <row r="938" ht="14.25" customHeight="1">
       <c r="G938" s="42"/>
-      <c r="U938" s="43"/>
-      <c r="V938" s="43"/>
+      <c r="U938" s="44"/>
+      <c r="V938" s="44"/>
     </row>
     <row r="939" ht="14.25" customHeight="1">
       <c r="G939" s="42"/>
-      <c r="U939" s="43"/>
-      <c r="V939" s="43"/>
+      <c r="U939" s="44"/>
+      <c r="V939" s="44"/>
     </row>
     <row r="940" ht="14.25" customHeight="1">
       <c r="G940" s="42"/>
-      <c r="U940" s="43"/>
-      <c r="V940" s="43"/>
+      <c r="U940" s="44"/>
+      <c r="V940" s="44"/>
     </row>
     <row r="941" ht="14.25" customHeight="1">
       <c r="G941" s="42"/>
-      <c r="U941" s="43"/>
-      <c r="V941" s="43"/>
+      <c r="U941" s="44"/>
+      <c r="V941" s="44"/>
     </row>
     <row r="942" ht="14.25" customHeight="1">
       <c r="G942" s="42"/>
-      <c r="U942" s="43"/>
-      <c r="V942" s="43"/>
+      <c r="U942" s="44"/>
+      <c r="V942" s="44"/>
     </row>
     <row r="943" ht="14.25" customHeight="1">
       <c r="G943" s="42"/>
-      <c r="U943" s="43"/>
-      <c r="V943" s="43"/>
+      <c r="U943" s="44"/>
+      <c r="V943" s="44"/>
     </row>
     <row r="944" ht="14.25" customHeight="1">
       <c r="G944" s="42"/>
-      <c r="U944" s="43"/>
-      <c r="V944" s="43"/>
+      <c r="U944" s="44"/>
+      <c r="V944" s="44"/>
     </row>
     <row r="945" ht="14.25" customHeight="1">
       <c r="G945" s="42"/>
-      <c r="U945" s="43"/>
-      <c r="V945" s="43"/>
+      <c r="U945" s="44"/>
+      <c r="V945" s="44"/>
     </row>
     <row r="946" ht="14.25" customHeight="1">
       <c r="G946" s="42"/>
-      <c r="U946" s="43"/>
-      <c r="V946" s="43"/>
+      <c r="U946" s="44"/>
+      <c r="V946" s="44"/>
     </row>
     <row r="947" ht="14.25" customHeight="1">
       <c r="G947" s="42"/>
-      <c r="U947" s="43"/>
-      <c r="V947" s="43"/>
+      <c r="U947" s="44"/>
+      <c r="V947" s="44"/>
     </row>
     <row r="948" ht="14.25" customHeight="1">
       <c r="G948" s="42"/>
-      <c r="U948" s="43"/>
-      <c r="V948" s="43"/>
+      <c r="U948" s="44"/>
+      <c r="V948" s="44"/>
     </row>
     <row r="949" ht="14.25" customHeight="1">
       <c r="G949" s="42"/>
-      <c r="U949" s="43"/>
-      <c r="V949" s="43"/>
+      <c r="U949" s="44"/>
+      <c r="V949" s="44"/>
     </row>
     <row r="950" ht="14.25" customHeight="1">
       <c r="G950" s="42"/>
-      <c r="U950" s="43"/>
-      <c r="V950" s="43"/>
+      <c r="U950" s="44"/>
+      <c r="V950" s="44"/>
     </row>
     <row r="951" ht="14.25" customHeight="1">
       <c r="G951" s="42"/>
-      <c r="U951" s="43"/>
-      <c r="V951" s="43"/>
+      <c r="U951" s="44"/>
+      <c r="V951" s="44"/>
     </row>
     <row r="952" ht="14.25" customHeight="1">
       <c r="G952" s="42"/>
-      <c r="U952" s="43"/>
-      <c r="V952" s="43"/>
+      <c r="U952" s="44"/>
+      <c r="V952" s="44"/>
     </row>
     <row r="953" ht="14.25" customHeight="1">
       <c r="G953" s="42"/>
-      <c r="U953" s="43"/>
-      <c r="V953" s="43"/>
+      <c r="U953" s="44"/>
+      <c r="V953" s="44"/>
     </row>
     <row r="954" ht="14.25" customHeight="1">
       <c r="G954" s="42"/>
-      <c r="U954" s="43"/>
-      <c r="V954" s="43"/>
+      <c r="U954" s="44"/>
+      <c r="V954" s="44"/>
     </row>
     <row r="955" ht="14.25" customHeight="1">
       <c r="G955" s="42"/>
-      <c r="U955" s="43"/>
-      <c r="V955" s="43"/>
+      <c r="U955" s="44"/>
+      <c r="V955" s="44"/>
     </row>
     <row r="956" ht="14.25" customHeight="1">
       <c r="G956" s="42"/>
-      <c r="U956" s="43"/>
-      <c r="V956" s="43"/>
+      <c r="U956" s="44"/>
+      <c r="V956" s="44"/>
     </row>
     <row r="957" ht="14.25" customHeight="1">
       <c r="G957" s="42"/>
-      <c r="U957" s="43"/>
-      <c r="V957" s="43"/>
+      <c r="U957" s="44"/>
+      <c r="V957" s="44"/>
     </row>
     <row r="958" ht="14.25" customHeight="1">
       <c r="G958" s="42"/>
-      <c r="U958" s="43"/>
-      <c r="V958" s="43"/>
+      <c r="U958" s="44"/>
+      <c r="V958" s="44"/>
     </row>
     <row r="959" ht="14.25" customHeight="1">
       <c r="G959" s="42"/>
-      <c r="U959" s="43"/>
-      <c r="V959" s="43"/>
+      <c r="U959" s="44"/>
+      <c r="V959" s="44"/>
     </row>
     <row r="960" ht="14.25" customHeight="1">
       <c r="G960" s="42"/>
-      <c r="U960" s="43"/>
-      <c r="V960" s="43"/>
+      <c r="U960" s="44"/>
+      <c r="V960" s="44"/>
     </row>
     <row r="961" ht="14.25" customHeight="1">
       <c r="G961" s="42"/>
-      <c r="U961" s="43"/>
-      <c r="V961" s="43"/>
+      <c r="U961" s="44"/>
+      <c r="V961" s="44"/>
     </row>
     <row r="962" ht="14.25" customHeight="1">
       <c r="G962" s="42"/>
-      <c r="U962" s="43"/>
-      <c r="V962" s="43"/>
+      <c r="U962" s="44"/>
+      <c r="V962" s="44"/>
     </row>
     <row r="963" ht="14.25" customHeight="1">
       <c r="G963" s="42"/>
-      <c r="U963" s="43"/>
-      <c r="V963" s="43"/>
+      <c r="U963" s="44"/>
+      <c r="V963" s="44"/>
     </row>
     <row r="964" ht="14.25" customHeight="1">
       <c r="G964" s="42"/>
-      <c r="U964" s="43"/>
-      <c r="V964" s="43"/>
+      <c r="U964" s="44"/>
+      <c r="V964" s="44"/>
     </row>
     <row r="965" ht="14.25" customHeight="1">
       <c r="G965" s="42"/>
-      <c r="U965" s="43"/>
-      <c r="V965" s="43"/>
+      <c r="U965" s="44"/>
+      <c r="V965" s="44"/>
     </row>
     <row r="966" ht="14.25" customHeight="1">
       <c r="G966" s="42"/>
-      <c r="U966" s="43"/>
-      <c r="V966" s="43"/>
+      <c r="U966" s="44"/>
+      <c r="V966" s="44"/>
     </row>
     <row r="967" ht="14.25" customHeight="1">
       <c r="G967" s="42"/>
-      <c r="U967" s="43"/>
-      <c r="V967" s="43"/>
+      <c r="U967" s="44"/>
+      <c r="V967" s="44"/>
     </row>
     <row r="968" ht="14.25" customHeight="1">
       <c r="G968" s="42"/>
-      <c r="U968" s="43"/>
-      <c r="V968" s="43"/>
+      <c r="U968" s="44"/>
+      <c r="V968" s="44"/>
     </row>
     <row r="969" ht="14.25" customHeight="1">
       <c r="G969" s="42"/>
-      <c r="U969" s="43"/>
-      <c r="V969" s="43"/>
+      <c r="U969" s="44"/>
+      <c r="V969" s="44"/>
     </row>
     <row r="970" ht="14.25" customHeight="1">
       <c r="G970" s="42"/>
-      <c r="U970" s="43"/>
-      <c r="V970" s="43"/>
+      <c r="U970" s="44"/>
+      <c r="V970" s="44"/>
     </row>
     <row r="971" ht="14.25" customHeight="1">
       <c r="G971" s="42"/>
-      <c r="U971" s="43"/>
-      <c r="V971" s="43"/>
+      <c r="U971" s="44"/>
+      <c r="V971" s="44"/>
     </row>
     <row r="972" ht="14.25" customHeight="1">
       <c r="G972" s="42"/>
-      <c r="U972" s="43"/>
-      <c r="V972" s="43"/>
+      <c r="U972" s="44"/>
+      <c r="V972" s="44"/>
     </row>
     <row r="973" ht="14.25" customHeight="1">
       <c r="G973" s="42"/>
-      <c r="U973" s="43"/>
-      <c r="V973" s="43"/>
+      <c r="U973" s="44"/>
+      <c r="V973" s="44"/>
     </row>
     <row r="974" ht="14.25" customHeight="1">
       <c r="G974" s="42"/>
-      <c r="U974" s="43"/>
-      <c r="V974" s="43"/>
+      <c r="U974" s="44"/>
+      <c r="V974" s="44"/>
     </row>
     <row r="975" ht="14.25" customHeight="1">
       <c r="G975" s="42"/>
-      <c r="U975" s="43"/>
-      <c r="V975" s="43"/>
+      <c r="U975" s="44"/>
+      <c r="V975" s="44"/>
     </row>
     <row r="976" ht="14.25" customHeight="1">
       <c r="G976" s="42"/>
-      <c r="U976" s="43"/>
-      <c r="V976" s="43"/>
+      <c r="U976" s="44"/>
+      <c r="V976" s="44"/>
     </row>
     <row r="977" ht="14.25" customHeight="1">
       <c r="G977" s="42"/>
-      <c r="U977" s="43"/>
-      <c r="V977" s="43"/>
+      <c r="U977" s="44"/>
+      <c r="V977" s="44"/>
     </row>
     <row r="978" ht="14.25" customHeight="1">
       <c r="G978" s="42"/>
-      <c r="U978" s="43"/>
-      <c r="V978" s="43"/>
+      <c r="U978" s="44"/>
+      <c r="V978" s="44"/>
     </row>
     <row r="979" ht="14.25" customHeight="1">
       <c r="G979" s="42"/>
-      <c r="U979" s="43"/>
-      <c r="V979" s="43"/>
+      <c r="U979" s="44"/>
+      <c r="V979" s="44"/>
     </row>
     <row r="980" ht="14.25" customHeight="1">
       <c r="G980" s="42"/>
-      <c r="U980" s="43"/>
-      <c r="V980" s="43"/>
+      <c r="U980" s="44"/>
+      <c r="V980" s="44"/>
     </row>
     <row r="981" ht="14.25" customHeight="1">
       <c r="G981" s="42"/>
-      <c r="U981" s="43"/>
-      <c r="V981" s="43"/>
+      <c r="U981" s="44"/>
+      <c r="V981" s="44"/>
     </row>
     <row r="982" ht="14.25" customHeight="1">
       <c r="G982" s="42"/>
-      <c r="U982" s="43"/>
-      <c r="V982" s="43"/>
+      <c r="U982" s="44"/>
+      <c r="V982" s="44"/>
     </row>
     <row r="983" ht="14.25" customHeight="1">
       <c r="G983" s="42"/>
-      <c r="U983" s="43"/>
-      <c r="V983" s="43"/>
+      <c r="U983" s="44"/>
+      <c r="V983" s="44"/>
     </row>
     <row r="984" ht="14.25" customHeight="1">
       <c r="G984" s="42"/>
-      <c r="U984" s="43"/>
-      <c r="V984" s="43"/>
+      <c r="U984" s="44"/>
+      <c r="V984" s="44"/>
     </row>
     <row r="985" ht="14.25" customHeight="1">
       <c r="G985" s="42"/>
-      <c r="U985" s="43"/>
-      <c r="V985" s="43"/>
+      <c r="U985" s="44"/>
+      <c r="V985" s="44"/>
     </row>
     <row r="986" ht="14.25" customHeight="1">
       <c r="G986" s="42"/>
-      <c r="U986" s="43"/>
-      <c r="V986" s="43"/>
+      <c r="U986" s="44"/>
+      <c r="V986" s="44"/>
     </row>
     <row r="987" ht="14.25" customHeight="1">
       <c r="G987" s="42"/>
-      <c r="U987" s="43"/>
-      <c r="V987" s="43"/>
+      <c r="U987" s="44"/>
+      <c r="V987" s="44"/>
     </row>
     <row r="988" ht="14.25" customHeight="1">
       <c r="G988" s="42"/>
-      <c r="U988" s="43"/>
-      <c r="V988" s="43"/>
+      <c r="U988" s="44"/>
+      <c r="V988" s="44"/>
     </row>
     <row r="989" ht="14.25" customHeight="1">
       <c r="G989" s="42"/>
-      <c r="U989" s="43"/>
-      <c r="V989" s="43"/>
+      <c r="U989" s="44"/>
+      <c r="V989" s="44"/>
     </row>
     <row r="990" ht="14.25" customHeight="1">
       <c r="G990" s="42"/>
-      <c r="U990" s="43"/>
-      <c r="V990" s="43"/>
+      <c r="U990" s="44"/>
+      <c r="V990" s="44"/>
     </row>
     <row r="991" ht="14.25" customHeight="1">
       <c r="G991" s="42"/>
-      <c r="U991" s="43"/>
-      <c r="V991" s="43"/>
+      <c r="U991" s="44"/>
+      <c r="V991" s="44"/>
     </row>
     <row r="992" ht="14.25" customHeight="1">
       <c r="G992" s="42"/>
-      <c r="U992" s="43"/>
-      <c r="V992" s="43"/>
+      <c r="U992" s="44"/>
+      <c r="V992" s="44"/>
     </row>
     <row r="993" ht="14.25" customHeight="1">
       <c r="G993" s="42"/>
-      <c r="U993" s="43"/>
-      <c r="V993" s="43"/>
+      <c r="U993" s="44"/>
+      <c r="V993" s="44"/>
     </row>
     <row r="994" ht="14.25" customHeight="1">
       <c r="G994" s="42"/>
-      <c r="U994" s="43"/>
-      <c r="V994" s="43"/>
+      <c r="U994" s="44"/>
+      <c r="V994" s="44"/>
     </row>
     <row r="995" ht="14.25" customHeight="1">
       <c r="G995" s="42"/>
-      <c r="U995" s="43"/>
-      <c r="V995" s="43"/>
+      <c r="U995" s="44"/>
+      <c r="V995" s="44"/>
     </row>
     <row r="996" ht="14.25" customHeight="1">
       <c r="G996" s="42"/>
-      <c r="U996" s="43"/>
-      <c r="V996" s="43"/>
+      <c r="U996" s="44"/>
+      <c r="V996" s="44"/>
     </row>
     <row r="997" ht="14.25" customHeight="1">
       <c r="G997" s="42"/>
-      <c r="U997" s="43"/>
-      <c r="V997" s="43"/>
+      <c r="U997" s="44"/>
+      <c r="V997" s="44"/>
     </row>
     <row r="998" ht="14.25" customHeight="1">
       <c r="G998" s="42"/>
-      <c r="U998" s="43"/>
-      <c r="V998" s="43"/>
+      <c r="U998" s="44"/>
+      <c r="V998" s="44"/>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H44">
+      <formula1>"Phytoplankton biomass and diversity,Zooplankton biomass and diversity,Fish abundance and distribution,Marine turtles, birds, mammals abundance and distribution,Hard coral cover and composition,Seagrass cover and composition,Macroalgal canopy cover and com"&amp;"position,Mangrove cover and composition"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E2"/>
     <hyperlink r:id="rId2" ref="AA2"/>
@@ -11649,53 +11710,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -11717,90 +11778,90 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="G3" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
+      <c r="H3" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="23"/>
